--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>CAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8667000</v>
+        <v>7267700</v>
       </c>
       <c r="E8" s="3">
-        <v>7903700</v>
+        <v>8857700</v>
       </c>
       <c r="F8" s="3">
-        <v>8234300</v>
+        <v>8077600</v>
       </c>
       <c r="G8" s="3">
-        <v>7858000</v>
+        <v>8415500</v>
       </c>
       <c r="H8" s="3">
-        <v>9620300</v>
+        <v>8030900</v>
       </c>
       <c r="I8" s="3">
-        <v>8421900</v>
+        <v>9832000</v>
       </c>
       <c r="J8" s="3">
+        <v>8607200</v>
+      </c>
+      <c r="K8" s="3">
         <v>9148100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8684800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10127400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8990200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8972000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8628400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8561100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4818400</v>
+        <v>3935700</v>
       </c>
       <c r="E9" s="3">
-        <v>4359700</v>
+        <v>4924400</v>
       </c>
       <c r="F9" s="3">
-        <v>4540100</v>
+        <v>4455700</v>
       </c>
       <c r="G9" s="3">
-        <v>4309700</v>
+        <v>4640000</v>
       </c>
       <c r="H9" s="3">
-        <v>5172800</v>
+        <v>4404500</v>
       </c>
       <c r="I9" s="3">
-        <v>4540100</v>
+        <v>5286600</v>
       </c>
       <c r="J9" s="3">
+        <v>4640000</v>
+      </c>
+      <c r="K9" s="3">
         <v>4834400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4664800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5186500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4630800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4492200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4478900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4479900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3848700</v>
+        <v>3332000</v>
       </c>
       <c r="E10" s="3">
-        <v>3544000</v>
+        <v>3933300</v>
       </c>
       <c r="F10" s="3">
-        <v>3694200</v>
+        <v>3621900</v>
       </c>
       <c r="G10" s="3">
-        <v>3548300</v>
+        <v>3775500</v>
       </c>
       <c r="H10" s="3">
-        <v>4447500</v>
+        <v>3626400</v>
       </c>
       <c r="I10" s="3">
-        <v>3881700</v>
+        <v>4545400</v>
       </c>
       <c r="J10" s="3">
+        <v>3967100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4313700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4020000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4940900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4359400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4479800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4149500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4081100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>693700</v>
+        <v>631200</v>
       </c>
       <c r="E12" s="3">
-        <v>670900</v>
+        <v>709000</v>
       </c>
       <c r="F12" s="3">
-        <v>676700</v>
+        <v>685700</v>
       </c>
       <c r="G12" s="3">
-        <v>672100</v>
+        <v>691600</v>
       </c>
       <c r="H12" s="3">
-        <v>757100</v>
+        <v>686900</v>
       </c>
       <c r="I12" s="3">
-        <v>703600</v>
+        <v>773700</v>
       </c>
       <c r="J12" s="3">
+        <v>719100</v>
+      </c>
+      <c r="K12" s="3">
         <v>693000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>713400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>784800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>736700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>727600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>728200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>656000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,11 +1037,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>306600</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8188300</v>
+        <v>6962300</v>
       </c>
       <c r="E17" s="3">
-        <v>7554200</v>
+        <v>8368400</v>
       </c>
       <c r="F17" s="3">
-        <v>7842300</v>
+        <v>7720500</v>
       </c>
       <c r="G17" s="3">
-        <v>7490500</v>
+        <v>8014900</v>
       </c>
       <c r="H17" s="3">
-        <v>8715100</v>
+        <v>7655300</v>
       </c>
       <c r="I17" s="3">
-        <v>7800800</v>
+        <v>8906900</v>
       </c>
       <c r="J17" s="3">
+        <v>7972400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8257600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7988000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9412900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8262800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8101200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7979200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7850000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>478800</v>
+        <v>305400</v>
       </c>
       <c r="E18" s="3">
-        <v>349500</v>
+        <v>489300</v>
       </c>
       <c r="F18" s="3">
-        <v>392000</v>
+        <v>357200</v>
       </c>
       <c r="G18" s="3">
-        <v>367500</v>
+        <v>400600</v>
       </c>
       <c r="H18" s="3">
-        <v>905200</v>
+        <v>375600</v>
       </c>
       <c r="I18" s="3">
-        <v>621100</v>
+        <v>925100</v>
       </c>
       <c r="J18" s="3">
+        <v>634800</v>
+      </c>
+      <c r="K18" s="3">
         <v>890500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>696800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>714500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>727300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>870700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>649200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>711100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8300</v>
+        <v>16900</v>
       </c>
       <c r="E20" s="3">
-        <v>80500</v>
+        <v>-8500</v>
       </c>
       <c r="F20" s="3">
-        <v>74500</v>
+        <v>82300</v>
       </c>
       <c r="G20" s="3">
-        <v>54300</v>
+        <v>76200</v>
       </c>
       <c r="H20" s="3">
-        <v>4800</v>
+        <v>55500</v>
       </c>
       <c r="I20" s="3">
-        <v>-9400</v>
+        <v>4900</v>
       </c>
       <c r="J20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>111900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>80800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>87800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>68400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>30200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>45000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1005100</v>
+        <v>822000</v>
       </c>
       <c r="E21" s="3">
-        <v>985700</v>
+        <v>1027200</v>
       </c>
       <c r="F21" s="3">
-        <v>998700</v>
+        <v>1007400</v>
       </c>
       <c r="G21" s="3">
-        <v>956500</v>
+        <v>1020600</v>
       </c>
       <c r="H21" s="3">
-        <v>1506600</v>
+        <v>977600</v>
       </c>
       <c r="I21" s="3">
-        <v>1196900</v>
+        <v>1539700</v>
       </c>
       <c r="J21" s="3">
+        <v>1223200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1557000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1324800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1413400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1407500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1483800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1245300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1216000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
-        <v>2500</v>
-      </c>
       <c r="F22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2100</v>
       </c>
       <c r="M22" s="3">
         <v>2100</v>
       </c>
       <c r="N22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>468400</v>
+        <v>320600</v>
       </c>
       <c r="E23" s="3">
-        <v>427400</v>
+        <v>478700</v>
       </c>
       <c r="F23" s="3">
-        <v>464300</v>
+        <v>436900</v>
       </c>
       <c r="G23" s="3">
-        <v>419200</v>
+        <v>474500</v>
       </c>
       <c r="H23" s="3">
-        <v>908700</v>
+        <v>428400</v>
       </c>
       <c r="I23" s="3">
-        <v>609500</v>
+        <v>928600</v>
       </c>
       <c r="J23" s="3">
+        <v>622900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1001000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>775300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>793700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>691900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>644300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>135400</v>
+        <v>96800</v>
       </c>
       <c r="E24" s="3">
-        <v>147300</v>
+        <v>138300</v>
       </c>
       <c r="F24" s="3">
-        <v>126400</v>
+        <v>150500</v>
       </c>
       <c r="G24" s="3">
-        <v>102000</v>
+        <v>129200</v>
       </c>
       <c r="H24" s="3">
-        <v>220000</v>
+        <v>104300</v>
       </c>
       <c r="I24" s="3">
-        <v>155600</v>
+        <v>224900</v>
       </c>
       <c r="J24" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K24" s="3">
         <v>262600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>234500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>260100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>191600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>250800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>180100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>201800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>333000</v>
+        <v>223800</v>
       </c>
       <c r="E26" s="3">
-        <v>280200</v>
+        <v>340400</v>
       </c>
       <c r="F26" s="3">
-        <v>337800</v>
+        <v>286300</v>
       </c>
       <c r="G26" s="3">
-        <v>317200</v>
+        <v>345300</v>
       </c>
       <c r="H26" s="3">
-        <v>688600</v>
+        <v>324100</v>
       </c>
       <c r="I26" s="3">
-        <v>453900</v>
+        <v>703800</v>
       </c>
       <c r="J26" s="3">
+        <v>463900</v>
+      </c>
+      <c r="K26" s="3">
         <v>738400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>540700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>540100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>602100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>649200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>511800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>442500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>297800</v>
+        <v>203500</v>
       </c>
       <c r="E27" s="3">
-        <v>241100</v>
+        <v>304300</v>
       </c>
       <c r="F27" s="3">
-        <v>313800</v>
+        <v>246400</v>
       </c>
       <c r="G27" s="3">
-        <v>284600</v>
+        <v>320700</v>
       </c>
       <c r="H27" s="3">
-        <v>651900</v>
+        <v>290900</v>
       </c>
       <c r="I27" s="3">
-        <v>420500</v>
+        <v>666200</v>
       </c>
       <c r="J27" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K27" s="3">
         <v>706000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>516300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>493600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>570000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>625400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>488600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>397600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8300</v>
+        <v>-16900</v>
       </c>
       <c r="E32" s="3">
-        <v>-80500</v>
+        <v>8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-74500</v>
+        <v>-82300</v>
       </c>
       <c r="G32" s="3">
-        <v>-54300</v>
+        <v>-76200</v>
       </c>
       <c r="H32" s="3">
-        <v>-4800</v>
+        <v>-55500</v>
       </c>
       <c r="I32" s="3">
-        <v>9400</v>
+        <v>-4900</v>
       </c>
       <c r="J32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-111900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-80800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-87800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-68400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-30200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-45000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>64900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>297800</v>
+        <v>203500</v>
       </c>
       <c r="E33" s="3">
-        <v>241100</v>
+        <v>304300</v>
       </c>
       <c r="F33" s="3">
-        <v>313800</v>
+        <v>246400</v>
       </c>
       <c r="G33" s="3">
-        <v>284600</v>
+        <v>320700</v>
       </c>
       <c r="H33" s="3">
-        <v>651900</v>
+        <v>290900</v>
       </c>
       <c r="I33" s="3">
-        <v>420500</v>
+        <v>666200</v>
       </c>
       <c r="J33" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K33" s="3">
         <v>706000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>516300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>493600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>570000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>625400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>488600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>397600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>297800</v>
+        <v>203500</v>
       </c>
       <c r="E35" s="3">
-        <v>241100</v>
+        <v>304300</v>
       </c>
       <c r="F35" s="3">
-        <v>313800</v>
+        <v>246400</v>
       </c>
       <c r="G35" s="3">
-        <v>284600</v>
+        <v>320700</v>
       </c>
       <c r="H35" s="3">
-        <v>651900</v>
+        <v>290900</v>
       </c>
       <c r="I35" s="3">
-        <v>420500</v>
+        <v>666200</v>
       </c>
       <c r="J35" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K35" s="3">
         <v>706000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>516300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>493600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>570000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>625400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>488600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>397600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3752500</v>
+        <v>4087100</v>
       </c>
       <c r="E41" s="3">
-        <v>4075200</v>
+        <v>3835000</v>
       </c>
       <c r="F41" s="3">
-        <v>3704100</v>
+        <v>4164800</v>
       </c>
       <c r="G41" s="3">
-        <v>4009600</v>
+        <v>3785600</v>
       </c>
       <c r="H41" s="3">
-        <v>4732700</v>
+        <v>4097800</v>
       </c>
       <c r="I41" s="3">
-        <v>4865300</v>
+        <v>4836800</v>
       </c>
       <c r="J41" s="3">
+        <v>4972300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5794900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5430400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6525200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5847400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6272200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5806800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5589800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16100</v>
+        <v>18400</v>
       </c>
       <c r="E42" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="F42" s="3">
-        <v>35600</v>
+        <v>16200</v>
       </c>
       <c r="G42" s="3">
-        <v>14800</v>
+        <v>36400</v>
       </c>
       <c r="H42" s="3">
-        <v>8700</v>
+        <v>15200</v>
       </c>
       <c r="I42" s="3">
-        <v>12100</v>
+        <v>8900</v>
       </c>
       <c r="J42" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K42" s="3">
         <v>16900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>135200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>158500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>44700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5088900</v>
+        <v>4513500</v>
       </c>
       <c r="E43" s="3">
-        <v>4687700</v>
+        <v>5200900</v>
       </c>
       <c r="F43" s="3">
-        <v>4928600</v>
+        <v>4790900</v>
       </c>
       <c r="G43" s="3">
-        <v>4996100</v>
+        <v>5037100</v>
       </c>
       <c r="H43" s="3">
-        <v>5571700</v>
+        <v>5106100</v>
       </c>
       <c r="I43" s="3">
-        <v>5289000</v>
+        <v>5694300</v>
       </c>
       <c r="J43" s="3">
+        <v>5405300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5352100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5276900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5883900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5343000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5280700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5132400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5689700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5315400</v>
+        <v>5580000</v>
       </c>
       <c r="E44" s="3">
-        <v>5765700</v>
+        <v>5432400</v>
       </c>
       <c r="F44" s="3">
-        <v>5736400</v>
+        <v>5892600</v>
       </c>
       <c r="G44" s="3">
-        <v>5916600</v>
+        <v>5862600</v>
       </c>
       <c r="H44" s="3">
-        <v>5556500</v>
+        <v>6046800</v>
       </c>
       <c r="I44" s="3">
-        <v>6002700</v>
+        <v>5678800</v>
       </c>
       <c r="J44" s="3">
+        <v>6134800</v>
+      </c>
+      <c r="K44" s="3">
         <v>5448400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5319900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5153100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5613800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5395400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5047900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4973700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2606900</v>
+        <v>2675300</v>
       </c>
       <c r="E45" s="3">
-        <v>2764900</v>
+        <v>2664300</v>
       </c>
       <c r="F45" s="3">
-        <v>2724200</v>
+        <v>2825700</v>
       </c>
       <c r="G45" s="3">
-        <v>2710500</v>
+        <v>2784100</v>
       </c>
       <c r="H45" s="3">
-        <v>2766500</v>
+        <v>2770100</v>
       </c>
       <c r="I45" s="3">
-        <v>2977100</v>
+        <v>2827400</v>
       </c>
       <c r="J45" s="3">
+        <v>3042600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2885200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2925900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2603200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2531500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2430800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2480200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2343100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16779800</v>
+        <v>16874200</v>
       </c>
       <c r="E46" s="3">
-        <v>17309300</v>
+        <v>17149000</v>
       </c>
       <c r="F46" s="3">
-        <v>17128900</v>
+        <v>17690200</v>
       </c>
       <c r="G46" s="3">
-        <v>17647600</v>
+        <v>17505800</v>
       </c>
       <c r="H46" s="3">
-        <v>18636100</v>
+        <v>18035900</v>
       </c>
       <c r="I46" s="3">
-        <v>19146100</v>
+        <v>19046200</v>
       </c>
       <c r="J46" s="3">
+        <v>19567400</v>
+      </c>
+      <c r="K46" s="3">
         <v>19497500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18964900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20183100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19470900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19537600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18512000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18624800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>155800</v>
+        <v>592500</v>
       </c>
       <c r="E47" s="3">
-        <v>153400</v>
+        <v>608500</v>
       </c>
       <c r="F47" s="3">
-        <v>162300</v>
+        <v>595800</v>
       </c>
       <c r="G47" s="3">
-        <v>170000</v>
+        <v>568700</v>
       </c>
       <c r="H47" s="3">
-        <v>165700</v>
+        <v>580400</v>
       </c>
       <c r="I47" s="3">
-        <v>172700</v>
+        <v>564700</v>
       </c>
       <c r="J47" s="3">
+        <v>642200</v>
+      </c>
+      <c r="K47" s="3">
         <v>173400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>214700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>320400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>316800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>308300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>263400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>259900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11384800</v>
+        <v>10991200</v>
       </c>
       <c r="E48" s="3">
-        <v>11303400</v>
+        <v>11186000</v>
       </c>
       <c r="F48" s="3">
-        <v>11428000</v>
+        <v>11113100</v>
       </c>
       <c r="G48" s="3">
-        <v>11471100</v>
+        <v>11276700</v>
       </c>
       <c r="H48" s="3">
-        <v>10304000</v>
+        <v>11316800</v>
       </c>
       <c r="I48" s="3">
-        <v>10435800</v>
+        <v>10135300</v>
       </c>
       <c r="J48" s="3">
+        <v>10199800</v>
+      </c>
+      <c r="K48" s="3">
         <v>10478600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10407700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10621500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10795700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11125100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11051800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11253000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11331400</v>
+        <v>11259500</v>
       </c>
       <c r="E49" s="3">
-        <v>11134600</v>
+        <v>11580700</v>
       </c>
       <c r="F49" s="3">
-        <v>11410300</v>
+        <v>11379600</v>
       </c>
       <c r="G49" s="3">
-        <v>11611600</v>
+        <v>11661400</v>
       </c>
       <c r="H49" s="3">
-        <v>11812700</v>
+        <v>11867000</v>
       </c>
       <c r="I49" s="3">
-        <v>12051900</v>
+        <v>12072700</v>
       </c>
       <c r="J49" s="3">
+        <v>12317100</v>
+      </c>
+      <c r="K49" s="3">
         <v>11842700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11941600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12273600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12698200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12558900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12122200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12264500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3692500</v>
+        <v>3734200</v>
       </c>
       <c r="E52" s="3">
-        <v>3735000</v>
+        <v>3773800</v>
       </c>
       <c r="F52" s="3">
-        <v>3635200</v>
+        <v>3817200</v>
       </c>
       <c r="G52" s="3">
-        <v>3609300</v>
+        <v>3715200</v>
       </c>
       <c r="H52" s="3">
-        <v>3617600</v>
+        <v>3688800</v>
       </c>
       <c r="I52" s="3">
-        <v>3672900</v>
+        <v>3697200</v>
       </c>
       <c r="J52" s="3">
+        <v>3753700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3566300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3476100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3594000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3599300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3566200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3410900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3176700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43344300</v>
+        <v>43451700</v>
       </c>
       <c r="E54" s="3">
-        <v>43635700</v>
+        <v>44298000</v>
       </c>
       <c r="F54" s="3">
-        <v>43764800</v>
+        <v>44595800</v>
       </c>
       <c r="G54" s="3">
-        <v>44509600</v>
+        <v>44727700</v>
       </c>
       <c r="H54" s="3">
-        <v>44536100</v>
+        <v>45488900</v>
       </c>
       <c r="I54" s="3">
-        <v>45479500</v>
+        <v>45516000</v>
       </c>
       <c r="J54" s="3">
+        <v>46480200</v>
+      </c>
+      <c r="K54" s="3">
         <v>45558500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45004900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46992600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46880900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47096100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45360300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45578800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2775300</v>
+        <v>2766300</v>
       </c>
       <c r="E57" s="3">
-        <v>2868600</v>
+        <v>2836300</v>
       </c>
       <c r="F57" s="3">
-        <v>2951600</v>
+        <v>2931700</v>
       </c>
       <c r="G57" s="3">
-        <v>3177800</v>
+        <v>3016600</v>
       </c>
       <c r="H57" s="3">
-        <v>3204100</v>
+        <v>3247800</v>
       </c>
       <c r="I57" s="3">
-        <v>3402200</v>
+        <v>3274600</v>
       </c>
       <c r="J57" s="3">
+        <v>3477000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3521000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3497900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3441100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3458500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3553400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3501600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3302000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>382100</v>
+        <v>1789800</v>
       </c>
       <c r="E58" s="3">
-        <v>1542400</v>
+        <v>390500</v>
       </c>
       <c r="F58" s="3">
-        <v>642400</v>
+        <v>1576300</v>
       </c>
       <c r="G58" s="3">
-        <v>372300</v>
+        <v>656500</v>
       </c>
       <c r="H58" s="3">
-        <v>350200</v>
+        <v>380500</v>
       </c>
       <c r="I58" s="3">
-        <v>347500</v>
+        <v>357900</v>
       </c>
       <c r="J58" s="3">
+        <v>355200</v>
+      </c>
+      <c r="K58" s="3">
         <v>355400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>351100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>355500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>346100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>333600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>330200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5573600</v>
+        <v>5325800</v>
       </c>
       <c r="E59" s="3">
-        <v>5387800</v>
+        <v>5696200</v>
       </c>
       <c r="F59" s="3">
-        <v>5432000</v>
+        <v>5506300</v>
       </c>
       <c r="G59" s="3">
-        <v>5627200</v>
+        <v>5551500</v>
       </c>
       <c r="H59" s="3">
-        <v>5805200</v>
+        <v>5751000</v>
       </c>
       <c r="I59" s="3">
-        <v>5613800</v>
+        <v>5932900</v>
       </c>
       <c r="J59" s="3">
+        <v>5737300</v>
+      </c>
+      <c r="K59" s="3">
         <v>5732800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5618600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6233100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5789000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5587900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5291600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5404000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8730900</v>
+        <v>9881900</v>
       </c>
       <c r="E60" s="3">
-        <v>9798800</v>
+        <v>8923000</v>
       </c>
       <c r="F60" s="3">
-        <v>9026000</v>
+        <v>10014400</v>
       </c>
       <c r="G60" s="3">
-        <v>9177300</v>
+        <v>9224500</v>
       </c>
       <c r="H60" s="3">
-        <v>9359600</v>
+        <v>9379300</v>
       </c>
       <c r="I60" s="3">
-        <v>9363500</v>
+        <v>9565500</v>
       </c>
       <c r="J60" s="3">
+        <v>9569500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9609200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9467600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10029700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9593600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9475000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9123300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8722500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3248200</v>
+        <v>3316600</v>
       </c>
       <c r="E61" s="3">
-        <v>3303100</v>
+        <v>3319700</v>
       </c>
       <c r="F61" s="3">
-        <v>3305100</v>
+        <v>3375800</v>
       </c>
       <c r="G61" s="3">
-        <v>3304900</v>
+        <v>3377800</v>
       </c>
       <c r="H61" s="3">
-        <v>3290200</v>
+        <v>3377600</v>
       </c>
       <c r="I61" s="3">
-        <v>4018000</v>
+        <v>3362600</v>
       </c>
       <c r="J61" s="3">
+        <v>4106400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4033000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4464500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4458900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5102700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5568500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5464400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5422100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5077600</v>
+        <v>4975600</v>
       </c>
       <c r="E62" s="3">
-        <v>4979100</v>
+        <v>5189300</v>
       </c>
       <c r="F62" s="3">
-        <v>5074000</v>
+        <v>5088700</v>
       </c>
       <c r="G62" s="3">
-        <v>5174900</v>
+        <v>5185600</v>
       </c>
       <c r="H62" s="3">
-        <v>4453500</v>
+        <v>5288800</v>
       </c>
       <c r="I62" s="3">
-        <v>4176700</v>
+        <v>4551500</v>
       </c>
       <c r="J62" s="3">
+        <v>4268600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4171300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4276800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4514600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4961600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5025000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4806900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4871800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18868600</v>
+        <v>20032100</v>
       </c>
       <c r="E66" s="3">
-        <v>19857900</v>
+        <v>19283800</v>
       </c>
       <c r="F66" s="3">
-        <v>19167300</v>
+        <v>20294800</v>
       </c>
       <c r="G66" s="3">
-        <v>19397700</v>
+        <v>19589000</v>
       </c>
       <c r="H66" s="3">
-        <v>18833200</v>
+        <v>19824500</v>
       </c>
       <c r="I66" s="3">
-        <v>19637600</v>
+        <v>19247600</v>
       </c>
       <c r="J66" s="3">
+        <v>20069700</v>
+      </c>
+      <c r="K66" s="3">
         <v>19855000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20209900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21042100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21635800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22008900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21257100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20892400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32085500</v>
+        <v>32202200</v>
       </c>
       <c r="E72" s="3">
-        <v>31787800</v>
+        <v>32791400</v>
       </c>
       <c r="F72" s="3">
-        <v>32320300</v>
+        <v>32487200</v>
       </c>
       <c r="G72" s="3">
-        <v>32006600</v>
+        <v>33031400</v>
       </c>
       <c r="H72" s="3">
-        <v>32506100</v>
+        <v>32710800</v>
       </c>
       <c r="I72" s="3">
-        <v>31854200</v>
+        <v>33221300</v>
       </c>
       <c r="J72" s="3">
+        <v>32555000</v>
+      </c>
+      <c r="K72" s="3">
         <v>32218900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31339500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31605600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31112000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31274100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30073500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30311300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24475700</v>
+        <v>23419600</v>
       </c>
       <c r="E76" s="3">
-        <v>23777800</v>
+        <v>25014200</v>
       </c>
       <c r="F76" s="3">
-        <v>24597600</v>
+        <v>24301000</v>
       </c>
       <c r="G76" s="3">
-        <v>25111900</v>
+        <v>25138800</v>
       </c>
       <c r="H76" s="3">
-        <v>25702900</v>
+        <v>25664400</v>
       </c>
       <c r="I76" s="3">
-        <v>25841900</v>
+        <v>26268400</v>
       </c>
       <c r="J76" s="3">
+        <v>26410500</v>
+      </c>
+      <c r="K76" s="3">
         <v>25703500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24795100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25950500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25245100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25087300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24103200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24686400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>297800</v>
+        <v>203500</v>
       </c>
       <c r="E81" s="3">
-        <v>241100</v>
+        <v>304300</v>
       </c>
       <c r="F81" s="3">
-        <v>313800</v>
+        <v>246400</v>
       </c>
       <c r="G81" s="3">
-        <v>284600</v>
+        <v>320700</v>
       </c>
       <c r="H81" s="3">
-        <v>651900</v>
+        <v>290900</v>
       </c>
       <c r="I81" s="3">
-        <v>420500</v>
+        <v>666200</v>
       </c>
       <c r="J81" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K81" s="3">
         <v>706000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>516300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>493600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>570000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>625400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>488600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>397600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>534600</v>
+        <v>499700</v>
       </c>
       <c r="E83" s="3">
-        <v>555800</v>
+        <v>546400</v>
       </c>
       <c r="F83" s="3">
-        <v>532100</v>
+        <v>568000</v>
       </c>
       <c r="G83" s="3">
-        <v>534800</v>
+        <v>543800</v>
       </c>
       <c r="H83" s="3">
-        <v>596600</v>
+        <v>546500</v>
       </c>
       <c r="I83" s="3">
-        <v>585200</v>
+        <v>609700</v>
       </c>
       <c r="J83" s="3">
+        <v>598100</v>
+      </c>
+      <c r="K83" s="3">
         <v>554500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>547300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>611100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>611700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>582900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>551200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>569800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1490300</v>
+        <v>588500</v>
       </c>
       <c r="E89" s="3">
-        <v>739400</v>
+        <v>1523100</v>
       </c>
       <c r="F89" s="3">
-        <v>475400</v>
+        <v>755600</v>
       </c>
       <c r="G89" s="3">
-        <v>553300</v>
+        <v>485900</v>
       </c>
       <c r="H89" s="3">
-        <v>1559700</v>
+        <v>565500</v>
       </c>
       <c r="I89" s="3">
-        <v>262300</v>
+        <v>1594000</v>
       </c>
       <c r="J89" s="3">
+        <v>268100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1115400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>381000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1591500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>952800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1280800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1485000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1391900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-579300</v>
+        <v>-411300</v>
       </c>
       <c r="E91" s="3">
-        <v>-427800</v>
+        <v>-592100</v>
       </c>
       <c r="F91" s="3">
-        <v>-506400</v>
+        <v>-437200</v>
       </c>
       <c r="G91" s="3">
-        <v>-446900</v>
+        <v>-517500</v>
       </c>
       <c r="H91" s="3">
-        <v>-540900</v>
+        <v>-456800</v>
       </c>
       <c r="I91" s="3">
-        <v>-332400</v>
+        <v>-552800</v>
       </c>
       <c r="J91" s="3">
+        <v>-339700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-432300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-431900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-441200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-414400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-462900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-386900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-395800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-642900</v>
+        <v>-405100</v>
       </c>
       <c r="E94" s="3">
-        <v>-427900</v>
+        <v>-657000</v>
       </c>
       <c r="F94" s="3">
-        <v>-537600</v>
+        <v>-437300</v>
       </c>
       <c r="G94" s="3">
-        <v>-469300</v>
+        <v>-549400</v>
       </c>
       <c r="H94" s="3">
-        <v>-537800</v>
+        <v>-479700</v>
       </c>
       <c r="I94" s="3">
-        <v>-424600</v>
+        <v>-549600</v>
       </c>
       <c r="J94" s="3">
+        <v>-433900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-362000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-451300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-297000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-219800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-522000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-444400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-108400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-790600</v>
       </c>
       <c r="E96" s="3">
-        <v>-773600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-790600</v>
       </c>
       <c r="G96" s="3">
-        <v>-785200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-802500</v>
       </c>
       <c r="I96" s="3">
-        <v>-785200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-802500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-829700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-732100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-726500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1237600</v>
+        <v>126500</v>
       </c>
       <c r="E100" s="3">
-        <v>101000</v>
+        <v>-1264900</v>
       </c>
       <c r="F100" s="3">
-        <v>-186700</v>
+        <v>103200</v>
       </c>
       <c r="G100" s="3">
-        <v>-790800</v>
+        <v>-190900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1086600</v>
+        <v>-808200</v>
       </c>
       <c r="I100" s="3">
-        <v>-825500</v>
+        <v>-1110500</v>
       </c>
       <c r="J100" s="3">
+        <v>-843700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-443200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-865300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-638400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-467100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-740200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-715300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67500</v>
+        <v>-57900</v>
       </c>
       <c r="E101" s="3">
-        <v>-41400</v>
+        <v>69000</v>
       </c>
       <c r="F101" s="3">
-        <v>-56500</v>
+        <v>-42300</v>
       </c>
       <c r="G101" s="3">
-        <v>-16200</v>
+        <v>-57800</v>
       </c>
       <c r="H101" s="3">
-        <v>-68000</v>
+        <v>-16600</v>
       </c>
       <c r="I101" s="3">
-        <v>58300</v>
+        <v>-69500</v>
       </c>
       <c r="J101" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K101" s="3">
         <v>24100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-159100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>21700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>60200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>62400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-83500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>280800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-322700</v>
+        <v>252000</v>
       </c>
       <c r="E102" s="3">
-        <v>371100</v>
+        <v>-329800</v>
       </c>
       <c r="F102" s="3">
-        <v>-305500</v>
+        <v>379200</v>
       </c>
       <c r="G102" s="3">
-        <v>-723100</v>
+        <v>-312200</v>
       </c>
       <c r="H102" s="3">
-        <v>-132600</v>
+        <v>-739000</v>
       </c>
       <c r="I102" s="3">
-        <v>-929600</v>
+        <v>-135500</v>
       </c>
       <c r="J102" s="3">
+        <v>-950000</v>
+      </c>
+      <c r="K102" s="3">
         <v>334400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>677800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-424700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>354100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>217000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>849000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>CAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7267700</v>
+        <v>6356100</v>
       </c>
       <c r="E8" s="3">
-        <v>8857700</v>
+        <v>7385000</v>
       </c>
       <c r="F8" s="3">
-        <v>8077600</v>
+        <v>9000700</v>
       </c>
       <c r="G8" s="3">
-        <v>8415500</v>
+        <v>8208000</v>
       </c>
       <c r="H8" s="3">
-        <v>8030900</v>
+        <v>8551400</v>
       </c>
       <c r="I8" s="3">
-        <v>9832000</v>
+        <v>8160600</v>
       </c>
       <c r="J8" s="3">
+        <v>9990700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8607200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9148100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8684800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10127400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8990200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8972000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8628400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8561100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3935700</v>
+        <v>3757100</v>
       </c>
       <c r="E9" s="3">
-        <v>4924400</v>
+        <v>3999200</v>
       </c>
       <c r="F9" s="3">
-        <v>4455700</v>
+        <v>5003900</v>
       </c>
       <c r="G9" s="3">
+        <v>4527600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4714900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4475600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5372000</v>
+      </c>
+      <c r="K9" s="3">
         <v>4640000</v>
       </c>
-      <c r="H9" s="3">
-        <v>4404500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5286600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4640000</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4834400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4664800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5186500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4630800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4492200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4478900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4479900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3332000</v>
+        <v>2599000</v>
       </c>
       <c r="E10" s="3">
-        <v>3933300</v>
+        <v>3385800</v>
       </c>
       <c r="F10" s="3">
-        <v>3621900</v>
+        <v>3996800</v>
       </c>
       <c r="G10" s="3">
-        <v>3775500</v>
+        <v>3680400</v>
       </c>
       <c r="H10" s="3">
-        <v>3626400</v>
+        <v>3836500</v>
       </c>
       <c r="I10" s="3">
-        <v>4545400</v>
+        <v>3685000</v>
       </c>
       <c r="J10" s="3">
+        <v>4618800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3967100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4313700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4020000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4940900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4359400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4479800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4149500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4081100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>631200</v>
+        <v>601500</v>
       </c>
       <c r="E12" s="3">
-        <v>709000</v>
+        <v>641400</v>
       </c>
       <c r="F12" s="3">
-        <v>685700</v>
+        <v>720400</v>
       </c>
       <c r="G12" s="3">
-        <v>691600</v>
+        <v>696700</v>
       </c>
       <c r="H12" s="3">
-        <v>686900</v>
+        <v>702800</v>
       </c>
       <c r="I12" s="3">
-        <v>773700</v>
+        <v>697900</v>
       </c>
       <c r="J12" s="3">
+        <v>786200</v>
+      </c>
+      <c r="K12" s="3">
         <v>719100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>693000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>713400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>784800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>736700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>727600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>728200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>656000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,11 +1060,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>306600</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6962300</v>
+        <v>6523700</v>
       </c>
       <c r="E17" s="3">
-        <v>8368400</v>
+        <v>7074700</v>
       </c>
       <c r="F17" s="3">
-        <v>7720500</v>
+        <v>8503600</v>
       </c>
       <c r="G17" s="3">
-        <v>8014900</v>
+        <v>7845100</v>
       </c>
       <c r="H17" s="3">
-        <v>7655300</v>
+        <v>8144300</v>
       </c>
       <c r="I17" s="3">
-        <v>8906900</v>
+        <v>7778900</v>
       </c>
       <c r="J17" s="3">
+        <v>9050700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7972400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8257600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7988000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9412900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8262800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8101200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7979200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7850000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>305400</v>
+        <v>-167600</v>
       </c>
       <c r="E18" s="3">
-        <v>489300</v>
+        <v>310400</v>
       </c>
       <c r="F18" s="3">
-        <v>357200</v>
+        <v>497200</v>
       </c>
       <c r="G18" s="3">
-        <v>400600</v>
+        <v>362900</v>
       </c>
       <c r="H18" s="3">
-        <v>375600</v>
+        <v>407100</v>
       </c>
       <c r="I18" s="3">
-        <v>925100</v>
+        <v>381600</v>
       </c>
       <c r="J18" s="3">
+        <v>940000</v>
+      </c>
+      <c r="K18" s="3">
         <v>634800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>890500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>696800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>714500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>727300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>870700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>649200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>711100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16900</v>
+        <v>101300</v>
       </c>
       <c r="E20" s="3">
-        <v>-8500</v>
+        <v>17200</v>
       </c>
       <c r="F20" s="3">
-        <v>82300</v>
+        <v>-8600</v>
       </c>
       <c r="G20" s="3">
-        <v>76200</v>
+        <v>83600</v>
       </c>
       <c r="H20" s="3">
-        <v>55500</v>
+        <v>77400</v>
       </c>
       <c r="I20" s="3">
-        <v>4900</v>
+        <v>56400</v>
       </c>
       <c r="J20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>111900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>80800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>87800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>68400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>30200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>45000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-64900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>822000</v>
+        <v>450500</v>
       </c>
       <c r="E21" s="3">
-        <v>1027200</v>
+        <v>835300</v>
       </c>
       <c r="F21" s="3">
-        <v>1007400</v>
+        <v>1043800</v>
       </c>
       <c r="G21" s="3">
-        <v>1020600</v>
+        <v>1023700</v>
       </c>
       <c r="H21" s="3">
-        <v>977600</v>
+        <v>1037100</v>
       </c>
       <c r="I21" s="3">
-        <v>1539700</v>
+        <v>993400</v>
       </c>
       <c r="J21" s="3">
+        <v>1564600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1223200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1557000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1324800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1413400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1407500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1483800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1245300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1216000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M22" s="3">
         <v>2300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2100</v>
       </c>
       <c r="N22" s="3">
         <v>2100</v>
       </c>
       <c r="O22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>320600</v>
+        <v>-68200</v>
       </c>
       <c r="E23" s="3">
-        <v>478700</v>
+        <v>325800</v>
       </c>
       <c r="F23" s="3">
-        <v>436900</v>
+        <v>486400</v>
       </c>
       <c r="G23" s="3">
-        <v>474500</v>
+        <v>443900</v>
       </c>
       <c r="H23" s="3">
-        <v>428400</v>
+        <v>482100</v>
       </c>
       <c r="I23" s="3">
-        <v>928600</v>
+        <v>435300</v>
       </c>
       <c r="J23" s="3">
+        <v>943600</v>
+      </c>
+      <c r="K23" s="3">
         <v>622900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1001000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>775300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>793700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>691900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>644300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>96800</v>
+        <v>-20000</v>
       </c>
       <c r="E24" s="3">
-        <v>138300</v>
+        <v>98400</v>
       </c>
       <c r="F24" s="3">
-        <v>150500</v>
+        <v>140600</v>
       </c>
       <c r="G24" s="3">
-        <v>129200</v>
+        <v>152900</v>
       </c>
       <c r="H24" s="3">
-        <v>104300</v>
+        <v>131300</v>
       </c>
       <c r="I24" s="3">
-        <v>224900</v>
+        <v>105900</v>
       </c>
       <c r="J24" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K24" s="3">
         <v>159000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>262600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>234500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>260100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>191600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>250800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>180100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>201800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>223800</v>
+        <v>-48200</v>
       </c>
       <c r="E26" s="3">
-        <v>340400</v>
+        <v>227400</v>
       </c>
       <c r="F26" s="3">
-        <v>286300</v>
+        <v>345900</v>
       </c>
       <c r="G26" s="3">
-        <v>345300</v>
+        <v>291000</v>
       </c>
       <c r="H26" s="3">
-        <v>324100</v>
+        <v>350900</v>
       </c>
       <c r="I26" s="3">
-        <v>703800</v>
+        <v>329400</v>
       </c>
       <c r="J26" s="3">
+        <v>715200</v>
+      </c>
+      <c r="K26" s="3">
         <v>463900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>738400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>540700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>540100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>602100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>649200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>511800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>442500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>203500</v>
+        <v>-83400</v>
       </c>
       <c r="E27" s="3">
-        <v>304300</v>
+        <v>206800</v>
       </c>
       <c r="F27" s="3">
-        <v>246400</v>
+        <v>309200</v>
       </c>
       <c r="G27" s="3">
-        <v>320700</v>
+        <v>250400</v>
       </c>
       <c r="H27" s="3">
-        <v>290900</v>
+        <v>325900</v>
       </c>
       <c r="I27" s="3">
-        <v>666200</v>
+        <v>295500</v>
       </c>
       <c r="J27" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K27" s="3">
         <v>429700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>706000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>516300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>493600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>570000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>625400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>488600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>397600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16900</v>
+        <v>-101300</v>
       </c>
       <c r="E32" s="3">
-        <v>8500</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="3">
-        <v>-82300</v>
+        <v>8600</v>
       </c>
       <c r="G32" s="3">
-        <v>-76200</v>
+        <v>-83600</v>
       </c>
       <c r="H32" s="3">
-        <v>-55500</v>
+        <v>-77400</v>
       </c>
       <c r="I32" s="3">
-        <v>-4900</v>
+        <v>-56400</v>
       </c>
       <c r="J32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K32" s="3">
         <v>9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-111900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-80800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-87800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-68400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-30200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>64900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>203500</v>
+        <v>-83400</v>
       </c>
       <c r="E33" s="3">
-        <v>304300</v>
+        <v>206800</v>
       </c>
       <c r="F33" s="3">
-        <v>246400</v>
+        <v>309200</v>
       </c>
       <c r="G33" s="3">
-        <v>320700</v>
+        <v>250400</v>
       </c>
       <c r="H33" s="3">
-        <v>290900</v>
+        <v>325900</v>
       </c>
       <c r="I33" s="3">
-        <v>666200</v>
+        <v>295500</v>
       </c>
       <c r="J33" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K33" s="3">
         <v>429700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>706000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>516300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>493600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>570000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>625400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>488600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>397600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>203500</v>
+        <v>-83400</v>
       </c>
       <c r="E35" s="3">
-        <v>304300</v>
+        <v>206800</v>
       </c>
       <c r="F35" s="3">
-        <v>246400</v>
+        <v>309200</v>
       </c>
       <c r="G35" s="3">
-        <v>320700</v>
+        <v>250400</v>
       </c>
       <c r="H35" s="3">
-        <v>290900</v>
+        <v>325900</v>
       </c>
       <c r="I35" s="3">
-        <v>666200</v>
+        <v>295500</v>
       </c>
       <c r="J35" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K35" s="3">
         <v>429700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>706000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>516300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>493600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>570000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>625400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>488600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>397600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4087100</v>
+        <v>4720400</v>
       </c>
       <c r="E41" s="3">
-        <v>3835000</v>
+        <v>4153100</v>
       </c>
       <c r="F41" s="3">
-        <v>4164800</v>
+        <v>3897000</v>
       </c>
       <c r="G41" s="3">
-        <v>3785600</v>
+        <v>4232100</v>
       </c>
       <c r="H41" s="3">
-        <v>4097800</v>
+        <v>3846700</v>
       </c>
       <c r="I41" s="3">
-        <v>4836800</v>
+        <v>4163900</v>
       </c>
       <c r="J41" s="3">
+        <v>4914900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4972300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5794900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5430400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6525200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5847400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6272200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5806800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5589800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18400</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="3">
-        <v>16400</v>
+        <v>18700</v>
       </c>
       <c r="F42" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="G42" s="3">
-        <v>36400</v>
+        <v>16500</v>
       </c>
       <c r="H42" s="3">
-        <v>15200</v>
+        <v>37000</v>
       </c>
       <c r="I42" s="3">
-        <v>8900</v>
+        <v>15400</v>
       </c>
       <c r="J42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K42" s="3">
         <v>12400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>135200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>158500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>44700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>28400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4513500</v>
+        <v>3813900</v>
       </c>
       <c r="E43" s="3">
-        <v>5200900</v>
+        <v>4586400</v>
       </c>
       <c r="F43" s="3">
-        <v>4790900</v>
+        <v>5284900</v>
       </c>
       <c r="G43" s="3">
-        <v>5037100</v>
+        <v>4868200</v>
       </c>
       <c r="H43" s="3">
-        <v>5106100</v>
+        <v>5118400</v>
       </c>
       <c r="I43" s="3">
-        <v>5694300</v>
+        <v>5188500</v>
       </c>
       <c r="J43" s="3">
+        <v>5786300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5405300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5352100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5276900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5883900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5343000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5280700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5132400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5689700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5580000</v>
+        <v>5699300</v>
       </c>
       <c r="E44" s="3">
-        <v>5432400</v>
+        <v>5670100</v>
       </c>
       <c r="F44" s="3">
-        <v>5892600</v>
+        <v>5520100</v>
       </c>
       <c r="G44" s="3">
-        <v>5862600</v>
+        <v>5987700</v>
       </c>
       <c r="H44" s="3">
-        <v>6046800</v>
+        <v>5957200</v>
       </c>
       <c r="I44" s="3">
-        <v>5678800</v>
+        <v>6144400</v>
       </c>
       <c r="J44" s="3">
+        <v>5770500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6134800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5448400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5319900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5153100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5613800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5395400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5047900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4973700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2675300</v>
+        <v>2930900</v>
       </c>
       <c r="E45" s="3">
-        <v>2664300</v>
+        <v>2718500</v>
       </c>
       <c r="F45" s="3">
-        <v>2825700</v>
+        <v>2707300</v>
       </c>
       <c r="G45" s="3">
-        <v>2784100</v>
+        <v>2871300</v>
       </c>
       <c r="H45" s="3">
-        <v>2770100</v>
+        <v>2829000</v>
       </c>
       <c r="I45" s="3">
-        <v>2827400</v>
+        <v>2814900</v>
       </c>
       <c r="J45" s="3">
+        <v>2873000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3042600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2885200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2925900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2603200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2531500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2430800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2480200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2343100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16874200</v>
+        <v>17165600</v>
       </c>
       <c r="E46" s="3">
-        <v>17149000</v>
+        <v>17146700</v>
       </c>
       <c r="F46" s="3">
-        <v>17690200</v>
+        <v>17425900</v>
       </c>
       <c r="G46" s="3">
-        <v>17505800</v>
+        <v>17975800</v>
       </c>
       <c r="H46" s="3">
-        <v>18035900</v>
+        <v>17788400</v>
       </c>
       <c r="I46" s="3">
-        <v>19046200</v>
+        <v>18327100</v>
       </c>
       <c r="J46" s="3">
+        <v>19353700</v>
+      </c>
+      <c r="K46" s="3">
         <v>19567400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19497500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18964900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20183100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19470900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19537600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18512000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18624800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>592500</v>
+        <v>639400</v>
       </c>
       <c r="E47" s="3">
-        <v>608500</v>
+        <v>602100</v>
       </c>
       <c r="F47" s="3">
-        <v>595800</v>
+        <v>618300</v>
       </c>
       <c r="G47" s="3">
-        <v>568700</v>
+        <v>605400</v>
       </c>
       <c r="H47" s="3">
-        <v>580400</v>
+        <v>577900</v>
       </c>
       <c r="I47" s="3">
-        <v>564700</v>
+        <v>589800</v>
       </c>
       <c r="J47" s="3">
+        <v>573800</v>
+      </c>
+      <c r="K47" s="3">
         <v>642200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>173400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>214700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>320400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>316800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>308300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>263400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>259900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10991200</v>
+        <v>11034100</v>
       </c>
       <c r="E48" s="3">
-        <v>11186000</v>
+        <v>11168700</v>
       </c>
       <c r="F48" s="3">
-        <v>11113100</v>
+        <v>11366600</v>
       </c>
       <c r="G48" s="3">
-        <v>11276700</v>
+        <v>11292500</v>
       </c>
       <c r="H48" s="3">
-        <v>11316800</v>
+        <v>11458800</v>
       </c>
       <c r="I48" s="3">
-        <v>10135300</v>
+        <v>11499500</v>
       </c>
       <c r="J48" s="3">
+        <v>10299000</v>
+      </c>
+      <c r="K48" s="3">
         <v>10199800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10478600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10407700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10621500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10795700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11125100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11051800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11253000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11259500</v>
+        <v>11523000</v>
       </c>
       <c r="E49" s="3">
-        <v>11580700</v>
+        <v>11441300</v>
       </c>
       <c r="F49" s="3">
-        <v>11379600</v>
+        <v>11767700</v>
       </c>
       <c r="G49" s="3">
-        <v>11661400</v>
+        <v>11563300</v>
       </c>
       <c r="H49" s="3">
-        <v>11867000</v>
+        <v>11849700</v>
       </c>
       <c r="I49" s="3">
-        <v>12072700</v>
+        <v>12058600</v>
       </c>
       <c r="J49" s="3">
+        <v>12267600</v>
+      </c>
+      <c r="K49" s="3">
         <v>12317100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11842700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11941600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12273600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12698200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12558900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12122200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12264500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3734200</v>
+        <v>3729400</v>
       </c>
       <c r="E52" s="3">
-        <v>3773800</v>
+        <v>3794500</v>
       </c>
       <c r="F52" s="3">
-        <v>3817200</v>
+        <v>3834700</v>
       </c>
       <c r="G52" s="3">
-        <v>3715200</v>
+        <v>3878800</v>
       </c>
       <c r="H52" s="3">
-        <v>3688800</v>
+        <v>3775200</v>
       </c>
       <c r="I52" s="3">
-        <v>3697200</v>
+        <v>3748300</v>
       </c>
       <c r="J52" s="3">
+        <v>3756900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3753700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3566300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3476100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3594000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3599300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3566200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3410900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3176700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43451700</v>
+        <v>44091400</v>
       </c>
       <c r="E54" s="3">
-        <v>44298000</v>
+        <v>44153300</v>
       </c>
       <c r="F54" s="3">
-        <v>44595800</v>
+        <v>45013200</v>
       </c>
       <c r="G54" s="3">
-        <v>44727700</v>
+        <v>45315900</v>
       </c>
       <c r="H54" s="3">
-        <v>45488900</v>
+        <v>45449900</v>
       </c>
       <c r="I54" s="3">
-        <v>45516000</v>
+        <v>46223400</v>
       </c>
       <c r="J54" s="3">
+        <v>46250900</v>
+      </c>
+      <c r="K54" s="3">
         <v>46480200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45558500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45004900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46992600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46880900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47096100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45360300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45578800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2766300</v>
+        <v>2587200</v>
       </c>
       <c r="E57" s="3">
-        <v>2836300</v>
+        <v>2811000</v>
       </c>
       <c r="F57" s="3">
-        <v>2931700</v>
+        <v>2882100</v>
       </c>
       <c r="G57" s="3">
-        <v>3016600</v>
+        <v>2979100</v>
       </c>
       <c r="H57" s="3">
-        <v>3247800</v>
+        <v>3065300</v>
       </c>
       <c r="I57" s="3">
-        <v>3274600</v>
+        <v>3300200</v>
       </c>
       <c r="J57" s="3">
+        <v>3327500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3477000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3521000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3497900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3441100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3458500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3553400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3501600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3302000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1789800</v>
+        <v>1883700</v>
       </c>
       <c r="E58" s="3">
-        <v>390500</v>
+        <v>1818700</v>
       </c>
       <c r="F58" s="3">
-        <v>1576300</v>
+        <v>396800</v>
       </c>
       <c r="G58" s="3">
-        <v>656500</v>
+        <v>1601800</v>
       </c>
       <c r="H58" s="3">
-        <v>380500</v>
+        <v>667100</v>
       </c>
       <c r="I58" s="3">
-        <v>357900</v>
+        <v>386600</v>
       </c>
       <c r="J58" s="3">
+        <v>363700</v>
+      </c>
+      <c r="K58" s="3">
         <v>355200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>355400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>351100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>355500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>346100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>333600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>330200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5325800</v>
+        <v>5365500</v>
       </c>
       <c r="E59" s="3">
-        <v>5696200</v>
+        <v>5411800</v>
       </c>
       <c r="F59" s="3">
-        <v>5506300</v>
+        <v>5788200</v>
       </c>
       <c r="G59" s="3">
-        <v>5551500</v>
+        <v>5595200</v>
       </c>
       <c r="H59" s="3">
-        <v>5751000</v>
+        <v>5641100</v>
       </c>
       <c r="I59" s="3">
-        <v>5932900</v>
+        <v>5843900</v>
       </c>
       <c r="J59" s="3">
+        <v>6028700</v>
+      </c>
+      <c r="K59" s="3">
         <v>5737300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5732800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5618600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6233100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5789000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5587900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5291600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5404000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9881900</v>
+        <v>9836500</v>
       </c>
       <c r="E60" s="3">
-        <v>8923000</v>
+        <v>10041500</v>
       </c>
       <c r="F60" s="3">
-        <v>10014400</v>
+        <v>9067100</v>
       </c>
       <c r="G60" s="3">
-        <v>9224500</v>
+        <v>10176100</v>
       </c>
       <c r="H60" s="3">
-        <v>9379300</v>
+        <v>9373500</v>
       </c>
       <c r="I60" s="3">
-        <v>9565500</v>
+        <v>9530700</v>
       </c>
       <c r="J60" s="3">
+        <v>9719900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9569500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9609200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9467600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10029700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9593600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9475000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9123300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8722500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3316600</v>
+        <v>3389200</v>
       </c>
       <c r="E61" s="3">
-        <v>3319700</v>
+        <v>3370200</v>
       </c>
       <c r="F61" s="3">
-        <v>3375800</v>
+        <v>3373300</v>
       </c>
       <c r="G61" s="3">
-        <v>3377800</v>
+        <v>3430300</v>
       </c>
       <c r="H61" s="3">
-        <v>3377600</v>
+        <v>3432400</v>
       </c>
       <c r="I61" s="3">
-        <v>3362600</v>
+        <v>3432100</v>
       </c>
       <c r="J61" s="3">
+        <v>3416900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4106400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4033000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4464500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4458900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5102700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5568500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5464400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5422100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4975600</v>
+        <v>5108400</v>
       </c>
       <c r="E62" s="3">
-        <v>5189300</v>
+        <v>5056000</v>
       </c>
       <c r="F62" s="3">
-        <v>5088700</v>
+        <v>5273100</v>
       </c>
       <c r="G62" s="3">
-        <v>5185600</v>
+        <v>5170800</v>
       </c>
       <c r="H62" s="3">
-        <v>5288800</v>
+        <v>5269400</v>
       </c>
       <c r="I62" s="3">
-        <v>4551500</v>
+        <v>5374100</v>
       </c>
       <c r="J62" s="3">
+        <v>4625000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4268600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4171300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4276800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4514600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4961600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5025000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4806900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4871800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20032100</v>
+        <v>20254900</v>
       </c>
       <c r="E66" s="3">
-        <v>19283800</v>
+        <v>20355600</v>
       </c>
       <c r="F66" s="3">
-        <v>20294800</v>
+        <v>19595100</v>
       </c>
       <c r="G66" s="3">
-        <v>19589000</v>
+        <v>20622500</v>
       </c>
       <c r="H66" s="3">
-        <v>19824500</v>
+        <v>19905300</v>
       </c>
       <c r="I66" s="3">
-        <v>19247600</v>
+        <v>20144600</v>
       </c>
       <c r="J66" s="3">
+        <v>19558400</v>
+      </c>
+      <c r="K66" s="3">
         <v>20069700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19855000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20209900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21042100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21635800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22008900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21257100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20892400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32202200</v>
+        <v>32638700</v>
       </c>
       <c r="E72" s="3">
-        <v>32791400</v>
+        <v>32722200</v>
       </c>
       <c r="F72" s="3">
-        <v>32487200</v>
+        <v>33320900</v>
       </c>
       <c r="G72" s="3">
-        <v>33031400</v>
+        <v>33011800</v>
       </c>
       <c r="H72" s="3">
-        <v>32710800</v>
+        <v>33564800</v>
       </c>
       <c r="I72" s="3">
-        <v>33221300</v>
+        <v>33238900</v>
       </c>
       <c r="J72" s="3">
+        <v>33757700</v>
+      </c>
+      <c r="K72" s="3">
         <v>32555000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32218900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31339500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31605600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31112000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31274100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30073500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30311300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23419600</v>
+        <v>23836500</v>
       </c>
       <c r="E76" s="3">
-        <v>25014200</v>
+        <v>23797700</v>
       </c>
       <c r="F76" s="3">
-        <v>24301000</v>
+        <v>25418100</v>
       </c>
       <c r="G76" s="3">
-        <v>25138800</v>
+        <v>24693300</v>
       </c>
       <c r="H76" s="3">
-        <v>25664400</v>
+        <v>25544700</v>
       </c>
       <c r="I76" s="3">
-        <v>26268400</v>
+        <v>26078800</v>
       </c>
       <c r="J76" s="3">
+        <v>26692600</v>
+      </c>
+      <c r="K76" s="3">
         <v>26410500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25703500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24795100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25950500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25245100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25087300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24103200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24686400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>203500</v>
+        <v>-83400</v>
       </c>
       <c r="E81" s="3">
-        <v>304300</v>
+        <v>206800</v>
       </c>
       <c r="F81" s="3">
-        <v>246400</v>
+        <v>309200</v>
       </c>
       <c r="G81" s="3">
-        <v>320700</v>
+        <v>250400</v>
       </c>
       <c r="H81" s="3">
-        <v>290900</v>
+        <v>325900</v>
       </c>
       <c r="I81" s="3">
-        <v>666200</v>
+        <v>295500</v>
       </c>
       <c r="J81" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K81" s="3">
         <v>429700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>706000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>516300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>493600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>570000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>625400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>488600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>397600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>499700</v>
+        <v>516800</v>
       </c>
       <c r="E83" s="3">
-        <v>546400</v>
+        <v>507800</v>
       </c>
       <c r="F83" s="3">
-        <v>568000</v>
+        <v>555200</v>
       </c>
       <c r="G83" s="3">
-        <v>543800</v>
+        <v>577200</v>
       </c>
       <c r="H83" s="3">
-        <v>546500</v>
+        <v>552600</v>
       </c>
       <c r="I83" s="3">
-        <v>609700</v>
+        <v>555400</v>
       </c>
       <c r="J83" s="3">
+        <v>619600</v>
+      </c>
+      <c r="K83" s="3">
         <v>598100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>554500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>547300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>611100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>611700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>582900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>551200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>569800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>588500</v>
+        <v>731400</v>
       </c>
       <c r="E89" s="3">
-        <v>1523100</v>
+        <v>598000</v>
       </c>
       <c r="F89" s="3">
-        <v>755600</v>
+        <v>1547700</v>
       </c>
       <c r="G89" s="3">
-        <v>485900</v>
+        <v>767800</v>
       </c>
       <c r="H89" s="3">
-        <v>565500</v>
+        <v>493700</v>
       </c>
       <c r="I89" s="3">
-        <v>1594000</v>
+        <v>574600</v>
       </c>
       <c r="J89" s="3">
+        <v>1619800</v>
+      </c>
+      <c r="K89" s="3">
         <v>268100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1115400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>381000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1591500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>952800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1280800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1485000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1391900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-411300</v>
+        <v>-354200</v>
       </c>
       <c r="E91" s="3">
-        <v>-592100</v>
+        <v>-418000</v>
       </c>
       <c r="F91" s="3">
-        <v>-437200</v>
+        <v>-601600</v>
       </c>
       <c r="G91" s="3">
-        <v>-517500</v>
+        <v>-444300</v>
       </c>
       <c r="H91" s="3">
-        <v>-456800</v>
+        <v>-525900</v>
       </c>
       <c r="I91" s="3">
-        <v>-552800</v>
+        <v>-464100</v>
       </c>
       <c r="J91" s="3">
+        <v>-561700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-339700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-432300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-431900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-441200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-414400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-462900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-386900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-395800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-405100</v>
+        <v>-276300</v>
       </c>
       <c r="E94" s="3">
-        <v>-657000</v>
+        <v>-411600</v>
       </c>
       <c r="F94" s="3">
-        <v>-437300</v>
+        <v>-667600</v>
       </c>
       <c r="G94" s="3">
-        <v>-549400</v>
+        <v>-444300</v>
       </c>
       <c r="H94" s="3">
-        <v>-479700</v>
+        <v>-558300</v>
       </c>
       <c r="I94" s="3">
-        <v>-549600</v>
+        <v>-487400</v>
       </c>
       <c r="J94" s="3">
+        <v>-558500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-433900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-362000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-451300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-297000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-219800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-522000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-444400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-108400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-790600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-803400</v>
       </c>
       <c r="F96" s="3">
-        <v>-790600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-803400</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-815400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-802500</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-802500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-829700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-732100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-726500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>126500</v>
+        <v>81500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1264900</v>
+        <v>128500</v>
       </c>
       <c r="F100" s="3">
-        <v>103200</v>
+        <v>-1285300</v>
       </c>
       <c r="G100" s="3">
-        <v>-190900</v>
+        <v>104800</v>
       </c>
       <c r="H100" s="3">
-        <v>-808200</v>
+        <v>-193900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1110500</v>
+        <v>-821300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1128400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-843700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-443200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-865300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-638400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-467100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-740200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-715300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-57900</v>
+        <v>30700</v>
       </c>
       <c r="E101" s="3">
-        <v>69000</v>
+        <v>-58800</v>
       </c>
       <c r="F101" s="3">
-        <v>-42300</v>
+        <v>70100</v>
       </c>
       <c r="G101" s="3">
-        <v>-57800</v>
+        <v>-43000</v>
       </c>
       <c r="H101" s="3">
-        <v>-16600</v>
+        <v>-58700</v>
       </c>
       <c r="I101" s="3">
-        <v>-69500</v>
+        <v>-16900</v>
       </c>
       <c r="J101" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="K101" s="3">
         <v>59500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-159100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>21700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>60200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>62400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>280800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>252000</v>
+        <v>567400</v>
       </c>
       <c r="E102" s="3">
-        <v>-329800</v>
+        <v>256100</v>
       </c>
       <c r="F102" s="3">
-        <v>379200</v>
+        <v>-335100</v>
       </c>
       <c r="G102" s="3">
-        <v>-312200</v>
+        <v>385400</v>
       </c>
       <c r="H102" s="3">
-        <v>-739000</v>
+        <v>-317200</v>
       </c>
       <c r="I102" s="3">
-        <v>-135500</v>
+        <v>-750900</v>
       </c>
       <c r="J102" s="3">
+        <v>-137700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-950000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>334400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>677800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-424700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>354100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>217000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>849000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6356100</v>
+        <v>7292800</v>
       </c>
       <c r="E8" s="3">
-        <v>7385000</v>
+        <v>6470600</v>
       </c>
       <c r="F8" s="3">
-        <v>9000700</v>
+        <v>7518000</v>
       </c>
       <c r="G8" s="3">
-        <v>8208000</v>
+        <v>9162800</v>
       </c>
       <c r="H8" s="3">
-        <v>8551400</v>
+        <v>8355800</v>
       </c>
       <c r="I8" s="3">
-        <v>8160600</v>
+        <v>8705400</v>
       </c>
       <c r="J8" s="3">
+        <v>8307500</v>
+      </c>
+      <c r="K8" s="3">
         <v>9990700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8607200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9148100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8684800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10127400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8990200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8972000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8628400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8561100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3757100</v>
+        <v>4144800</v>
       </c>
       <c r="E9" s="3">
-        <v>3999200</v>
+        <v>3824800</v>
       </c>
       <c r="F9" s="3">
-        <v>5003900</v>
+        <v>4071300</v>
       </c>
       <c r="G9" s="3">
-        <v>4527600</v>
+        <v>5094000</v>
       </c>
       <c r="H9" s="3">
-        <v>4714900</v>
+        <v>4609100</v>
       </c>
       <c r="I9" s="3">
-        <v>4475600</v>
+        <v>4799800</v>
       </c>
       <c r="J9" s="3">
+        <v>4556200</v>
+      </c>
+      <c r="K9" s="3">
         <v>5372000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4640000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4834400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4664800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5186500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4630800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4492200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4478900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4479900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2599000</v>
+        <v>3148000</v>
       </c>
       <c r="E10" s="3">
-        <v>3385800</v>
+        <v>2645800</v>
       </c>
       <c r="F10" s="3">
-        <v>3996800</v>
+        <v>3446800</v>
       </c>
       <c r="G10" s="3">
-        <v>3680400</v>
+        <v>4068800</v>
       </c>
       <c r="H10" s="3">
-        <v>3836500</v>
+        <v>3746700</v>
       </c>
       <c r="I10" s="3">
-        <v>3685000</v>
+        <v>3905600</v>
       </c>
       <c r="J10" s="3">
+        <v>3751300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4618800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3967100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4313700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4020000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4940900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4359400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4479800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4149500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4081100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>601500</v>
+        <v>654200</v>
       </c>
       <c r="E12" s="3">
-        <v>641400</v>
+        <v>612400</v>
       </c>
       <c r="F12" s="3">
-        <v>720400</v>
+        <v>652900</v>
       </c>
       <c r="G12" s="3">
-        <v>696700</v>
+        <v>733400</v>
       </c>
       <c r="H12" s="3">
-        <v>702800</v>
+        <v>709300</v>
       </c>
       <c r="I12" s="3">
-        <v>697900</v>
+        <v>715400</v>
       </c>
       <c r="J12" s="3">
+        <v>710500</v>
+      </c>
+      <c r="K12" s="3">
         <v>786200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>719100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>693000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>713400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>784800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>736700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>727600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>728200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>656000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>306600</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6523700</v>
+        <v>7108400</v>
       </c>
       <c r="E17" s="3">
-        <v>7074700</v>
+        <v>6641200</v>
       </c>
       <c r="F17" s="3">
-        <v>8503600</v>
+        <v>7202100</v>
       </c>
       <c r="G17" s="3">
-        <v>7845100</v>
+        <v>8656700</v>
       </c>
       <c r="H17" s="3">
-        <v>8144300</v>
+        <v>7986400</v>
       </c>
       <c r="I17" s="3">
-        <v>7778900</v>
+        <v>8291000</v>
       </c>
       <c r="J17" s="3">
+        <v>7919000</v>
+      </c>
+      <c r="K17" s="3">
         <v>9050700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7972400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8257600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7988000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9412900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8262800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8101200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7979200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7850000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-167600</v>
+        <v>184400</v>
       </c>
       <c r="E18" s="3">
-        <v>310400</v>
+        <v>-170600</v>
       </c>
       <c r="F18" s="3">
-        <v>497200</v>
+        <v>315900</v>
       </c>
       <c r="G18" s="3">
-        <v>362900</v>
+        <v>506100</v>
       </c>
       <c r="H18" s="3">
-        <v>407100</v>
+        <v>369500</v>
       </c>
       <c r="I18" s="3">
-        <v>381600</v>
+        <v>414500</v>
       </c>
       <c r="J18" s="3">
+        <v>388500</v>
+      </c>
+      <c r="K18" s="3">
         <v>940000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>634800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>890500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>696800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>714500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>727300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>870700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>649200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>711100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>101300</v>
+        <v>36700</v>
       </c>
       <c r="E20" s="3">
-        <v>17200</v>
+        <v>103200</v>
       </c>
       <c r="F20" s="3">
-        <v>-8600</v>
+        <v>17500</v>
       </c>
       <c r="G20" s="3">
-        <v>83600</v>
+        <v>-8800</v>
       </c>
       <c r="H20" s="3">
-        <v>77400</v>
+        <v>85100</v>
       </c>
       <c r="I20" s="3">
-        <v>56400</v>
+        <v>78800</v>
       </c>
       <c r="J20" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>111900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>80800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>87800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>68400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>30200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>45000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-64900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>450500</v>
+        <v>775600</v>
       </c>
       <c r="E21" s="3">
-        <v>835300</v>
+        <v>458600</v>
       </c>
       <c r="F21" s="3">
-        <v>1043800</v>
+        <v>850400</v>
       </c>
       <c r="G21" s="3">
-        <v>1023700</v>
+        <v>1062600</v>
       </c>
       <c r="H21" s="3">
-        <v>1037100</v>
+        <v>1042100</v>
       </c>
       <c r="I21" s="3">
-        <v>993400</v>
+        <v>1055800</v>
       </c>
       <c r="J21" s="3">
+        <v>1011300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1564600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1223200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1557000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1324800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1413400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1407500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1483800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1245300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1216000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
-        <v>2100</v>
-      </c>
       <c r="G22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2100</v>
       </c>
       <c r="O22" s="3">
         <v>2100</v>
       </c>
       <c r="P22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-68200</v>
+        <v>219200</v>
       </c>
       <c r="E23" s="3">
-        <v>325800</v>
+        <v>-69400</v>
       </c>
       <c r="F23" s="3">
-        <v>486400</v>
+        <v>331700</v>
       </c>
       <c r="G23" s="3">
-        <v>443900</v>
+        <v>495200</v>
       </c>
       <c r="H23" s="3">
-        <v>482100</v>
+        <v>451900</v>
       </c>
       <c r="I23" s="3">
-        <v>435300</v>
+        <v>490800</v>
       </c>
       <c r="J23" s="3">
+        <v>443100</v>
+      </c>
+      <c r="K23" s="3">
         <v>943600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>622900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1001000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>775300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>793700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>691900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>644300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20000</v>
+        <v>35100</v>
       </c>
       <c r="E24" s="3">
-        <v>98400</v>
+        <v>-20400</v>
       </c>
       <c r="F24" s="3">
-        <v>140600</v>
+        <v>100200</v>
       </c>
       <c r="G24" s="3">
-        <v>152900</v>
+        <v>143100</v>
       </c>
       <c r="H24" s="3">
-        <v>131300</v>
+        <v>155700</v>
       </c>
       <c r="I24" s="3">
-        <v>105900</v>
+        <v>133700</v>
       </c>
       <c r="J24" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K24" s="3">
         <v>228500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>159000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>262600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>234500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>260100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>191600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>250800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>180100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>201800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-48200</v>
+        <v>184100</v>
       </c>
       <c r="E26" s="3">
-        <v>227400</v>
+        <v>-49000</v>
       </c>
       <c r="F26" s="3">
-        <v>345900</v>
+        <v>231500</v>
       </c>
       <c r="G26" s="3">
-        <v>291000</v>
+        <v>352100</v>
       </c>
       <c r="H26" s="3">
-        <v>350900</v>
+        <v>296200</v>
       </c>
       <c r="I26" s="3">
-        <v>329400</v>
+        <v>357200</v>
       </c>
       <c r="J26" s="3">
+        <v>335300</v>
+      </c>
+      <c r="K26" s="3">
         <v>715200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>463900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>738400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>540700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>540100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>602100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>649200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>511800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>442500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-83400</v>
+        <v>160100</v>
       </c>
       <c r="E27" s="3">
-        <v>206800</v>
+        <v>-84900</v>
       </c>
       <c r="F27" s="3">
-        <v>309200</v>
+        <v>210500</v>
       </c>
       <c r="G27" s="3">
-        <v>250400</v>
+        <v>314800</v>
       </c>
       <c r="H27" s="3">
-        <v>325900</v>
+        <v>254900</v>
       </c>
       <c r="I27" s="3">
-        <v>295500</v>
+        <v>331700</v>
       </c>
       <c r="J27" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K27" s="3">
         <v>677000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>429700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>706000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>516300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>493600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>570000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>625400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>488600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>397600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-101300</v>
+        <v>-36700</v>
       </c>
       <c r="E32" s="3">
-        <v>-17200</v>
+        <v>-103200</v>
       </c>
       <c r="F32" s="3">
-        <v>8600</v>
+        <v>-17500</v>
       </c>
       <c r="G32" s="3">
-        <v>-83600</v>
+        <v>8800</v>
       </c>
       <c r="H32" s="3">
-        <v>-77400</v>
+        <v>-85100</v>
       </c>
       <c r="I32" s="3">
-        <v>-56400</v>
+        <v>-78800</v>
       </c>
       <c r="J32" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-111900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-80800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-87800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-68400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-45000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>64900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-83400</v>
+        <v>160100</v>
       </c>
       <c r="E33" s="3">
-        <v>206800</v>
+        <v>-84900</v>
       </c>
       <c r="F33" s="3">
-        <v>309200</v>
+        <v>210500</v>
       </c>
       <c r="G33" s="3">
-        <v>250400</v>
+        <v>314800</v>
       </c>
       <c r="H33" s="3">
-        <v>325900</v>
+        <v>254900</v>
       </c>
       <c r="I33" s="3">
-        <v>295500</v>
+        <v>331700</v>
       </c>
       <c r="J33" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K33" s="3">
         <v>677000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>429700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>706000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>516300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>493600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>570000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>625400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>488600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>397600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-83400</v>
+        <v>160100</v>
       </c>
       <c r="E35" s="3">
-        <v>206800</v>
+        <v>-84900</v>
       </c>
       <c r="F35" s="3">
-        <v>309200</v>
+        <v>210500</v>
       </c>
       <c r="G35" s="3">
-        <v>250400</v>
+        <v>314800</v>
       </c>
       <c r="H35" s="3">
-        <v>325900</v>
+        <v>254900</v>
       </c>
       <c r="I35" s="3">
-        <v>295500</v>
+        <v>331700</v>
       </c>
       <c r="J35" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K35" s="3">
         <v>677000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>429700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>706000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>516300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>493600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>570000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>625400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>488600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>397600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4720400</v>
+        <v>4807800</v>
       </c>
       <c r="E41" s="3">
-        <v>4153100</v>
+        <v>4805400</v>
       </c>
       <c r="F41" s="3">
-        <v>3897000</v>
+        <v>4227800</v>
       </c>
       <c r="G41" s="3">
-        <v>4232100</v>
+        <v>3967100</v>
       </c>
       <c r="H41" s="3">
-        <v>3846700</v>
+        <v>4308300</v>
       </c>
       <c r="I41" s="3">
-        <v>4163900</v>
+        <v>3916000</v>
       </c>
       <c r="J41" s="3">
+        <v>4238900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4914900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4972300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5794900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5430400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6525200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5847400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6272200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5806800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5589800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
         <v>1200</v>
       </c>
-      <c r="E42" s="3">
-        <v>18700</v>
-      </c>
       <c r="F42" s="3">
-        <v>16700</v>
+        <v>19000</v>
       </c>
       <c r="G42" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="H42" s="3">
-        <v>37000</v>
+        <v>16800</v>
       </c>
       <c r="I42" s="3">
-        <v>15400</v>
+        <v>37700</v>
       </c>
       <c r="J42" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K42" s="3">
         <v>9000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>135200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>158500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>44700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>28400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3813900</v>
+        <v>4310000</v>
       </c>
       <c r="E43" s="3">
-        <v>4586400</v>
+        <v>3882600</v>
       </c>
       <c r="F43" s="3">
-        <v>5284900</v>
+        <v>4669000</v>
       </c>
       <c r="G43" s="3">
-        <v>4868200</v>
+        <v>5380000</v>
       </c>
       <c r="H43" s="3">
-        <v>5118400</v>
+        <v>4955900</v>
       </c>
       <c r="I43" s="3">
-        <v>5188500</v>
+        <v>5210600</v>
       </c>
       <c r="J43" s="3">
+        <v>5281900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5786300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5405300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5352100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5276900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5883900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5343000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5280700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5132400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5689700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5699300</v>
+        <v>5935200</v>
       </c>
       <c r="E44" s="3">
-        <v>5670100</v>
+        <v>5801900</v>
       </c>
       <c r="F44" s="3">
-        <v>5520100</v>
+        <v>5772200</v>
       </c>
       <c r="G44" s="3">
-        <v>5987700</v>
+        <v>5619500</v>
       </c>
       <c r="H44" s="3">
-        <v>5957200</v>
+        <v>6095500</v>
       </c>
       <c r="I44" s="3">
-        <v>6144400</v>
+        <v>6064500</v>
       </c>
       <c r="J44" s="3">
+        <v>6255100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5770500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6134800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5448400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5319900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5153100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5613800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5395400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5047900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4973700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2930900</v>
+        <v>2825500</v>
       </c>
       <c r="E45" s="3">
-        <v>2718500</v>
+        <v>2983600</v>
       </c>
       <c r="F45" s="3">
-        <v>2707300</v>
+        <v>2767400</v>
       </c>
       <c r="G45" s="3">
-        <v>2871300</v>
+        <v>2756100</v>
       </c>
       <c r="H45" s="3">
-        <v>2829000</v>
+        <v>2923000</v>
       </c>
       <c r="I45" s="3">
-        <v>2814900</v>
+        <v>2880000</v>
       </c>
       <c r="J45" s="3">
+        <v>2865600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2873000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3042600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2885200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2925900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2603200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2531500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2430800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2480200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2343100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17165600</v>
+        <v>17879400</v>
       </c>
       <c r="E46" s="3">
-        <v>17146700</v>
+        <v>17474800</v>
       </c>
       <c r="F46" s="3">
-        <v>17425900</v>
+        <v>17455500</v>
       </c>
       <c r="G46" s="3">
-        <v>17975800</v>
+        <v>17739700</v>
       </c>
       <c r="H46" s="3">
-        <v>17788400</v>
+        <v>18299500</v>
       </c>
       <c r="I46" s="3">
-        <v>18327100</v>
+        <v>18108700</v>
       </c>
       <c r="J46" s="3">
+        <v>18657200</v>
+      </c>
+      <c r="K46" s="3">
         <v>19353700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19567400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19497500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18964900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20183100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19470900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19537600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18512000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18624800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>639400</v>
+        <v>632500</v>
       </c>
       <c r="E47" s="3">
-        <v>602100</v>
+        <v>650900</v>
       </c>
       <c r="F47" s="3">
-        <v>618300</v>
+        <v>612900</v>
       </c>
       <c r="G47" s="3">
-        <v>605400</v>
+        <v>629400</v>
       </c>
       <c r="H47" s="3">
-        <v>577900</v>
+        <v>616300</v>
       </c>
       <c r="I47" s="3">
-        <v>589800</v>
+        <v>588300</v>
       </c>
       <c r="J47" s="3">
+        <v>600400</v>
+      </c>
+      <c r="K47" s="3">
         <v>573800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>642200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>173400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>214700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>320400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>316800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>308300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>263400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>259900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11034100</v>
+        <v>11126000</v>
       </c>
       <c r="E48" s="3">
-        <v>11168700</v>
+        <v>11232800</v>
       </c>
       <c r="F48" s="3">
-        <v>11366600</v>
+        <v>11369800</v>
       </c>
       <c r="G48" s="3">
-        <v>11292500</v>
+        <v>11571300</v>
       </c>
       <c r="H48" s="3">
-        <v>11458800</v>
+        <v>11495900</v>
       </c>
       <c r="I48" s="3">
-        <v>11499500</v>
+        <v>11665200</v>
       </c>
       <c r="J48" s="3">
+        <v>11706600</v>
+      </c>
+      <c r="K48" s="3">
         <v>10299000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10199800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10478600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10407700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10621500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10795700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11125100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11051800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11253000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11523000</v>
+        <v>11744700</v>
       </c>
       <c r="E49" s="3">
-        <v>11441300</v>
+        <v>11730500</v>
       </c>
       <c r="F49" s="3">
-        <v>11767700</v>
+        <v>11647300</v>
       </c>
       <c r="G49" s="3">
-        <v>11563300</v>
+        <v>11979700</v>
       </c>
       <c r="H49" s="3">
-        <v>11849700</v>
+        <v>11771500</v>
       </c>
       <c r="I49" s="3">
-        <v>12058600</v>
+        <v>12063100</v>
       </c>
       <c r="J49" s="3">
+        <v>12275800</v>
+      </c>
+      <c r="K49" s="3">
         <v>12267600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12317100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11842700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11941600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12273600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12698200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12558900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12122200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12264500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3729400</v>
+        <v>3799900</v>
       </c>
       <c r="E52" s="3">
-        <v>3794500</v>
+        <v>3796500</v>
       </c>
       <c r="F52" s="3">
-        <v>3834700</v>
+        <v>3862900</v>
       </c>
       <c r="G52" s="3">
-        <v>3878800</v>
+        <v>3903800</v>
       </c>
       <c r="H52" s="3">
-        <v>3775200</v>
+        <v>3948700</v>
       </c>
       <c r="I52" s="3">
-        <v>3748300</v>
+        <v>3843200</v>
       </c>
       <c r="J52" s="3">
+        <v>3815800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3756900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3753700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3566300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3476100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3594000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3599300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3566200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3410900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3176700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44091400</v>
+        <v>45182400</v>
       </c>
       <c r="E54" s="3">
-        <v>44153300</v>
+        <v>44885500</v>
       </c>
       <c r="F54" s="3">
-        <v>45013200</v>
+        <v>44948400</v>
       </c>
       <c r="G54" s="3">
-        <v>45315900</v>
+        <v>45823900</v>
       </c>
       <c r="H54" s="3">
-        <v>45449900</v>
+        <v>46131900</v>
       </c>
       <c r="I54" s="3">
-        <v>46223400</v>
+        <v>46268400</v>
       </c>
       <c r="J54" s="3">
+        <v>47055800</v>
+      </c>
+      <c r="K54" s="3">
         <v>46250900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46480200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45558500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45004900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46992600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46880900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47096100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45360300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45578800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2587200</v>
+        <v>2733000</v>
       </c>
       <c r="E57" s="3">
-        <v>2811000</v>
+        <v>2633800</v>
       </c>
       <c r="F57" s="3">
-        <v>2882100</v>
+        <v>2861600</v>
       </c>
       <c r="G57" s="3">
-        <v>2979100</v>
+        <v>2934000</v>
       </c>
       <c r="H57" s="3">
-        <v>3065300</v>
+        <v>3032700</v>
       </c>
       <c r="I57" s="3">
-        <v>3300200</v>
+        <v>3120500</v>
       </c>
       <c r="J57" s="3">
+        <v>3359600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3327500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3477000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3521000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3497900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3441100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3458500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3553400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3501600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3302000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1883700</v>
+        <v>2188800</v>
       </c>
       <c r="E58" s="3">
-        <v>1818700</v>
+        <v>1917700</v>
       </c>
       <c r="F58" s="3">
-        <v>396800</v>
+        <v>1851400</v>
       </c>
       <c r="G58" s="3">
-        <v>1601800</v>
+        <v>403900</v>
       </c>
       <c r="H58" s="3">
-        <v>667100</v>
+        <v>1630600</v>
       </c>
       <c r="I58" s="3">
-        <v>386600</v>
+        <v>679100</v>
       </c>
       <c r="J58" s="3">
+        <v>393600</v>
+      </c>
+      <c r="K58" s="3">
         <v>363700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>355200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>355400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>351100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>355500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>346100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>333600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>330200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5365500</v>
+        <v>5702000</v>
       </c>
       <c r="E59" s="3">
-        <v>5411800</v>
+        <v>5462200</v>
       </c>
       <c r="F59" s="3">
-        <v>5788200</v>
+        <v>5509300</v>
       </c>
       <c r="G59" s="3">
-        <v>5595200</v>
+        <v>5892400</v>
       </c>
       <c r="H59" s="3">
-        <v>5641100</v>
+        <v>5696000</v>
       </c>
       <c r="I59" s="3">
-        <v>5843900</v>
+        <v>5742700</v>
       </c>
       <c r="J59" s="3">
+        <v>5949100</v>
+      </c>
+      <c r="K59" s="3">
         <v>6028700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5737300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5732800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5618600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6233100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5789000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5587900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5291600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5404000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9836500</v>
+        <v>10623800</v>
       </c>
       <c r="E60" s="3">
-        <v>10041500</v>
+        <v>10013600</v>
       </c>
       <c r="F60" s="3">
-        <v>9067100</v>
+        <v>10222300</v>
       </c>
       <c r="G60" s="3">
-        <v>10176100</v>
+        <v>9230400</v>
       </c>
       <c r="H60" s="3">
-        <v>9373500</v>
+        <v>10359300</v>
       </c>
       <c r="I60" s="3">
-        <v>9530700</v>
+        <v>9542300</v>
       </c>
       <c r="J60" s="3">
+        <v>9702300</v>
+      </c>
+      <c r="K60" s="3">
         <v>9719900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9569500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9609200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9467600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10029700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9593600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9475000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9123300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8722500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3389200</v>
+        <v>3448500</v>
       </c>
       <c r="E61" s="3">
-        <v>3370200</v>
+        <v>3450200</v>
       </c>
       <c r="F61" s="3">
-        <v>3373300</v>
+        <v>3430900</v>
       </c>
       <c r="G61" s="3">
-        <v>3430300</v>
+        <v>3434000</v>
       </c>
       <c r="H61" s="3">
-        <v>3432400</v>
+        <v>3492100</v>
       </c>
       <c r="I61" s="3">
-        <v>3432100</v>
+        <v>3494200</v>
       </c>
       <c r="J61" s="3">
+        <v>3493900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3416900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4106400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4033000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4464500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4458900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5102700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5568500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5464400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5422100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5108400</v>
+        <v>5116000</v>
       </c>
       <c r="E62" s="3">
-        <v>5056000</v>
+        <v>5200400</v>
       </c>
       <c r="F62" s="3">
-        <v>5273100</v>
+        <v>5147000</v>
       </c>
       <c r="G62" s="3">
-        <v>5170800</v>
+        <v>5368100</v>
       </c>
       <c r="H62" s="3">
-        <v>5269400</v>
+        <v>5264000</v>
       </c>
       <c r="I62" s="3">
-        <v>5374100</v>
+        <v>5364200</v>
       </c>
       <c r="J62" s="3">
+        <v>5470900</v>
+      </c>
+      <c r="K62" s="3">
         <v>4625000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4268600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4171300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4276800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4514600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4961600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5025000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4806900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4871800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20254900</v>
+        <v>21155400</v>
       </c>
       <c r="E66" s="3">
-        <v>20355600</v>
+        <v>20619700</v>
       </c>
       <c r="F66" s="3">
-        <v>19595100</v>
+        <v>20722100</v>
       </c>
       <c r="G66" s="3">
-        <v>20622500</v>
+        <v>19948000</v>
       </c>
       <c r="H66" s="3">
-        <v>19905300</v>
+        <v>20993900</v>
       </c>
       <c r="I66" s="3">
-        <v>20144600</v>
+        <v>20263700</v>
       </c>
       <c r="J66" s="3">
+        <v>20507300</v>
+      </c>
+      <c r="K66" s="3">
         <v>19558400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20069700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19855000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20209900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21042100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21635800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22008900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21257100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20892400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32638700</v>
+        <v>32984600</v>
       </c>
       <c r="E72" s="3">
-        <v>32722200</v>
+        <v>33226500</v>
       </c>
       <c r="F72" s="3">
-        <v>33320900</v>
+        <v>33311500</v>
       </c>
       <c r="G72" s="3">
-        <v>33011800</v>
+        <v>33920900</v>
       </c>
       <c r="H72" s="3">
-        <v>33564800</v>
+        <v>33606300</v>
       </c>
       <c r="I72" s="3">
-        <v>33238900</v>
+        <v>34169200</v>
       </c>
       <c r="J72" s="3">
+        <v>33837500</v>
+      </c>
+      <c r="K72" s="3">
         <v>33757700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32555000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32218900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31339500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31605600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31112000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31274100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30073500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30311300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23836500</v>
+        <v>24027000</v>
       </c>
       <c r="E76" s="3">
-        <v>23797700</v>
+        <v>24265800</v>
       </c>
       <c r="F76" s="3">
-        <v>25418100</v>
+        <v>24226300</v>
       </c>
       <c r="G76" s="3">
-        <v>24693300</v>
+        <v>25875800</v>
       </c>
       <c r="H76" s="3">
-        <v>25544700</v>
+        <v>25138000</v>
       </c>
       <c r="I76" s="3">
-        <v>26078800</v>
+        <v>26004700</v>
       </c>
       <c r="J76" s="3">
+        <v>26548400</v>
+      </c>
+      <c r="K76" s="3">
         <v>26692600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26410500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25703500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24795100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25950500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25245100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25087300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24103200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24686400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-83400</v>
+        <v>160100</v>
       </c>
       <c r="E81" s="3">
-        <v>206800</v>
+        <v>-84900</v>
       </c>
       <c r="F81" s="3">
-        <v>309200</v>
+        <v>210500</v>
       </c>
       <c r="G81" s="3">
-        <v>250400</v>
+        <v>314800</v>
       </c>
       <c r="H81" s="3">
-        <v>325900</v>
+        <v>254900</v>
       </c>
       <c r="I81" s="3">
-        <v>295500</v>
+        <v>331700</v>
       </c>
       <c r="J81" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K81" s="3">
         <v>677000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>429700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>706000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>516300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>493600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>570000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>625400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>488600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>397600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>516800</v>
+        <v>554400</v>
       </c>
       <c r="E83" s="3">
-        <v>507800</v>
+        <v>526100</v>
       </c>
       <c r="F83" s="3">
-        <v>555200</v>
+        <v>516900</v>
       </c>
       <c r="G83" s="3">
-        <v>577200</v>
+        <v>565200</v>
       </c>
       <c r="H83" s="3">
-        <v>552600</v>
+        <v>587600</v>
       </c>
       <c r="I83" s="3">
-        <v>555400</v>
+        <v>562600</v>
       </c>
       <c r="J83" s="3">
+        <v>565400</v>
+      </c>
+      <c r="K83" s="3">
         <v>619600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>598100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>554500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>547300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>611100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>611700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>582900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>551200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>569800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>731400</v>
+        <v>511600</v>
       </c>
       <c r="E89" s="3">
-        <v>598000</v>
+        <v>744600</v>
       </c>
       <c r="F89" s="3">
-        <v>1547700</v>
+        <v>608800</v>
       </c>
       <c r="G89" s="3">
-        <v>767800</v>
+        <v>1575500</v>
       </c>
       <c r="H89" s="3">
-        <v>493700</v>
+        <v>781700</v>
       </c>
       <c r="I89" s="3">
-        <v>574600</v>
+        <v>502600</v>
       </c>
       <c r="J89" s="3">
+        <v>585000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1619800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>268100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1115400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>381000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1591500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>952800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1280800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1485000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1391900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-354200</v>
+        <v>-373200</v>
       </c>
       <c r="E91" s="3">
-        <v>-418000</v>
+        <v>-360600</v>
       </c>
       <c r="F91" s="3">
-        <v>-601600</v>
+        <v>-425500</v>
       </c>
       <c r="G91" s="3">
-        <v>-444300</v>
+        <v>-612400</v>
       </c>
       <c r="H91" s="3">
-        <v>-525900</v>
+        <v>-452300</v>
       </c>
       <c r="I91" s="3">
-        <v>-464100</v>
+        <v>-535400</v>
       </c>
       <c r="J91" s="3">
+        <v>-472500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-561700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-339700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-432300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-431900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-441200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-414400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-462900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-386900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-395800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-276300</v>
+        <v>-373100</v>
       </c>
       <c r="E94" s="3">
-        <v>-411600</v>
+        <v>-281300</v>
       </c>
       <c r="F94" s="3">
-        <v>-667600</v>
+        <v>-419100</v>
       </c>
       <c r="G94" s="3">
-        <v>-444300</v>
+        <v>-679600</v>
       </c>
       <c r="H94" s="3">
-        <v>-558300</v>
+        <v>-452300</v>
       </c>
       <c r="I94" s="3">
-        <v>-487400</v>
+        <v>-568400</v>
       </c>
       <c r="J94" s="3">
+        <v>-496200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-558500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-433900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-362000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-451300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-297000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-219800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-522000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-444400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-108400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-402000</v>
       </c>
       <c r="E96" s="3">
-        <v>-803400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-817900</v>
       </c>
       <c r="G96" s="3">
-        <v>-803400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-817900</v>
       </c>
       <c r="I96" s="3">
-        <v>-815400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-830100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-802500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-829700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-732100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-726500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>81500</v>
+        <v>-147500</v>
       </c>
       <c r="E100" s="3">
-        <v>128500</v>
+        <v>83000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1285300</v>
+        <v>130800</v>
       </c>
       <c r="G100" s="3">
-        <v>104800</v>
+        <v>-1308400</v>
       </c>
       <c r="H100" s="3">
-        <v>-193900</v>
+        <v>106700</v>
       </c>
       <c r="I100" s="3">
-        <v>-821300</v>
+        <v>-197400</v>
       </c>
       <c r="J100" s="3">
+        <v>-836100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-843700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-443200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-865300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-638400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-467100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-740200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-715300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30700</v>
+        <v>11300</v>
       </c>
       <c r="E101" s="3">
-        <v>-58800</v>
+        <v>31300</v>
       </c>
       <c r="F101" s="3">
-        <v>70100</v>
+        <v>-59900</v>
       </c>
       <c r="G101" s="3">
-        <v>-43000</v>
+        <v>71400</v>
       </c>
       <c r="H101" s="3">
-        <v>-58700</v>
+        <v>-43700</v>
       </c>
       <c r="I101" s="3">
-        <v>-16900</v>
+        <v>-59800</v>
       </c>
       <c r="J101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-70600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>59500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-159100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>21700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>60200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>62400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-83500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>280800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>567400</v>
+        <v>2300</v>
       </c>
       <c r="E102" s="3">
-        <v>256100</v>
+        <v>577600</v>
       </c>
       <c r="F102" s="3">
-        <v>-335100</v>
+        <v>260700</v>
       </c>
       <c r="G102" s="3">
-        <v>385400</v>
+        <v>-341200</v>
       </c>
       <c r="H102" s="3">
-        <v>-317200</v>
+        <v>392300</v>
       </c>
       <c r="I102" s="3">
-        <v>-750900</v>
+        <v>-322900</v>
       </c>
       <c r="J102" s="3">
+        <v>-764500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-137700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-950000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>334400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>677800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-424700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>354100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>217000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>849000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7292800</v>
+        <v>8662900</v>
       </c>
       <c r="E8" s="3">
-        <v>6470600</v>
+        <v>6951300</v>
       </c>
       <c r="F8" s="3">
-        <v>7518000</v>
+        <v>6167600</v>
       </c>
       <c r="G8" s="3">
-        <v>9162800</v>
+        <v>7166000</v>
       </c>
       <c r="H8" s="3">
-        <v>8355800</v>
+        <v>8733800</v>
       </c>
       <c r="I8" s="3">
-        <v>8705400</v>
+        <v>7964600</v>
       </c>
       <c r="J8" s="3">
+        <v>8297800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8307500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9990700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8607200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9148100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8684800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10127400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8990200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8972000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8628400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8561100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4144800</v>
+        <v>4867800</v>
       </c>
       <c r="E9" s="3">
-        <v>3824800</v>
+        <v>3950800</v>
       </c>
       <c r="F9" s="3">
-        <v>4071300</v>
+        <v>3645700</v>
       </c>
       <c r="G9" s="3">
-        <v>5094000</v>
+        <v>3880600</v>
       </c>
       <c r="H9" s="3">
-        <v>4609100</v>
+        <v>9711000</v>
       </c>
       <c r="I9" s="3">
-        <v>4799800</v>
+        <v>4393300</v>
       </c>
       <c r="J9" s="3">
+        <v>4575100</v>
+      </c>
+      <c r="K9" s="3">
         <v>4556200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5372000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4640000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4834400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4664800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5186500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4630800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4492200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4478900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4479900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3148000</v>
+        <v>3795100</v>
       </c>
       <c r="E10" s="3">
-        <v>2645800</v>
+        <v>3000600</v>
       </c>
       <c r="F10" s="3">
-        <v>3446800</v>
+        <v>2521900</v>
       </c>
       <c r="G10" s="3">
-        <v>4068800</v>
+        <v>3285400</v>
       </c>
       <c r="H10" s="3">
-        <v>3746700</v>
+        <v>-977200</v>
       </c>
       <c r="I10" s="3">
-        <v>3905600</v>
+        <v>3571300</v>
       </c>
       <c r="J10" s="3">
+        <v>3722700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3751300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4618800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3967100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4313700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4020000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4940900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4359400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4479800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4149500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4081100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>654200</v>
+        <v>664800</v>
       </c>
       <c r="E12" s="3">
-        <v>612400</v>
+        <v>623500</v>
       </c>
       <c r="F12" s="3">
-        <v>652900</v>
+        <v>583700</v>
       </c>
       <c r="G12" s="3">
-        <v>733400</v>
+        <v>622400</v>
       </c>
       <c r="H12" s="3">
-        <v>709300</v>
+        <v>699000</v>
       </c>
       <c r="I12" s="3">
-        <v>715400</v>
+        <v>676100</v>
       </c>
       <c r="J12" s="3">
+        <v>681900</v>
+      </c>
+      <c r="K12" s="3">
         <v>710500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>786200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>719100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>693000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>713400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>784800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>736700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>727600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>728200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>656000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,11 +1105,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>306600</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7108400</v>
+        <v>7964600</v>
       </c>
       <c r="E17" s="3">
-        <v>6641200</v>
+        <v>6775600</v>
       </c>
       <c r="F17" s="3">
-        <v>7202100</v>
+        <v>6330200</v>
       </c>
       <c r="G17" s="3">
-        <v>8656700</v>
+        <v>6864800</v>
       </c>
       <c r="H17" s="3">
-        <v>7986400</v>
+        <v>8253600</v>
       </c>
       <c r="I17" s="3">
-        <v>8291000</v>
+        <v>7612400</v>
       </c>
       <c r="J17" s="3">
+        <v>7902700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7919000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9050700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7972400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8257600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7988000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9412900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8262800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8101200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7979200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7850000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>184400</v>
+        <v>698300</v>
       </c>
       <c r="E18" s="3">
-        <v>-170600</v>
+        <v>175800</v>
       </c>
       <c r="F18" s="3">
-        <v>315900</v>
+        <v>-162600</v>
       </c>
       <c r="G18" s="3">
-        <v>506100</v>
+        <v>301200</v>
       </c>
       <c r="H18" s="3">
-        <v>369500</v>
+        <v>480200</v>
       </c>
       <c r="I18" s="3">
-        <v>414500</v>
+        <v>352200</v>
       </c>
       <c r="J18" s="3">
+        <v>395000</v>
+      </c>
+      <c r="K18" s="3">
         <v>388500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>940000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>634800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>890500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>696800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>714500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>727300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>870700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>649200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>711100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36700</v>
+        <v>38600</v>
       </c>
       <c r="E20" s="3">
-        <v>103200</v>
+        <v>35000</v>
       </c>
       <c r="F20" s="3">
-        <v>17500</v>
+        <v>98300</v>
       </c>
       <c r="G20" s="3">
-        <v>-8800</v>
+        <v>16700</v>
       </c>
       <c r="H20" s="3">
-        <v>85100</v>
+        <v>-8400</v>
       </c>
       <c r="I20" s="3">
-        <v>78800</v>
+        <v>81100</v>
       </c>
       <c r="J20" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K20" s="3">
         <v>57400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>111900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>80800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>87800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>68400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>45000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-64900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>775600</v>
+        <v>1301200</v>
       </c>
       <c r="E21" s="3">
-        <v>458600</v>
+        <v>739200</v>
       </c>
       <c r="F21" s="3">
-        <v>850400</v>
+        <v>437100</v>
       </c>
       <c r="G21" s="3">
-        <v>1062600</v>
+        <v>810500</v>
       </c>
       <c r="H21" s="3">
-        <v>1042100</v>
+        <v>1010500</v>
       </c>
       <c r="I21" s="3">
-        <v>1055800</v>
+        <v>993300</v>
       </c>
       <c r="J21" s="3">
+        <v>1006400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1011300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1564600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1223200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1557000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1324800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1413400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1407500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1483800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1245300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1216000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="3">
         <v>1900</v>
       </c>
       <c r="F22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2100</v>
       </c>
       <c r="P22" s="3">
         <v>2100</v>
       </c>
       <c r="Q22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>219200</v>
+        <v>734500</v>
       </c>
       <c r="E23" s="3">
-        <v>-69400</v>
+        <v>208900</v>
       </c>
       <c r="F23" s="3">
-        <v>331700</v>
+        <v>-66200</v>
       </c>
       <c r="G23" s="3">
-        <v>495200</v>
+        <v>316100</v>
       </c>
       <c r="H23" s="3">
-        <v>451900</v>
+        <v>469700</v>
       </c>
       <c r="I23" s="3">
-        <v>490800</v>
+        <v>430700</v>
       </c>
       <c r="J23" s="3">
+        <v>467800</v>
+      </c>
+      <c r="K23" s="3">
         <v>443100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>943600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>622900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1001000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>775300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>793700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>691900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>644300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35100</v>
+        <v>205000</v>
       </c>
       <c r="E24" s="3">
-        <v>-20400</v>
+        <v>33400</v>
       </c>
       <c r="F24" s="3">
-        <v>100200</v>
+        <v>-19400</v>
       </c>
       <c r="G24" s="3">
-        <v>143100</v>
+        <v>95500</v>
       </c>
       <c r="H24" s="3">
-        <v>155700</v>
+        <v>135700</v>
       </c>
       <c r="I24" s="3">
-        <v>133700</v>
+        <v>148400</v>
       </c>
       <c r="J24" s="3">
+        <v>127400</v>
+      </c>
+      <c r="K24" s="3">
         <v>107800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>228500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>159000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>262600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>234500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>260100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>191600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>250800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>180100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>201800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>184100</v>
+        <v>529400</v>
       </c>
       <c r="E26" s="3">
-        <v>-49000</v>
+        <v>175500</v>
       </c>
       <c r="F26" s="3">
-        <v>231500</v>
+        <v>-46700</v>
       </c>
       <c r="G26" s="3">
-        <v>352100</v>
+        <v>220600</v>
       </c>
       <c r="H26" s="3">
-        <v>296200</v>
+        <v>334000</v>
       </c>
       <c r="I26" s="3">
-        <v>357200</v>
+        <v>282300</v>
       </c>
       <c r="J26" s="3">
+        <v>340400</v>
+      </c>
+      <c r="K26" s="3">
         <v>335300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>715200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>463900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>738400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>540700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>540100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>602100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>649200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>511800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>442500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>160100</v>
+        <v>490900</v>
       </c>
       <c r="E27" s="3">
-        <v>-84900</v>
+        <v>152600</v>
       </c>
       <c r="F27" s="3">
-        <v>210500</v>
+        <v>-80900</v>
       </c>
       <c r="G27" s="3">
-        <v>314800</v>
+        <v>200700</v>
       </c>
       <c r="H27" s="3">
-        <v>254900</v>
+        <v>298800</v>
       </c>
       <c r="I27" s="3">
-        <v>331700</v>
+        <v>242900</v>
       </c>
       <c r="J27" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K27" s="3">
         <v>300900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>677000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>429700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>706000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>516300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>493600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>570000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>625400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>488600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>397600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36700</v>
+        <v>-38600</v>
       </c>
       <c r="E32" s="3">
-        <v>-103200</v>
+        <v>-35000</v>
       </c>
       <c r="F32" s="3">
-        <v>-17500</v>
+        <v>-98300</v>
       </c>
       <c r="G32" s="3">
-        <v>8800</v>
+        <v>-16700</v>
       </c>
       <c r="H32" s="3">
-        <v>-85100</v>
+        <v>8400</v>
       </c>
       <c r="I32" s="3">
-        <v>-78800</v>
+        <v>-81100</v>
       </c>
       <c r="J32" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-57400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-111900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-80800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-87800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-68400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-45000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>64900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>160100</v>
+        <v>490900</v>
       </c>
       <c r="E33" s="3">
-        <v>-84900</v>
+        <v>152600</v>
       </c>
       <c r="F33" s="3">
-        <v>210500</v>
+        <v>-80900</v>
       </c>
       <c r="G33" s="3">
-        <v>314800</v>
+        <v>200700</v>
       </c>
       <c r="H33" s="3">
-        <v>254900</v>
+        <v>298800</v>
       </c>
       <c r="I33" s="3">
-        <v>331700</v>
+        <v>242900</v>
       </c>
       <c r="J33" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K33" s="3">
         <v>300900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>677000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>429700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>706000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>516300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>493600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>570000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>625400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>488600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>397600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>160100</v>
+        <v>490900</v>
       </c>
       <c r="E35" s="3">
-        <v>-84900</v>
+        <v>152600</v>
       </c>
       <c r="F35" s="3">
-        <v>210500</v>
+        <v>-80900</v>
       </c>
       <c r="G35" s="3">
-        <v>314800</v>
+        <v>200700</v>
       </c>
       <c r="H35" s="3">
-        <v>254900</v>
+        <v>298800</v>
       </c>
       <c r="I35" s="3">
-        <v>331700</v>
+        <v>242900</v>
       </c>
       <c r="J35" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K35" s="3">
         <v>300900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>677000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>429700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>706000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>516300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>493600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>570000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>625400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>488600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>397600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4807800</v>
+        <v>3734400</v>
       </c>
       <c r="E41" s="3">
-        <v>4805400</v>
+        <v>4582600</v>
       </c>
       <c r="F41" s="3">
-        <v>4227800</v>
+        <v>4580400</v>
       </c>
       <c r="G41" s="3">
-        <v>3967100</v>
+        <v>4029900</v>
       </c>
       <c r="H41" s="3">
-        <v>4308300</v>
+        <v>3781400</v>
       </c>
       <c r="I41" s="3">
-        <v>3916000</v>
+        <v>4106600</v>
       </c>
       <c r="J41" s="3">
+        <v>3732600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4238900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4914900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4972300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5794900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5430400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6525200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5847400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6272200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5806800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5589800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E42" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F42" s="3">
-        <v>19000</v>
+        <v>1100</v>
       </c>
       <c r="G42" s="3">
-        <v>17000</v>
+        <v>18100</v>
       </c>
       <c r="H42" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="I42" s="3">
-        <v>37700</v>
+        <v>16000</v>
       </c>
       <c r="J42" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K42" s="3">
         <v>15700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>135200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>158500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>44700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>28400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4310000</v>
+        <v>4901800</v>
       </c>
       <c r="E43" s="3">
-        <v>3882600</v>
+        <v>4108200</v>
       </c>
       <c r="F43" s="3">
-        <v>4669000</v>
+        <v>3700800</v>
       </c>
       <c r="G43" s="3">
-        <v>5380000</v>
+        <v>4450400</v>
       </c>
       <c r="H43" s="3">
-        <v>4955900</v>
+        <v>10351100</v>
       </c>
       <c r="I43" s="3">
-        <v>5210600</v>
+        <v>4723800</v>
       </c>
       <c r="J43" s="3">
+        <v>4966600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5281900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5786300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5405300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5352100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5276900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5883900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5343000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5280700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5132400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5689700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5935200</v>
+        <v>5155300</v>
       </c>
       <c r="E44" s="3">
-        <v>5801900</v>
+        <v>5657300</v>
       </c>
       <c r="F44" s="3">
-        <v>5772200</v>
+        <v>5530200</v>
       </c>
       <c r="G44" s="3">
-        <v>5619500</v>
+        <v>5501900</v>
       </c>
       <c r="H44" s="3">
-        <v>6095500</v>
+        <v>10712700</v>
       </c>
       <c r="I44" s="3">
-        <v>6064500</v>
+        <v>5810100</v>
       </c>
       <c r="J44" s="3">
+        <v>5780500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6255100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5770500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6134800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5448400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5319900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5153100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5613800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5395400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5047900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4973700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2825500</v>
+        <v>2596400</v>
       </c>
       <c r="E45" s="3">
-        <v>2983600</v>
+        <v>2693200</v>
       </c>
       <c r="F45" s="3">
-        <v>2767400</v>
+        <v>2843900</v>
       </c>
       <c r="G45" s="3">
-        <v>2756100</v>
+        <v>2637900</v>
       </c>
       <c r="H45" s="3">
-        <v>2923000</v>
+        <v>2627000</v>
       </c>
       <c r="I45" s="3">
-        <v>2880000</v>
+        <v>2786100</v>
       </c>
       <c r="J45" s="3">
+        <v>2745100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2865600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2873000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3042600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2885200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2925900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2603200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2531500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2430800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2480200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2343100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17879400</v>
+        <v>16388500</v>
       </c>
       <c r="E46" s="3">
-        <v>17474800</v>
+        <v>17042200</v>
       </c>
       <c r="F46" s="3">
-        <v>17455500</v>
+        <v>16656500</v>
       </c>
       <c r="G46" s="3">
-        <v>17739700</v>
+        <v>16638100</v>
       </c>
       <c r="H46" s="3">
-        <v>18299500</v>
+        <v>16909000</v>
       </c>
       <c r="I46" s="3">
-        <v>18108700</v>
+        <v>17442600</v>
       </c>
       <c r="J46" s="3">
+        <v>17260800</v>
+      </c>
+      <c r="K46" s="3">
         <v>18657200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19353700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19567400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19497500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18964900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20183100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19470900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19537600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18512000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18624800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>632500</v>
+        <v>616200</v>
       </c>
       <c r="E47" s="3">
-        <v>650900</v>
+        <v>602900</v>
       </c>
       <c r="F47" s="3">
-        <v>612900</v>
+        <v>620400</v>
       </c>
       <c r="G47" s="3">
-        <v>629400</v>
+        <v>584200</v>
       </c>
       <c r="H47" s="3">
-        <v>616300</v>
+        <v>599900</v>
       </c>
       <c r="I47" s="3">
-        <v>588300</v>
+        <v>587400</v>
       </c>
       <c r="J47" s="3">
+        <v>560700</v>
+      </c>
+      <c r="K47" s="3">
         <v>600400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>573800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>642200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>173400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>214700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>320400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>316800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>308300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>263400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>259900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11126000</v>
+        <v>10488600</v>
       </c>
       <c r="E48" s="3">
-        <v>11232800</v>
+        <v>10605000</v>
       </c>
       <c r="F48" s="3">
-        <v>11369800</v>
+        <v>10706800</v>
       </c>
       <c r="G48" s="3">
-        <v>11571300</v>
+        <v>10837400</v>
       </c>
       <c r="H48" s="3">
-        <v>11495900</v>
+        <v>47040000</v>
       </c>
       <c r="I48" s="3">
-        <v>11665200</v>
+        <v>10957600</v>
       </c>
       <c r="J48" s="3">
+        <v>11118900</v>
+      </c>
+      <c r="K48" s="3">
         <v>11706600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10299000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10199800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10478600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10407700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10621500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10795700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11125100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11051800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11253000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11744700</v>
+        <v>11304000</v>
       </c>
       <c r="E49" s="3">
-        <v>11730500</v>
+        <v>11194700</v>
       </c>
       <c r="F49" s="3">
-        <v>11647300</v>
+        <v>11181200</v>
       </c>
       <c r="G49" s="3">
-        <v>11979700</v>
+        <v>11101900</v>
       </c>
       <c r="H49" s="3">
-        <v>11771500</v>
+        <v>11418700</v>
       </c>
       <c r="I49" s="3">
-        <v>12063100</v>
+        <v>11220300</v>
       </c>
       <c r="J49" s="3">
+        <v>11498200</v>
+      </c>
+      <c r="K49" s="3">
         <v>12275800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12267600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12317100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11842700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11941600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12273600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12698200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12558900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12122200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12264500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3799900</v>
+        <v>3573300</v>
       </c>
       <c r="E52" s="3">
-        <v>3796500</v>
+        <v>3622000</v>
       </c>
       <c r="F52" s="3">
-        <v>3862900</v>
+        <v>3618800</v>
       </c>
       <c r="G52" s="3">
-        <v>3903800</v>
+        <v>3682000</v>
       </c>
       <c r="H52" s="3">
-        <v>3948700</v>
+        <v>3753600</v>
       </c>
       <c r="I52" s="3">
-        <v>3843200</v>
+        <v>3763800</v>
       </c>
       <c r="J52" s="3">
+        <v>3663200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3815800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3756900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3753700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3566300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3476100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3594000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3599300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3566200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3410900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3176700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45182400</v>
+        <v>42370600</v>
       </c>
       <c r="E54" s="3">
-        <v>44885500</v>
+        <v>43066700</v>
       </c>
       <c r="F54" s="3">
-        <v>44948400</v>
+        <v>42783600</v>
       </c>
       <c r="G54" s="3">
-        <v>45823900</v>
+        <v>42843600</v>
       </c>
       <c r="H54" s="3">
-        <v>46131900</v>
+        <v>43710800</v>
       </c>
       <c r="I54" s="3">
-        <v>46268400</v>
+        <v>43971700</v>
       </c>
       <c r="J54" s="3">
+        <v>44101800</v>
+      </c>
+      <c r="K54" s="3">
         <v>47055800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46250900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46480200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45558500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45004900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46992600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46880900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47096100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45360300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45578800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2733000</v>
+        <v>2782900</v>
       </c>
       <c r="E57" s="3">
-        <v>2633800</v>
+        <v>2605000</v>
       </c>
       <c r="F57" s="3">
-        <v>2861600</v>
+        <v>2510500</v>
       </c>
       <c r="G57" s="3">
-        <v>2934000</v>
+        <v>2727600</v>
       </c>
       <c r="H57" s="3">
-        <v>3032700</v>
+        <v>5593300</v>
       </c>
       <c r="I57" s="3">
-        <v>3120500</v>
+        <v>2890700</v>
       </c>
       <c r="J57" s="3">
+        <v>2974400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3359600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3327500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3477000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3521000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3497900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3441100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3458500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3553400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3501600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3302000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2188800</v>
+        <v>3592900</v>
       </c>
       <c r="E58" s="3">
-        <v>1917700</v>
+        <v>2086300</v>
       </c>
       <c r="F58" s="3">
-        <v>1851400</v>
+        <v>1827900</v>
       </c>
       <c r="G58" s="3">
-        <v>403900</v>
+        <v>1764700</v>
       </c>
       <c r="H58" s="3">
-        <v>1630600</v>
+        <v>770100</v>
       </c>
       <c r="I58" s="3">
-        <v>679100</v>
+        <v>1554300</v>
       </c>
       <c r="J58" s="3">
+        <v>647300</v>
+      </c>
+      <c r="K58" s="3">
         <v>393600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>363700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>355200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>355400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>351100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>355500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>346100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>333600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>330200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5702000</v>
+        <v>5772100</v>
       </c>
       <c r="E59" s="3">
-        <v>5462200</v>
+        <v>5435000</v>
       </c>
       <c r="F59" s="3">
-        <v>5509300</v>
+        <v>5206400</v>
       </c>
       <c r="G59" s="3">
-        <v>5892400</v>
+        <v>5251300</v>
       </c>
       <c r="H59" s="3">
-        <v>5696000</v>
+        <v>5721900</v>
       </c>
       <c r="I59" s="3">
-        <v>5742700</v>
+        <v>5429200</v>
       </c>
       <c r="J59" s="3">
+        <v>5473800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5949100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6028700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5737300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5732800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5618600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6233100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5789000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5587900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5291600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5404000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10623800</v>
+        <v>12147900</v>
       </c>
       <c r="E60" s="3">
-        <v>10013600</v>
+        <v>10126300</v>
       </c>
       <c r="F60" s="3">
-        <v>10222300</v>
+        <v>9544700</v>
       </c>
       <c r="G60" s="3">
-        <v>9230400</v>
+        <v>9743600</v>
       </c>
       <c r="H60" s="3">
-        <v>10359300</v>
+        <v>8903500</v>
       </c>
       <c r="I60" s="3">
-        <v>9542300</v>
+        <v>9874200</v>
       </c>
       <c r="J60" s="3">
+        <v>9095500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9702300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9719900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9569500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9609200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9467600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10029700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9593600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9475000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9123300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8722500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3448500</v>
+        <v>44300</v>
       </c>
       <c r="E61" s="3">
-        <v>3450200</v>
+        <v>3287000</v>
       </c>
       <c r="F61" s="3">
-        <v>3430900</v>
+        <v>3288700</v>
       </c>
       <c r="G61" s="3">
-        <v>3434000</v>
+        <v>3270200</v>
       </c>
       <c r="H61" s="3">
-        <v>3492100</v>
+        <v>3273200</v>
       </c>
       <c r="I61" s="3">
-        <v>3494200</v>
+        <v>3328500</v>
       </c>
       <c r="J61" s="3">
+        <v>3330600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3493900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3416900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4106400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4033000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4464500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4458900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5102700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5568500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5464400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5422100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5116000</v>
+        <v>4676600</v>
       </c>
       <c r="E62" s="3">
-        <v>5200400</v>
+        <v>4876500</v>
       </c>
       <c r="F62" s="3">
-        <v>5147000</v>
+        <v>4956900</v>
       </c>
       <c r="G62" s="3">
-        <v>5368100</v>
+        <v>4906000</v>
       </c>
       <c r="H62" s="3">
-        <v>5264000</v>
+        <v>5116700</v>
       </c>
       <c r="I62" s="3">
-        <v>5364200</v>
+        <v>5017500</v>
       </c>
       <c r="J62" s="3">
+        <v>5113100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5470900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4625000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4268600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4171300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4276800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4514600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4961600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5025000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4806900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4871800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21155400</v>
+        <v>18783300</v>
       </c>
       <c r="E66" s="3">
-        <v>20619700</v>
+        <v>20164800</v>
       </c>
       <c r="F66" s="3">
-        <v>20722100</v>
+        <v>19654100</v>
       </c>
       <c r="G66" s="3">
-        <v>19948000</v>
+        <v>19751800</v>
       </c>
       <c r="H66" s="3">
-        <v>20993900</v>
+        <v>19111600</v>
       </c>
       <c r="I66" s="3">
-        <v>20263700</v>
+        <v>20010800</v>
       </c>
       <c r="J66" s="3">
+        <v>19314900</v>
+      </c>
+      <c r="K66" s="3">
         <v>20507300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19558400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20069700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19855000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20209900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21042100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21635800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22008900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21257100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20892400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32984600</v>
+        <v>31865900</v>
       </c>
       <c r="E72" s="3">
-        <v>33226500</v>
+        <v>31440000</v>
       </c>
       <c r="F72" s="3">
-        <v>33311500</v>
+        <v>31670600</v>
       </c>
       <c r="G72" s="3">
-        <v>33920900</v>
+        <v>31751600</v>
       </c>
       <c r="H72" s="3">
-        <v>33606300</v>
+        <v>32267500</v>
       </c>
       <c r="I72" s="3">
-        <v>34169200</v>
+        <v>32032600</v>
       </c>
       <c r="J72" s="3">
+        <v>32569200</v>
+      </c>
+      <c r="K72" s="3">
         <v>33837500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33757700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32555000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32218900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31339500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31605600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31112000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31274100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30073500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30311300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24027000</v>
+        <v>23587300</v>
       </c>
       <c r="E76" s="3">
-        <v>24265800</v>
+        <v>22901900</v>
       </c>
       <c r="F76" s="3">
-        <v>24226300</v>
+        <v>23129500</v>
       </c>
       <c r="G76" s="3">
-        <v>25875800</v>
+        <v>23091800</v>
       </c>
       <c r="H76" s="3">
-        <v>25138000</v>
+        <v>24599100</v>
       </c>
       <c r="I76" s="3">
-        <v>26004700</v>
+        <v>23960900</v>
       </c>
       <c r="J76" s="3">
+        <v>24787000</v>
+      </c>
+      <c r="K76" s="3">
         <v>26548400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26692600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26410500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25703500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24795100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25950500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25245100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25087300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24103200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24686400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>160100</v>
+        <v>490900</v>
       </c>
       <c r="E81" s="3">
-        <v>-84900</v>
+        <v>152600</v>
       </c>
       <c r="F81" s="3">
-        <v>210500</v>
+        <v>-80900</v>
       </c>
       <c r="G81" s="3">
-        <v>314800</v>
+        <v>200700</v>
       </c>
       <c r="H81" s="3">
-        <v>254900</v>
+        <v>298800</v>
       </c>
       <c r="I81" s="3">
-        <v>331700</v>
+        <v>242900</v>
       </c>
       <c r="J81" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K81" s="3">
         <v>300900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>677000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>429700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>706000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>516300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>493600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>570000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>625400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>488600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>397600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>554400</v>
+        <v>564300</v>
       </c>
       <c r="E83" s="3">
-        <v>526100</v>
+        <v>528400</v>
       </c>
       <c r="F83" s="3">
-        <v>516900</v>
+        <v>501400</v>
       </c>
       <c r="G83" s="3">
-        <v>565200</v>
+        <v>492700</v>
       </c>
       <c r="H83" s="3">
-        <v>587600</v>
+        <v>538700</v>
       </c>
       <c r="I83" s="3">
-        <v>562600</v>
+        <v>560100</v>
       </c>
       <c r="J83" s="3">
+        <v>536200</v>
+      </c>
+      <c r="K83" s="3">
         <v>565400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>619600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>598100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>554500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>547300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>611100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>611700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>582900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>551200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>569800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>511600</v>
+        <v>1280000</v>
       </c>
       <c r="E89" s="3">
-        <v>744600</v>
+        <v>487600</v>
       </c>
       <c r="F89" s="3">
-        <v>608800</v>
+        <v>709700</v>
       </c>
       <c r="G89" s="3">
-        <v>1575500</v>
+        <v>580300</v>
       </c>
       <c r="H89" s="3">
-        <v>781700</v>
+        <v>1501800</v>
       </c>
       <c r="I89" s="3">
-        <v>502600</v>
+        <v>745100</v>
       </c>
       <c r="J89" s="3">
+        <v>479100</v>
+      </c>
+      <c r="K89" s="3">
         <v>585000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1619800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>268100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1115400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>381000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1591500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>952800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1280800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1485000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1391900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-373200</v>
+        <v>-403800</v>
       </c>
       <c r="E91" s="3">
-        <v>-360600</v>
+        <v>-355700</v>
       </c>
       <c r="F91" s="3">
-        <v>-425500</v>
+        <v>-343700</v>
       </c>
       <c r="G91" s="3">
-        <v>-612400</v>
+        <v>-405600</v>
       </c>
       <c r="H91" s="3">
-        <v>-452300</v>
+        <v>-583800</v>
       </c>
       <c r="I91" s="3">
-        <v>-535400</v>
+        <v>-431100</v>
       </c>
       <c r="J91" s="3">
+        <v>-510300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-472500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-561700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-339700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-432300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-431900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-441200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-414400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-462900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-386900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-395800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-373100</v>
+        <v>-400700</v>
       </c>
       <c r="E94" s="3">
-        <v>-281300</v>
+        <v>-355600</v>
       </c>
       <c r="F94" s="3">
-        <v>-419100</v>
+        <v>-268100</v>
       </c>
       <c r="G94" s="3">
-        <v>-679600</v>
+        <v>-399400</v>
       </c>
       <c r="H94" s="3">
-        <v>-452300</v>
+        <v>-647800</v>
       </c>
       <c r="I94" s="3">
-        <v>-568400</v>
+        <v>-431200</v>
       </c>
       <c r="J94" s="3">
+        <v>-541700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-496200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-558500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-433900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-362000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-451300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-297000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-219800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-522000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-444400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-108400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-402000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-383200</v>
       </c>
       <c r="F96" s="3">
-        <v>-817900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-779600</v>
       </c>
       <c r="H96" s="3">
-        <v>-817900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-779600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-830100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-802500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-829700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-732100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-726500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-147500</v>
+        <v>-1743600</v>
       </c>
       <c r="E100" s="3">
-        <v>83000</v>
+        <v>-140600</v>
       </c>
       <c r="F100" s="3">
-        <v>130800</v>
+        <v>79100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1308400</v>
+        <v>124700</v>
       </c>
       <c r="H100" s="3">
-        <v>106700</v>
+        <v>-1247200</v>
       </c>
       <c r="I100" s="3">
-        <v>-197400</v>
+        <v>101700</v>
       </c>
       <c r="J100" s="3">
+        <v>-188200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-836100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-843700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-443200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-865300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-638400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-467100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-740200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-715300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11300</v>
+        <v>16000</v>
       </c>
       <c r="E101" s="3">
-        <v>31300</v>
+        <v>10800</v>
       </c>
       <c r="F101" s="3">
-        <v>-59900</v>
+        <v>29800</v>
       </c>
       <c r="G101" s="3">
-        <v>71400</v>
+        <v>-57100</v>
       </c>
       <c r="H101" s="3">
-        <v>-43700</v>
+        <v>68000</v>
       </c>
       <c r="I101" s="3">
-        <v>-59800</v>
+        <v>-41700</v>
       </c>
       <c r="J101" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-70600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>59500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-159100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>60200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>62400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-83500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>280800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2300</v>
+        <v>-848200</v>
       </c>
       <c r="E102" s="3">
-        <v>577600</v>
+        <v>2200</v>
       </c>
       <c r="F102" s="3">
-        <v>260700</v>
+        <v>550600</v>
       </c>
       <c r="G102" s="3">
-        <v>-341200</v>
+        <v>248500</v>
       </c>
       <c r="H102" s="3">
-        <v>392300</v>
+        <v>-325200</v>
       </c>
       <c r="I102" s="3">
-        <v>-322900</v>
+        <v>373900</v>
       </c>
       <c r="J102" s="3">
+        <v>-307800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-764500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-137700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-950000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>334400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>677800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-424700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>354100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>217000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>849000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8662900</v>
+        <v>7744000</v>
       </c>
       <c r="E8" s="3">
-        <v>6951300</v>
+        <v>8691300</v>
       </c>
       <c r="F8" s="3">
-        <v>6167600</v>
+        <v>6974100</v>
       </c>
       <c r="G8" s="3">
-        <v>7166000</v>
+        <v>6187800</v>
       </c>
       <c r="H8" s="3">
-        <v>8733800</v>
+        <v>7189400</v>
       </c>
       <c r="I8" s="3">
-        <v>7964600</v>
+        <v>8762400</v>
       </c>
       <c r="J8" s="3">
+        <v>7990700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8297800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8307500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9990700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8607200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9148100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8684800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10127400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8990200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8972000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8628400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8561100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4867800</v>
+        <v>4211700</v>
       </c>
       <c r="E9" s="3">
-        <v>3950800</v>
+        <v>4883800</v>
       </c>
       <c r="F9" s="3">
-        <v>3645700</v>
+        <v>3963700</v>
       </c>
       <c r="G9" s="3">
-        <v>3880600</v>
+        <v>3657600</v>
       </c>
       <c r="H9" s="3">
-        <v>9711000</v>
+        <v>3893300</v>
       </c>
       <c r="I9" s="3">
-        <v>4393300</v>
+        <v>4871400</v>
       </c>
       <c r="J9" s="3">
+        <v>4407700</v>
+      </c>
+      <c r="K9" s="3">
         <v>4575100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4556200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5372000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4640000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4834400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4664800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5186500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4630800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4492200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4478900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4479900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3795100</v>
+        <v>3532300</v>
       </c>
       <c r="E10" s="3">
-        <v>3000600</v>
+        <v>3807500</v>
       </c>
       <c r="F10" s="3">
-        <v>2521900</v>
+        <v>3010400</v>
       </c>
       <c r="G10" s="3">
-        <v>3285400</v>
+        <v>2530100</v>
       </c>
       <c r="H10" s="3">
-        <v>-977200</v>
+        <v>3296100</v>
       </c>
       <c r="I10" s="3">
-        <v>3571300</v>
+        <v>3891000</v>
       </c>
       <c r="J10" s="3">
+        <v>3583000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3722700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3751300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4618800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3967100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4313700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4020000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4940900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4359400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4479800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4149500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4081100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>664800</v>
+        <v>619000</v>
       </c>
       <c r="E12" s="3">
-        <v>623500</v>
+        <v>667000</v>
       </c>
       <c r="F12" s="3">
-        <v>583700</v>
+        <v>625600</v>
       </c>
       <c r="G12" s="3">
-        <v>622400</v>
+        <v>585600</v>
       </c>
       <c r="H12" s="3">
-        <v>699000</v>
+        <v>624400</v>
       </c>
       <c r="I12" s="3">
-        <v>676100</v>
+        <v>701300</v>
       </c>
       <c r="J12" s="3">
+        <v>678300</v>
+      </c>
+      <c r="K12" s="3">
         <v>681900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>710500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>786200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>719100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>693000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>713400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>784800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>736700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>727600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>728200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>656000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1108,11 +1128,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>306600</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7964600</v>
+        <v>7095500</v>
       </c>
       <c r="E17" s="3">
-        <v>6775600</v>
+        <v>7990700</v>
       </c>
       <c r="F17" s="3">
-        <v>6330200</v>
+        <v>6797700</v>
       </c>
       <c r="G17" s="3">
-        <v>6864800</v>
+        <v>6350900</v>
       </c>
       <c r="H17" s="3">
-        <v>8253600</v>
+        <v>6887300</v>
       </c>
       <c r="I17" s="3">
-        <v>7612400</v>
+        <v>8280600</v>
       </c>
       <c r="J17" s="3">
+        <v>7637300</v>
+      </c>
+      <c r="K17" s="3">
         <v>7902700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7919000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9050700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7972400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8257600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7988000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9412900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8262800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8101200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7979200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7850000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>698300</v>
+        <v>648500</v>
       </c>
       <c r="E18" s="3">
-        <v>175800</v>
+        <v>700600</v>
       </c>
       <c r="F18" s="3">
-        <v>-162600</v>
+        <v>176400</v>
       </c>
       <c r="G18" s="3">
-        <v>301200</v>
+        <v>-163200</v>
       </c>
       <c r="H18" s="3">
-        <v>480200</v>
+        <v>302100</v>
       </c>
       <c r="I18" s="3">
-        <v>352200</v>
+        <v>481800</v>
       </c>
       <c r="J18" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K18" s="3">
         <v>395000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>388500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>940000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>634800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>890500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>696800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>714500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>727300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>870700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>649200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>711100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38600</v>
+        <v>-40000</v>
       </c>
       <c r="E20" s="3">
-        <v>35000</v>
+        <v>38700</v>
       </c>
       <c r="F20" s="3">
-        <v>98300</v>
+        <v>35100</v>
       </c>
       <c r="G20" s="3">
+        <v>98600</v>
+      </c>
+      <c r="H20" s="3">
         <v>16700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8400</v>
       </c>
-      <c r="I20" s="3">
-        <v>81100</v>
-      </c>
       <c r="J20" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K20" s="3">
         <v>75100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>57400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>111900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>80800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>87800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>68400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>45000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-64900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1301200</v>
+        <v>1076200</v>
       </c>
       <c r="E21" s="3">
-        <v>739200</v>
+        <v>1305400</v>
       </c>
       <c r="F21" s="3">
-        <v>437100</v>
+        <v>741700</v>
       </c>
       <c r="G21" s="3">
-        <v>810500</v>
+        <v>438500</v>
       </c>
       <c r="H21" s="3">
-        <v>1010500</v>
+        <v>813200</v>
       </c>
       <c r="I21" s="3">
-        <v>993300</v>
+        <v>1013800</v>
       </c>
       <c r="J21" s="3">
+        <v>996600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1006400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1011300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1564600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1223200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1557000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1324800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1413400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1407500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1483800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1245300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1216000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1900</v>
       </c>
       <c r="F22" s="3">
         <v>1900</v>
       </c>
       <c r="G22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2100</v>
       </c>
       <c r="Q22" s="3">
         <v>2100</v>
       </c>
       <c r="R22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>734500</v>
+        <v>607000</v>
       </c>
       <c r="E23" s="3">
-        <v>208900</v>
+        <v>736900</v>
       </c>
       <c r="F23" s="3">
-        <v>-66200</v>
+        <v>209600</v>
       </c>
       <c r="G23" s="3">
-        <v>316100</v>
+        <v>-66400</v>
       </c>
       <c r="H23" s="3">
-        <v>469700</v>
+        <v>317200</v>
       </c>
       <c r="I23" s="3">
-        <v>430700</v>
+        <v>471300</v>
       </c>
       <c r="J23" s="3">
+        <v>432200</v>
+      </c>
+      <c r="K23" s="3">
         <v>467800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>443100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>943600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>622900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1001000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>775300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>793700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>691900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>644300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>205000</v>
+        <v>160700</v>
       </c>
       <c r="E24" s="3">
-        <v>33400</v>
+        <v>205700</v>
       </c>
       <c r="F24" s="3">
-        <v>-19400</v>
+        <v>33500</v>
       </c>
       <c r="G24" s="3">
-        <v>95500</v>
+        <v>-19500</v>
       </c>
       <c r="H24" s="3">
-        <v>135700</v>
+        <v>95800</v>
       </c>
       <c r="I24" s="3">
-        <v>148400</v>
+        <v>136100</v>
       </c>
       <c r="J24" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K24" s="3">
         <v>127400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>107800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>228500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>159000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>262600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>234500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>260100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>191600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>250800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>180100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>201800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>529400</v>
+        <v>446300</v>
       </c>
       <c r="E26" s="3">
-        <v>175500</v>
+        <v>531200</v>
       </c>
       <c r="F26" s="3">
-        <v>-46700</v>
+        <v>176100</v>
       </c>
       <c r="G26" s="3">
-        <v>220600</v>
+        <v>-46900</v>
       </c>
       <c r="H26" s="3">
-        <v>334000</v>
+        <v>221400</v>
       </c>
       <c r="I26" s="3">
-        <v>282300</v>
+        <v>335100</v>
       </c>
       <c r="J26" s="3">
+        <v>283300</v>
+      </c>
+      <c r="K26" s="3">
         <v>340400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>335300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>715200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>463900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>738400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>540700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>540100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>602100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>649200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>511800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>442500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>490900</v>
+        <v>408500</v>
       </c>
       <c r="E27" s="3">
-        <v>152600</v>
+        <v>492500</v>
       </c>
       <c r="F27" s="3">
-        <v>-80900</v>
+        <v>153100</v>
       </c>
       <c r="G27" s="3">
-        <v>200700</v>
+        <v>-81200</v>
       </c>
       <c r="H27" s="3">
-        <v>298800</v>
+        <v>201300</v>
       </c>
       <c r="I27" s="3">
-        <v>242900</v>
+        <v>299700</v>
       </c>
       <c r="J27" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K27" s="3">
         <v>316200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>677000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>429700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>706000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>516300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>493600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>570000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>625400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>488600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>397600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38600</v>
+        <v>40000</v>
       </c>
       <c r="E32" s="3">
-        <v>-35000</v>
+        <v>-38700</v>
       </c>
       <c r="F32" s="3">
-        <v>-98300</v>
+        <v>-35100</v>
       </c>
       <c r="G32" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-16700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-81100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-75100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-57400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-111900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-80800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-68400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-45000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>64900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>490900</v>
+        <v>408500</v>
       </c>
       <c r="E33" s="3">
-        <v>152600</v>
+        <v>492500</v>
       </c>
       <c r="F33" s="3">
-        <v>-80900</v>
+        <v>153100</v>
       </c>
       <c r="G33" s="3">
-        <v>200700</v>
+        <v>-81200</v>
       </c>
       <c r="H33" s="3">
-        <v>298800</v>
+        <v>201300</v>
       </c>
       <c r="I33" s="3">
-        <v>242900</v>
+        <v>299700</v>
       </c>
       <c r="J33" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K33" s="3">
         <v>316200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>677000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>429700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>706000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>516300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>493600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>570000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>625400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>488600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>397600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>490900</v>
+        <v>408500</v>
       </c>
       <c r="E35" s="3">
-        <v>152600</v>
+        <v>492500</v>
       </c>
       <c r="F35" s="3">
-        <v>-80900</v>
+        <v>153100</v>
       </c>
       <c r="G35" s="3">
-        <v>200700</v>
+        <v>-81200</v>
       </c>
       <c r="H35" s="3">
-        <v>298800</v>
+        <v>201300</v>
       </c>
       <c r="I35" s="3">
-        <v>242900</v>
+        <v>299700</v>
       </c>
       <c r="J35" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K35" s="3">
         <v>316200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>677000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>429700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>706000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>516300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>493600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>570000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>625400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>488600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>397600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3734400</v>
+        <v>4442500</v>
       </c>
       <c r="E41" s="3">
-        <v>4582600</v>
+        <v>3746600</v>
       </c>
       <c r="F41" s="3">
-        <v>4580400</v>
+        <v>4597600</v>
       </c>
       <c r="G41" s="3">
-        <v>4029900</v>
+        <v>4595400</v>
       </c>
       <c r="H41" s="3">
-        <v>3781400</v>
+        <v>4043100</v>
       </c>
       <c r="I41" s="3">
-        <v>4106600</v>
+        <v>3793800</v>
       </c>
       <c r="J41" s="3">
+        <v>4120000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3732600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4238900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4914900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4972300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5794900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5430400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6525200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5847400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6272200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5806800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5589800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1100</v>
       </c>
-      <c r="G42" s="3">
-        <v>18100</v>
-      </c>
       <c r="H42" s="3">
+        <v>18200</v>
+      </c>
+      <c r="I42" s="3">
         <v>16200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>35900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>135200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>158500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>44700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>28400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4901800</v>
+        <v>4677000</v>
       </c>
       <c r="E43" s="3">
-        <v>4108200</v>
+        <v>4917800</v>
       </c>
       <c r="F43" s="3">
-        <v>3700800</v>
+        <v>4121700</v>
       </c>
       <c r="G43" s="3">
-        <v>4450400</v>
+        <v>3712900</v>
       </c>
       <c r="H43" s="3">
-        <v>10351100</v>
+        <v>4464900</v>
       </c>
       <c r="I43" s="3">
-        <v>4723800</v>
+        <v>5144900</v>
       </c>
       <c r="J43" s="3">
+        <v>4739300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4966600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5281900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5786300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5405300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5352100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5276900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5883900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5343000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5280700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5132400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5689700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5155300</v>
+        <v>5476400</v>
       </c>
       <c r="E44" s="3">
-        <v>5657300</v>
+        <v>5172200</v>
       </c>
       <c r="F44" s="3">
-        <v>5530200</v>
+        <v>5675800</v>
       </c>
       <c r="G44" s="3">
-        <v>5501900</v>
+        <v>5548400</v>
       </c>
       <c r="H44" s="3">
-        <v>10712700</v>
+        <v>5519900</v>
       </c>
       <c r="I44" s="3">
-        <v>5810100</v>
+        <v>5373900</v>
       </c>
       <c r="J44" s="3">
+        <v>5829100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5780500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6255100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5770500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6134800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5448400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5319900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5153100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5613800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5395400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5047900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4973700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2596400</v>
+        <v>2762100</v>
       </c>
       <c r="E45" s="3">
-        <v>2693200</v>
+        <v>2605000</v>
       </c>
       <c r="F45" s="3">
-        <v>2843900</v>
+        <v>2702000</v>
       </c>
       <c r="G45" s="3">
-        <v>2637900</v>
+        <v>2853200</v>
       </c>
       <c r="H45" s="3">
-        <v>2627000</v>
+        <v>2646500</v>
       </c>
       <c r="I45" s="3">
-        <v>2786100</v>
+        <v>2635600</v>
       </c>
       <c r="J45" s="3">
+        <v>2795300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2745100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2865600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2873000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3042600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2885200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2925900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2603200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2531500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2430800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2480200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2343100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16388500</v>
+        <v>17358700</v>
       </c>
       <c r="E46" s="3">
-        <v>17042200</v>
+        <v>16442200</v>
       </c>
       <c r="F46" s="3">
-        <v>16656500</v>
+        <v>17098000</v>
       </c>
       <c r="G46" s="3">
-        <v>16638100</v>
+        <v>16711000</v>
       </c>
       <c r="H46" s="3">
-        <v>16909000</v>
+        <v>16692600</v>
       </c>
       <c r="I46" s="3">
-        <v>17442600</v>
+        <v>16964400</v>
       </c>
       <c r="J46" s="3">
+        <v>17499700</v>
+      </c>
+      <c r="K46" s="3">
         <v>17260800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18657200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19353700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19567400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19497500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18964900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20183100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19470900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19537600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18512000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18624800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>616200</v>
+        <v>621600</v>
       </c>
       <c r="E47" s="3">
-        <v>602900</v>
+        <v>618200</v>
       </c>
       <c r="F47" s="3">
-        <v>620400</v>
+        <v>604900</v>
       </c>
       <c r="G47" s="3">
-        <v>584200</v>
+        <v>622400</v>
       </c>
       <c r="H47" s="3">
-        <v>599900</v>
+        <v>586100</v>
       </c>
       <c r="I47" s="3">
-        <v>587400</v>
+        <v>601900</v>
       </c>
       <c r="J47" s="3">
+        <v>589400</v>
+      </c>
+      <c r="K47" s="3">
         <v>560700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>573800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>642200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>173400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>214700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>320400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>316800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>308300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>263400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>259900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10488600</v>
+        <v>10539700</v>
       </c>
       <c r="E48" s="3">
-        <v>10605000</v>
+        <v>10522900</v>
       </c>
       <c r="F48" s="3">
-        <v>10706800</v>
+        <v>10639700</v>
       </c>
       <c r="G48" s="3">
-        <v>10837400</v>
+        <v>10741900</v>
       </c>
       <c r="H48" s="3">
-        <v>47040000</v>
+        <v>10872900</v>
       </c>
       <c r="I48" s="3">
-        <v>10957600</v>
+        <v>11065600</v>
       </c>
       <c r="J48" s="3">
+        <v>10993500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11118900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11706600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10299000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10199800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10478600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10407700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10621500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10795700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11125100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11051800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11253000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11304000</v>
+        <v>11362000</v>
       </c>
       <c r="E49" s="3">
-        <v>11194700</v>
+        <v>11341000</v>
       </c>
       <c r="F49" s="3">
-        <v>11181200</v>
+        <v>11231400</v>
       </c>
       <c r="G49" s="3">
-        <v>11101900</v>
+        <v>11217800</v>
       </c>
       <c r="H49" s="3">
-        <v>11418700</v>
+        <v>11138300</v>
       </c>
       <c r="I49" s="3">
-        <v>11220300</v>
+        <v>11456100</v>
       </c>
       <c r="J49" s="3">
+        <v>11257100</v>
+      </c>
+      <c r="K49" s="3">
         <v>11498200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12275800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12267600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12317100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11842700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11941600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12273600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12698200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12558900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12122200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12264500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3573300</v>
+        <v>3627100</v>
       </c>
       <c r="E52" s="3">
-        <v>3622000</v>
+        <v>3585000</v>
       </c>
       <c r="F52" s="3">
-        <v>3618800</v>
+        <v>3633800</v>
       </c>
       <c r="G52" s="3">
-        <v>3682000</v>
+        <v>3630600</v>
       </c>
       <c r="H52" s="3">
-        <v>3753600</v>
+        <v>3694000</v>
       </c>
       <c r="I52" s="3">
-        <v>3763800</v>
+        <v>3765900</v>
       </c>
       <c r="J52" s="3">
+        <v>3776100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3663200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3815800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3756900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3753700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3566300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3476100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3594000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3599300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3566200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3410900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3176700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42370600</v>
+        <v>43509200</v>
       </c>
       <c r="E54" s="3">
-        <v>43066700</v>
+        <v>42509400</v>
       </c>
       <c r="F54" s="3">
-        <v>42783600</v>
+        <v>43207800</v>
       </c>
       <c r="G54" s="3">
-        <v>42843600</v>
+        <v>42923800</v>
       </c>
       <c r="H54" s="3">
-        <v>43710800</v>
+        <v>42983900</v>
       </c>
       <c r="I54" s="3">
-        <v>43971700</v>
+        <v>43853900</v>
       </c>
       <c r="J54" s="3">
+        <v>44115700</v>
+      </c>
+      <c r="K54" s="3">
         <v>44101800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47055800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46250900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46480200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45558500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45004900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46992600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46880900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47096100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45360300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45578800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2782900</v>
+        <v>2916900</v>
       </c>
       <c r="E57" s="3">
-        <v>2605000</v>
+        <v>2792000</v>
       </c>
       <c r="F57" s="3">
-        <v>2510500</v>
+        <v>2613500</v>
       </c>
       <c r="G57" s="3">
-        <v>2727600</v>
+        <v>2518700</v>
       </c>
       <c r="H57" s="3">
-        <v>5593300</v>
+        <v>2736500</v>
       </c>
       <c r="I57" s="3">
-        <v>2890700</v>
+        <v>2805800</v>
       </c>
       <c r="J57" s="3">
+        <v>2900200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2974400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3359600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3327500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3477000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3521000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3497900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3441100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3458500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3553400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3501600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3302000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3592900</v>
+        <v>3768800</v>
       </c>
       <c r="E58" s="3">
-        <v>2086300</v>
+        <v>3604600</v>
       </c>
       <c r="F58" s="3">
-        <v>1827900</v>
+        <v>2093100</v>
       </c>
       <c r="G58" s="3">
-        <v>1764700</v>
+        <v>1833800</v>
       </c>
       <c r="H58" s="3">
-        <v>770100</v>
+        <v>1770500</v>
       </c>
       <c r="I58" s="3">
-        <v>1554300</v>
+        <v>386300</v>
       </c>
       <c r="J58" s="3">
+        <v>1559400</v>
+      </c>
+      <c r="K58" s="3">
         <v>647300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>393600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>363700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>355200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>355400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>351100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>355500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>346100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>333600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>330200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>16400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5772100</v>
+        <v>5962800</v>
       </c>
       <c r="E59" s="3">
-        <v>5435000</v>
+        <v>5791000</v>
       </c>
       <c r="F59" s="3">
-        <v>5206400</v>
+        <v>5452800</v>
       </c>
       <c r="G59" s="3">
-        <v>5251300</v>
+        <v>5223400</v>
       </c>
       <c r="H59" s="3">
-        <v>5721900</v>
+        <v>5268500</v>
       </c>
       <c r="I59" s="3">
-        <v>5429200</v>
+        <v>5740600</v>
       </c>
       <c r="J59" s="3">
+        <v>5447000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5473800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5949100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6028700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5737300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5732800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5618600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6233100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5789000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5587900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5291600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5404000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12147900</v>
+        <v>12648500</v>
       </c>
       <c r="E60" s="3">
-        <v>10126300</v>
+        <v>12187700</v>
       </c>
       <c r="F60" s="3">
-        <v>9544700</v>
+        <v>10159500</v>
       </c>
       <c r="G60" s="3">
-        <v>9743600</v>
+        <v>9576000</v>
       </c>
       <c r="H60" s="3">
-        <v>8903500</v>
+        <v>9775600</v>
       </c>
       <c r="I60" s="3">
-        <v>9874200</v>
+        <v>8932700</v>
       </c>
       <c r="J60" s="3">
+        <v>9906600</v>
+      </c>
+      <c r="K60" s="3">
         <v>9095500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9702300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9719900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9569500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9609200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9467600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10029700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9593600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9475000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9123300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8722500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44300</v>
+        <v>43700</v>
       </c>
       <c r="E61" s="3">
-        <v>3287000</v>
+        <v>44400</v>
       </c>
       <c r="F61" s="3">
-        <v>3288700</v>
+        <v>3297800</v>
       </c>
       <c r="G61" s="3">
-        <v>3270200</v>
+        <v>3299500</v>
       </c>
       <c r="H61" s="3">
-        <v>3273200</v>
+        <v>3280900</v>
       </c>
       <c r="I61" s="3">
-        <v>3328500</v>
+        <v>3284000</v>
       </c>
       <c r="J61" s="3">
+        <v>3339400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3330600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3493900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3416900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4106400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4033000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4464500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4458900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5102700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5568500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5464400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5422100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4676600</v>
+        <v>4323900</v>
       </c>
       <c r="E62" s="3">
-        <v>4876500</v>
+        <v>4692000</v>
       </c>
       <c r="F62" s="3">
-        <v>4956900</v>
+        <v>4892400</v>
       </c>
       <c r="G62" s="3">
-        <v>4906000</v>
+        <v>4973100</v>
       </c>
       <c r="H62" s="3">
-        <v>5116700</v>
+        <v>4922100</v>
       </c>
       <c r="I62" s="3">
-        <v>5017500</v>
+        <v>5133500</v>
       </c>
       <c r="J62" s="3">
+        <v>5033900</v>
+      </c>
+      <c r="K62" s="3">
         <v>5113100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5470900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4625000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4268600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4171300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4276800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4514600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4961600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5025000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4806900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4871800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18783300</v>
+        <v>18969800</v>
       </c>
       <c r="E66" s="3">
-        <v>20164800</v>
+        <v>18844900</v>
       </c>
       <c r="F66" s="3">
-        <v>19654100</v>
+        <v>20230800</v>
       </c>
       <c r="G66" s="3">
-        <v>19751800</v>
+        <v>19718500</v>
       </c>
       <c r="H66" s="3">
-        <v>19111600</v>
+        <v>19816500</v>
       </c>
       <c r="I66" s="3">
-        <v>20010800</v>
+        <v>19174200</v>
       </c>
       <c r="J66" s="3">
+        <v>20076400</v>
+      </c>
+      <c r="K66" s="3">
         <v>19314900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20507300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19558400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20069700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19855000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20209900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21042100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21635800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22008900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21257100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20892400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31865900</v>
+        <v>31994300</v>
       </c>
       <c r="E72" s="3">
-        <v>31440000</v>
+        <v>31970200</v>
       </c>
       <c r="F72" s="3">
-        <v>31670600</v>
+        <v>31543000</v>
       </c>
       <c r="G72" s="3">
-        <v>31751600</v>
+        <v>31774400</v>
       </c>
       <c r="H72" s="3">
-        <v>32267500</v>
+        <v>31855600</v>
       </c>
       <c r="I72" s="3">
-        <v>32032600</v>
+        <v>32373200</v>
       </c>
       <c r="J72" s="3">
+        <v>32137500</v>
+      </c>
+      <c r="K72" s="3">
         <v>32569200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33837500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33757700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32555000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32218900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31339500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31605600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31112000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31274100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30073500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30311300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23587300</v>
+        <v>24539400</v>
       </c>
       <c r="E76" s="3">
-        <v>22901900</v>
+        <v>23664500</v>
       </c>
       <c r="F76" s="3">
-        <v>23129500</v>
+        <v>22976900</v>
       </c>
       <c r="G76" s="3">
-        <v>23091800</v>
+        <v>23205300</v>
       </c>
       <c r="H76" s="3">
-        <v>24599100</v>
+        <v>23167500</v>
       </c>
       <c r="I76" s="3">
-        <v>23960900</v>
+        <v>24679700</v>
       </c>
       <c r="J76" s="3">
+        <v>24039400</v>
+      </c>
+      <c r="K76" s="3">
         <v>24787000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26548400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26692600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26410500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25703500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24795100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25950500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25245100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25087300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24103200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24686400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>490900</v>
+        <v>408500</v>
       </c>
       <c r="E81" s="3">
-        <v>152600</v>
+        <v>492500</v>
       </c>
       <c r="F81" s="3">
-        <v>-80900</v>
+        <v>153100</v>
       </c>
       <c r="G81" s="3">
-        <v>200700</v>
+        <v>-81200</v>
       </c>
       <c r="H81" s="3">
-        <v>298800</v>
+        <v>201300</v>
       </c>
       <c r="I81" s="3">
-        <v>242900</v>
+        <v>299700</v>
       </c>
       <c r="J81" s="3">
+        <v>243700</v>
+      </c>
+      <c r="K81" s="3">
         <v>316200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>677000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>429700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>706000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>516300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>493600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>570000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>625400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>488600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>397600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>564300</v>
+        <v>467600</v>
       </c>
       <c r="E83" s="3">
-        <v>528400</v>
+        <v>566100</v>
       </c>
       <c r="F83" s="3">
-        <v>501400</v>
+        <v>530200</v>
       </c>
       <c r="G83" s="3">
-        <v>492700</v>
+        <v>503100</v>
       </c>
       <c r="H83" s="3">
-        <v>538700</v>
+        <v>494300</v>
       </c>
       <c r="I83" s="3">
-        <v>560100</v>
+        <v>540500</v>
       </c>
       <c r="J83" s="3">
+        <v>561900</v>
+      </c>
+      <c r="K83" s="3">
         <v>536200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>565400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>619600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>598100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>554500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>547300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>611100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>611700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>582900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>551200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>569800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1280000</v>
+        <v>1187800</v>
       </c>
       <c r="E89" s="3">
-        <v>487600</v>
+        <v>1284200</v>
       </c>
       <c r="F89" s="3">
-        <v>709700</v>
+        <v>489200</v>
       </c>
       <c r="G89" s="3">
-        <v>580300</v>
+        <v>712100</v>
       </c>
       <c r="H89" s="3">
-        <v>1501800</v>
+        <v>582200</v>
       </c>
       <c r="I89" s="3">
-        <v>745100</v>
+        <v>1506700</v>
       </c>
       <c r="J89" s="3">
+        <v>747500</v>
+      </c>
+      <c r="K89" s="3">
         <v>479100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>585000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1619800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>268100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1115400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>381000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1591500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>952800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1280800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1485000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1391900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-403800</v>
+        <v>-378400</v>
       </c>
       <c r="E91" s="3">
-        <v>-355700</v>
+        <v>-405200</v>
       </c>
       <c r="F91" s="3">
-        <v>-343700</v>
+        <v>-356900</v>
       </c>
       <c r="G91" s="3">
-        <v>-405600</v>
+        <v>-344900</v>
       </c>
       <c r="H91" s="3">
-        <v>-583800</v>
+        <v>-406900</v>
       </c>
       <c r="I91" s="3">
-        <v>-431100</v>
+        <v>-585700</v>
       </c>
       <c r="J91" s="3">
+        <v>-432500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-510300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-472500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-561700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-339700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-432300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-431900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-441200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-414400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-462900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-386900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-395800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-360800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-402000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-356800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-355600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-268100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-399400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-647800</v>
-      </c>
       <c r="I94" s="3">
-        <v>-431200</v>
+        <v>-649900</v>
       </c>
       <c r="J94" s="3">
+        <v>-432600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-541700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-496200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-558500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-433900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-362000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-451300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-219800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-522000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-444400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-108400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-384400</v>
       </c>
       <c r="E96" s="3">
-        <v>-383200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-384400</v>
       </c>
       <c r="G96" s="3">
-        <v>-779600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-782100</v>
       </c>
       <c r="I96" s="3">
-        <v>-779600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-782100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-830100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-802500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-829700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-732100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-726500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1743600</v>
+        <v>-237000</v>
       </c>
       <c r="E100" s="3">
-        <v>-140600</v>
+        <v>-1749300</v>
       </c>
       <c r="F100" s="3">
-        <v>79100</v>
+        <v>-141000</v>
       </c>
       <c r="G100" s="3">
-        <v>124700</v>
+        <v>79300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1247200</v>
+        <v>125100</v>
       </c>
       <c r="I100" s="3">
-        <v>101700</v>
+        <v>-1251200</v>
       </c>
       <c r="J100" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-188200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-836100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-843700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-443200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-865300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-638400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-467100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-740200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-715300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16000</v>
+        <v>105900</v>
       </c>
       <c r="E101" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F101" s="3">
         <v>10800</v>
       </c>
-      <c r="F101" s="3">
-        <v>29800</v>
-      </c>
       <c r="G101" s="3">
-        <v>-57100</v>
+        <v>29900</v>
       </c>
       <c r="H101" s="3">
-        <v>68000</v>
+        <v>-57300</v>
       </c>
       <c r="I101" s="3">
-        <v>-41700</v>
+        <v>68200</v>
       </c>
       <c r="J101" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-57000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-70600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>59500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-159100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>60200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>62400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-83500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>280800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-848200</v>
+        <v>695900</v>
       </c>
       <c r="E102" s="3">
+        <v>-851000</v>
+      </c>
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
-        <v>550600</v>
-      </c>
       <c r="G102" s="3">
-        <v>248500</v>
+        <v>552400</v>
       </c>
       <c r="H102" s="3">
-        <v>-325200</v>
+        <v>249300</v>
       </c>
       <c r="I102" s="3">
-        <v>373900</v>
+        <v>-326300</v>
       </c>
       <c r="J102" s="3">
+        <v>375200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-307800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-764500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-137700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-950000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>334400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>677800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-424700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>354100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>217000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>849000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7744000</v>
+        <v>8034400</v>
       </c>
       <c r="E8" s="3">
-        <v>8691300</v>
+        <v>7676600</v>
       </c>
       <c r="F8" s="3">
-        <v>6974100</v>
+        <v>8615600</v>
       </c>
       <c r="G8" s="3">
-        <v>6187800</v>
+        <v>6913400</v>
       </c>
       <c r="H8" s="3">
-        <v>7189400</v>
+        <v>6133900</v>
       </c>
       <c r="I8" s="3">
-        <v>8762400</v>
+        <v>7126900</v>
       </c>
       <c r="J8" s="3">
+        <v>8686100</v>
+      </c>
+      <c r="K8" s="3">
         <v>7990700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8297800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8307500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9990700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8607200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9148100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8684800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10127400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8990200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8972000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8628400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8561100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4211700</v>
+        <v>4229900</v>
       </c>
       <c r="E9" s="3">
-        <v>4883800</v>
+        <v>4175000</v>
       </c>
       <c r="F9" s="3">
-        <v>3963700</v>
+        <v>4841200</v>
       </c>
       <c r="G9" s="3">
-        <v>3657600</v>
+        <v>3929200</v>
       </c>
       <c r="H9" s="3">
-        <v>3893300</v>
+        <v>3625800</v>
       </c>
       <c r="I9" s="3">
-        <v>4871400</v>
+        <v>3859400</v>
       </c>
       <c r="J9" s="3">
+        <v>4829000</v>
+      </c>
+      <c r="K9" s="3">
         <v>4407700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4575100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4556200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5372000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4640000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4834400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4664800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5186500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4630800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4492200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4478900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4479900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3532300</v>
+        <v>3804500</v>
       </c>
       <c r="E10" s="3">
-        <v>3807500</v>
+        <v>3501500</v>
       </c>
       <c r="F10" s="3">
-        <v>3010400</v>
+        <v>3774400</v>
       </c>
       <c r="G10" s="3">
-        <v>2530100</v>
+        <v>2984200</v>
       </c>
       <c r="H10" s="3">
-        <v>3296100</v>
+        <v>2508100</v>
       </c>
       <c r="I10" s="3">
-        <v>3891000</v>
+        <v>3267400</v>
       </c>
       <c r="J10" s="3">
+        <v>3857100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3583000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3722700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3751300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4618800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3967100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4313700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4020000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4940900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4359400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4479800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4149500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4081100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>646400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>613600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>661200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>620100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>580500</v>
+      </c>
+      <c r="I12" s="3">
         <v>619000</v>
       </c>
-      <c r="E12" s="3">
-        <v>667000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>625600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>585600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>624400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>701300</v>
-      </c>
       <c r="J12" s="3">
+        <v>695200</v>
+      </c>
+      <c r="K12" s="3">
         <v>678300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>681900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>710500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>786200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>719100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>693000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>713400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>784800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>736700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>727600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>728200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>656000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1131,11 +1151,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>306600</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7095500</v>
+        <v>7330500</v>
       </c>
       <c r="E17" s="3">
-        <v>7990700</v>
+        <v>7033700</v>
       </c>
       <c r="F17" s="3">
-        <v>6797700</v>
+        <v>7921200</v>
       </c>
       <c r="G17" s="3">
-        <v>6350900</v>
+        <v>6738600</v>
       </c>
       <c r="H17" s="3">
-        <v>6887300</v>
+        <v>6295600</v>
       </c>
       <c r="I17" s="3">
-        <v>8280600</v>
+        <v>6827400</v>
       </c>
       <c r="J17" s="3">
+        <v>8208500</v>
+      </c>
+      <c r="K17" s="3">
         <v>7637300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7902700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7919000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9050700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7972400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8257600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7988000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9412900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8262800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8101200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7979200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7850000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>648500</v>
+        <v>703900</v>
       </c>
       <c r="E18" s="3">
-        <v>700600</v>
+        <v>642800</v>
       </c>
       <c r="F18" s="3">
-        <v>176400</v>
+        <v>694500</v>
       </c>
       <c r="G18" s="3">
-        <v>-163200</v>
+        <v>174800</v>
       </c>
       <c r="H18" s="3">
-        <v>302100</v>
+        <v>-161700</v>
       </c>
       <c r="I18" s="3">
-        <v>481800</v>
+        <v>299500</v>
       </c>
       <c r="J18" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K18" s="3">
         <v>353300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>395000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>388500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>940000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>634800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>890500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>696800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>714500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>727300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>870700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>649200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>711100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-40000</v>
+        <v>79100</v>
       </c>
       <c r="E20" s="3">
-        <v>38700</v>
+        <v>-39600</v>
       </c>
       <c r="F20" s="3">
-        <v>35100</v>
+        <v>38400</v>
       </c>
       <c r="G20" s="3">
-        <v>98600</v>
+        <v>34800</v>
       </c>
       <c r="H20" s="3">
-        <v>16700</v>
+        <v>97800</v>
       </c>
       <c r="I20" s="3">
-        <v>-8400</v>
+        <v>16600</v>
       </c>
       <c r="J20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K20" s="3">
         <v>81400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>75100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>57400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>111900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>80800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>87800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>68400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>30200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>45000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-64900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1076200</v>
+        <v>1294000</v>
       </c>
       <c r="E21" s="3">
-        <v>1305400</v>
+        <v>1066800</v>
       </c>
       <c r="F21" s="3">
-        <v>741700</v>
+        <v>1294100</v>
       </c>
       <c r="G21" s="3">
-        <v>438500</v>
+        <v>735200</v>
       </c>
       <c r="H21" s="3">
-        <v>813200</v>
+        <v>434700</v>
       </c>
       <c r="I21" s="3">
-        <v>1013800</v>
+        <v>806100</v>
       </c>
       <c r="J21" s="3">
+        <v>1005000</v>
+      </c>
+      <c r="K21" s="3">
         <v>996600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1006400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1011300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1564600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1223200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1557000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1324800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1413400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1407500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1483800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1245300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1216000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1900</v>
       </c>
       <c r="G22" s="3">
         <v>1900</v>
       </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2100</v>
       </c>
       <c r="R22" s="3">
         <v>2100</v>
       </c>
       <c r="S22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T22" s="3">
         <v>900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>607000</v>
+        <v>781400</v>
       </c>
       <c r="E23" s="3">
-        <v>736900</v>
+        <v>601700</v>
       </c>
       <c r="F23" s="3">
-        <v>209600</v>
+        <v>730500</v>
       </c>
       <c r="G23" s="3">
-        <v>-66400</v>
+        <v>207800</v>
       </c>
       <c r="H23" s="3">
-        <v>317200</v>
+        <v>-65800</v>
       </c>
       <c r="I23" s="3">
-        <v>471300</v>
+        <v>314400</v>
       </c>
       <c r="J23" s="3">
+        <v>467200</v>
+      </c>
+      <c r="K23" s="3">
         <v>432200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>467800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>443100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>943600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>622900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1001000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>775300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>793700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>691900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>644300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160700</v>
+        <v>193600</v>
       </c>
       <c r="E24" s="3">
-        <v>205700</v>
+        <v>159300</v>
       </c>
       <c r="F24" s="3">
-        <v>33500</v>
+        <v>203900</v>
       </c>
       <c r="G24" s="3">
-        <v>-19500</v>
+        <v>33200</v>
       </c>
       <c r="H24" s="3">
-        <v>95800</v>
+        <v>-19300</v>
       </c>
       <c r="I24" s="3">
-        <v>136100</v>
+        <v>95000</v>
       </c>
       <c r="J24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="K24" s="3">
         <v>148900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>107800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>228500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>159000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>262600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>234500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>260100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>191600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>250800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>180100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>201800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>446300</v>
+        <v>587800</v>
       </c>
       <c r="E26" s="3">
-        <v>531200</v>
+        <v>442400</v>
       </c>
       <c r="F26" s="3">
-        <v>176100</v>
+        <v>526500</v>
       </c>
       <c r="G26" s="3">
-        <v>-46900</v>
+        <v>174500</v>
       </c>
       <c r="H26" s="3">
-        <v>221400</v>
+        <v>-46500</v>
       </c>
       <c r="I26" s="3">
-        <v>335100</v>
+        <v>219400</v>
       </c>
       <c r="J26" s="3">
+        <v>332200</v>
+      </c>
+      <c r="K26" s="3">
         <v>283300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>340400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>335300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>715200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>463900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>738400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>540700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>540100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>602100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>649200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>511800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>442500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>408500</v>
+        <v>557100</v>
       </c>
       <c r="E27" s="3">
-        <v>492500</v>
+        <v>405000</v>
       </c>
       <c r="F27" s="3">
-        <v>153100</v>
+        <v>488200</v>
       </c>
       <c r="G27" s="3">
-        <v>-81200</v>
+        <v>151800</v>
       </c>
       <c r="H27" s="3">
-        <v>201300</v>
+        <v>-80500</v>
       </c>
       <c r="I27" s="3">
-        <v>299700</v>
+        <v>199600</v>
       </c>
       <c r="J27" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K27" s="3">
         <v>243700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>316200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>677000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>429700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>706000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>516300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>493600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>570000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>625400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>488600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>397600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>40000</v>
+        <v>-79100</v>
       </c>
       <c r="E32" s="3">
-        <v>-38700</v>
+        <v>39600</v>
       </c>
       <c r="F32" s="3">
-        <v>-35100</v>
+        <v>-38400</v>
       </c>
       <c r="G32" s="3">
-        <v>-98600</v>
+        <v>-34800</v>
       </c>
       <c r="H32" s="3">
-        <v>-16700</v>
+        <v>-97800</v>
       </c>
       <c r="I32" s="3">
-        <v>8400</v>
+        <v>-16600</v>
       </c>
       <c r="J32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-81400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-75100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-57400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-111900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-80800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-87800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-68400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-30200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-45000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>64900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>408500</v>
+        <v>557100</v>
       </c>
       <c r="E33" s="3">
-        <v>492500</v>
+        <v>405000</v>
       </c>
       <c r="F33" s="3">
-        <v>153100</v>
+        <v>488200</v>
       </c>
       <c r="G33" s="3">
-        <v>-81200</v>
+        <v>151800</v>
       </c>
       <c r="H33" s="3">
-        <v>201300</v>
+        <v>-80500</v>
       </c>
       <c r="I33" s="3">
-        <v>299700</v>
+        <v>199600</v>
       </c>
       <c r="J33" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K33" s="3">
         <v>243700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>316200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>677000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>429700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>706000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>516300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>493600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>570000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>625400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>488600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>397600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>408500</v>
+        <v>557100</v>
       </c>
       <c r="E35" s="3">
-        <v>492500</v>
+        <v>405000</v>
       </c>
       <c r="F35" s="3">
-        <v>153100</v>
+        <v>488200</v>
       </c>
       <c r="G35" s="3">
-        <v>-81200</v>
+        <v>151800</v>
       </c>
       <c r="H35" s="3">
-        <v>201300</v>
+        <v>-80500</v>
       </c>
       <c r="I35" s="3">
-        <v>299700</v>
+        <v>199600</v>
       </c>
       <c r="J35" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K35" s="3">
         <v>243700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>316200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>677000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>429700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>706000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>516300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>493600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>570000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>625400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>488600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>397600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4442500</v>
+        <v>4769700</v>
       </c>
       <c r="E41" s="3">
-        <v>3746600</v>
+        <v>4403800</v>
       </c>
       <c r="F41" s="3">
-        <v>4597600</v>
+        <v>3714000</v>
       </c>
       <c r="G41" s="3">
-        <v>4595400</v>
+        <v>4557600</v>
       </c>
       <c r="H41" s="3">
-        <v>4043100</v>
+        <v>4555400</v>
       </c>
       <c r="I41" s="3">
-        <v>3793800</v>
+        <v>4007900</v>
       </c>
       <c r="J41" s="3">
+        <v>3760700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4120000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3732600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4238900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4914900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4972300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5794900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5430400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6525200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5847400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6272200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5806800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5589800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3">
-        <v>700</v>
-      </c>
       <c r="F42" s="3">
+        <v>600</v>
+      </c>
+      <c r="G42" s="3">
         <v>800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1100</v>
       </c>
-      <c r="H42" s="3">
-        <v>18200</v>
-      </c>
       <c r="I42" s="3">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="J42" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K42" s="3">
         <v>16000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>135200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>158500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>44700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>28400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4677000</v>
+        <v>4379900</v>
       </c>
       <c r="E43" s="3">
-        <v>4917800</v>
+        <v>4636300</v>
       </c>
       <c r="F43" s="3">
-        <v>4121700</v>
+        <v>4875000</v>
       </c>
       <c r="G43" s="3">
-        <v>3712900</v>
+        <v>4085800</v>
       </c>
       <c r="H43" s="3">
-        <v>4464900</v>
+        <v>3680600</v>
       </c>
       <c r="I43" s="3">
-        <v>5144900</v>
+        <v>4426100</v>
       </c>
       <c r="J43" s="3">
+        <v>5100100</v>
+      </c>
+      <c r="K43" s="3">
         <v>4739300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4966600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5281900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5786300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5405300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5352100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5276900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5883900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5343000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5280700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5132400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5689700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5476400</v>
+        <v>5366900</v>
       </c>
       <c r="E44" s="3">
-        <v>5172200</v>
+        <v>5428700</v>
       </c>
       <c r="F44" s="3">
-        <v>5675800</v>
+        <v>5127200</v>
       </c>
       <c r="G44" s="3">
-        <v>5548400</v>
+        <v>5626400</v>
       </c>
       <c r="H44" s="3">
-        <v>5519900</v>
+        <v>5500100</v>
       </c>
       <c r="I44" s="3">
-        <v>5373900</v>
+        <v>5471800</v>
       </c>
       <c r="J44" s="3">
+        <v>5327100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5829100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5780500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6255100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5770500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6134800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5448400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5319900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5153100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5613800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5395400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5047900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4973700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2762100</v>
+        <v>2820900</v>
       </c>
       <c r="E45" s="3">
-        <v>2605000</v>
+        <v>2738000</v>
       </c>
       <c r="F45" s="3">
-        <v>2702000</v>
+        <v>2582300</v>
       </c>
       <c r="G45" s="3">
-        <v>2853200</v>
+        <v>2678500</v>
       </c>
       <c r="H45" s="3">
-        <v>2646500</v>
+        <v>2828400</v>
       </c>
       <c r="I45" s="3">
-        <v>2635600</v>
+        <v>2623500</v>
       </c>
       <c r="J45" s="3">
+        <v>2612700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2795300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2745100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2865600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2873000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3042600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2885200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2925900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2603200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2531500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2430800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2480200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2343100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17358700</v>
+        <v>17338300</v>
       </c>
       <c r="E46" s="3">
-        <v>16442200</v>
+        <v>17207600</v>
       </c>
       <c r="F46" s="3">
-        <v>17098000</v>
+        <v>16299100</v>
       </c>
       <c r="G46" s="3">
-        <v>16711000</v>
+        <v>16949100</v>
       </c>
       <c r="H46" s="3">
-        <v>16692600</v>
+        <v>16565600</v>
       </c>
       <c r="I46" s="3">
-        <v>16964400</v>
+        <v>16547300</v>
       </c>
       <c r="J46" s="3">
+        <v>16816700</v>
+      </c>
+      <c r="K46" s="3">
         <v>17499700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17260800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18657200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19353700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19567400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19497500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18964900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20183100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19470900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19537600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18512000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18624800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>621600</v>
+        <v>631400</v>
       </c>
       <c r="E47" s="3">
-        <v>618200</v>
+        <v>616200</v>
       </c>
       <c r="F47" s="3">
-        <v>604900</v>
+        <v>612800</v>
       </c>
       <c r="G47" s="3">
-        <v>622400</v>
+        <v>599600</v>
       </c>
       <c r="H47" s="3">
-        <v>586100</v>
+        <v>617000</v>
       </c>
       <c r="I47" s="3">
-        <v>601900</v>
+        <v>581000</v>
       </c>
       <c r="J47" s="3">
+        <v>596700</v>
+      </c>
+      <c r="K47" s="3">
         <v>589400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>560700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>573800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>642200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>173400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>214700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>320400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>316800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>308300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>263400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>259900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10539700</v>
+        <v>10370600</v>
       </c>
       <c r="E48" s="3">
-        <v>10522900</v>
+        <v>10448000</v>
       </c>
       <c r="F48" s="3">
-        <v>10639700</v>
+        <v>10431300</v>
       </c>
       <c r="G48" s="3">
-        <v>10741900</v>
+        <v>10547100</v>
       </c>
       <c r="H48" s="3">
-        <v>10872900</v>
+        <v>10648300</v>
       </c>
       <c r="I48" s="3">
-        <v>11065600</v>
+        <v>10778200</v>
       </c>
       <c r="J48" s="3">
+        <v>10969300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10993500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11118900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11706600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10299000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10199800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10478600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10407700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10621500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10795700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11125100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11051800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11253000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11362000</v>
+        <v>11252800</v>
       </c>
       <c r="E49" s="3">
-        <v>11341000</v>
+        <v>11263100</v>
       </c>
       <c r="F49" s="3">
-        <v>11231400</v>
+        <v>11242300</v>
       </c>
       <c r="G49" s="3">
-        <v>11217800</v>
+        <v>11133600</v>
       </c>
       <c r="H49" s="3">
-        <v>11138300</v>
+        <v>11120200</v>
       </c>
       <c r="I49" s="3">
-        <v>11456100</v>
+        <v>11041300</v>
       </c>
       <c r="J49" s="3">
+        <v>11356400</v>
+      </c>
+      <c r="K49" s="3">
         <v>11257100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11498200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12275800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12267600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12317100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11842700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11941600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12273600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12698200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12558900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12122200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12264500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3627100</v>
+        <v>3654300</v>
       </c>
       <c r="E52" s="3">
-        <v>3585000</v>
+        <v>3595600</v>
       </c>
       <c r="F52" s="3">
-        <v>3633800</v>
+        <v>3553800</v>
       </c>
       <c r="G52" s="3">
-        <v>3630600</v>
+        <v>3602200</v>
       </c>
       <c r="H52" s="3">
-        <v>3694000</v>
+        <v>3599000</v>
       </c>
       <c r="I52" s="3">
-        <v>3765900</v>
+        <v>3661900</v>
       </c>
       <c r="J52" s="3">
+        <v>3733200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3776100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3663200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3815800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3756900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3753700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3566300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3476100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3594000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3599300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3566200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3410900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3176700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43509200</v>
+        <v>43247500</v>
       </c>
       <c r="E54" s="3">
-        <v>42509400</v>
+        <v>43130500</v>
       </c>
       <c r="F54" s="3">
-        <v>43207800</v>
+        <v>42139300</v>
       </c>
       <c r="G54" s="3">
-        <v>42923800</v>
+        <v>42831600</v>
       </c>
       <c r="H54" s="3">
-        <v>42983900</v>
+        <v>42550100</v>
       </c>
       <c r="I54" s="3">
-        <v>43853900</v>
+        <v>42609800</v>
       </c>
       <c r="J54" s="3">
+        <v>43472200</v>
+      </c>
+      <c r="K54" s="3">
         <v>44115700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44101800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>47055800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46250900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46480200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45558500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45004900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46992600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46880900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>47096100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45360300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45578800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2916900</v>
+        <v>2843600</v>
       </c>
       <c r="E57" s="3">
-        <v>2792000</v>
+        <v>2891500</v>
       </c>
       <c r="F57" s="3">
-        <v>2613500</v>
+        <v>2767700</v>
       </c>
       <c r="G57" s="3">
-        <v>2518700</v>
+        <v>2590800</v>
       </c>
       <c r="H57" s="3">
-        <v>2736500</v>
+        <v>2496800</v>
       </c>
       <c r="I57" s="3">
-        <v>2805800</v>
+        <v>2712700</v>
       </c>
       <c r="J57" s="3">
+        <v>2781400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2900200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2974400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3359600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3327500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3477000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3521000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3497900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3441100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3458500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3553400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3501600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3302000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3768800</v>
+        <v>3149300</v>
       </c>
       <c r="E58" s="3">
-        <v>3604600</v>
+        <v>3736000</v>
       </c>
       <c r="F58" s="3">
-        <v>2093100</v>
+        <v>3573300</v>
       </c>
       <c r="G58" s="3">
-        <v>1833800</v>
+        <v>2074900</v>
       </c>
       <c r="H58" s="3">
-        <v>1770500</v>
+        <v>1817900</v>
       </c>
       <c r="I58" s="3">
-        <v>386300</v>
+        <v>1755100</v>
       </c>
       <c r="J58" s="3">
+        <v>382900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1559400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>647300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>393600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>363700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>355200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>355400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>351100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>355500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>346100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>333600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>330200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>16400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5962800</v>
+        <v>6052600</v>
       </c>
       <c r="E59" s="3">
-        <v>5791000</v>
+        <v>5910900</v>
       </c>
       <c r="F59" s="3">
-        <v>5452800</v>
+        <v>5740600</v>
       </c>
       <c r="G59" s="3">
-        <v>5223400</v>
+        <v>5405300</v>
       </c>
       <c r="H59" s="3">
-        <v>5268500</v>
+        <v>5178000</v>
       </c>
       <c r="I59" s="3">
-        <v>5740600</v>
+        <v>5222600</v>
       </c>
       <c r="J59" s="3">
+        <v>5690600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5447000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5473800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5949100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6028700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5737300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5732800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5618600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6233100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5789000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5587900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5291600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5404000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12648500</v>
+        <v>12045500</v>
       </c>
       <c r="E60" s="3">
-        <v>12187700</v>
+        <v>12538400</v>
       </c>
       <c r="F60" s="3">
-        <v>10159500</v>
+        <v>12081600</v>
       </c>
       <c r="G60" s="3">
-        <v>9576000</v>
+        <v>10071000</v>
       </c>
       <c r="H60" s="3">
-        <v>9775600</v>
+        <v>9492600</v>
       </c>
       <c r="I60" s="3">
-        <v>8932700</v>
+        <v>9690500</v>
       </c>
       <c r="J60" s="3">
+        <v>8854900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9906600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9095500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9702300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9719900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9569500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9609200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9467600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10029700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9593600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9475000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9123300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8722500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43700</v>
+        <v>51700</v>
       </c>
       <c r="E61" s="3">
-        <v>44400</v>
+        <v>43400</v>
       </c>
       <c r="F61" s="3">
-        <v>3297800</v>
+        <v>44000</v>
       </c>
       <c r="G61" s="3">
-        <v>3299500</v>
+        <v>3269100</v>
       </c>
       <c r="H61" s="3">
-        <v>3280900</v>
+        <v>3270700</v>
       </c>
       <c r="I61" s="3">
-        <v>3284000</v>
+        <v>3252400</v>
       </c>
       <c r="J61" s="3">
+        <v>3255400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3339400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3330600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3493900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3416900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4106400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4033000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4464500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4458900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5102700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5568500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5464400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5422100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4323900</v>
+        <v>4172500</v>
       </c>
       <c r="E62" s="3">
-        <v>4692000</v>
+        <v>4286300</v>
       </c>
       <c r="F62" s="3">
-        <v>4892400</v>
+        <v>4651100</v>
       </c>
       <c r="G62" s="3">
-        <v>4973100</v>
+        <v>4849800</v>
       </c>
       <c r="H62" s="3">
-        <v>4922100</v>
+        <v>4929800</v>
       </c>
       <c r="I62" s="3">
-        <v>5133500</v>
+        <v>4879200</v>
       </c>
       <c r="J62" s="3">
+        <v>5088800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5033900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5113100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5470900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4625000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4268600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4171300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4276800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4514600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4961600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5025000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4806900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4871800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18969800</v>
+        <v>18236700</v>
       </c>
       <c r="E66" s="3">
-        <v>18844900</v>
+        <v>18804700</v>
       </c>
       <c r="F66" s="3">
-        <v>20230800</v>
+        <v>18680800</v>
       </c>
       <c r="G66" s="3">
-        <v>19718500</v>
+        <v>20054700</v>
       </c>
       <c r="H66" s="3">
-        <v>19816500</v>
+        <v>19546800</v>
       </c>
       <c r="I66" s="3">
-        <v>19174200</v>
+        <v>19644000</v>
       </c>
       <c r="J66" s="3">
+        <v>19007300</v>
+      </c>
+      <c r="K66" s="3">
         <v>20076400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19314900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20507300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19558400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20069700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19855000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20209900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21042100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21635800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22008900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21257100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20892400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31994300</v>
+        <v>32272800</v>
       </c>
       <c r="E72" s="3">
-        <v>31970200</v>
+        <v>31715800</v>
       </c>
       <c r="F72" s="3">
-        <v>31543000</v>
+        <v>31691900</v>
       </c>
       <c r="G72" s="3">
-        <v>31774400</v>
+        <v>31268400</v>
       </c>
       <c r="H72" s="3">
-        <v>31855600</v>
+        <v>31497800</v>
       </c>
       <c r="I72" s="3">
-        <v>32373200</v>
+        <v>31578300</v>
       </c>
       <c r="J72" s="3">
+        <v>32091400</v>
+      </c>
+      <c r="K72" s="3">
         <v>32137500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32569200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33837500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33757700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32555000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32218900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31339500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31605600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31112000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31274100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30073500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>30311300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24539400</v>
+        <v>25010800</v>
       </c>
       <c r="E76" s="3">
-        <v>23664500</v>
+        <v>24325800</v>
       </c>
       <c r="F76" s="3">
-        <v>22976900</v>
+        <v>23458500</v>
       </c>
       <c r="G76" s="3">
-        <v>23205300</v>
+        <v>22776900</v>
       </c>
       <c r="H76" s="3">
-        <v>23167500</v>
+        <v>23003300</v>
       </c>
       <c r="I76" s="3">
-        <v>24679700</v>
+        <v>22965800</v>
       </c>
       <c r="J76" s="3">
+        <v>24464900</v>
+      </c>
+      <c r="K76" s="3">
         <v>24039400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24787000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26548400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26692600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26410500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25703500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24795100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25950500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25245100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25087300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24103200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24686400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>408500</v>
+        <v>557100</v>
       </c>
       <c r="E81" s="3">
-        <v>492500</v>
+        <v>405000</v>
       </c>
       <c r="F81" s="3">
-        <v>153100</v>
+        <v>488200</v>
       </c>
       <c r="G81" s="3">
-        <v>-81200</v>
+        <v>151800</v>
       </c>
       <c r="H81" s="3">
-        <v>201300</v>
+        <v>-80500</v>
       </c>
       <c r="I81" s="3">
-        <v>299700</v>
+        <v>199600</v>
       </c>
       <c r="J81" s="3">
+        <v>297100</v>
+      </c>
+      <c r="K81" s="3">
         <v>243700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>316200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>677000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>429700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>706000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>516300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>493600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>570000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>625400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>488600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>397600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>467600</v>
+        <v>511000</v>
       </c>
       <c r="E83" s="3">
-        <v>566100</v>
+        <v>463600</v>
       </c>
       <c r="F83" s="3">
-        <v>530200</v>
+        <v>561200</v>
       </c>
       <c r="G83" s="3">
-        <v>503100</v>
+        <v>525600</v>
       </c>
       <c r="H83" s="3">
-        <v>494300</v>
+        <v>498700</v>
       </c>
       <c r="I83" s="3">
-        <v>540500</v>
+        <v>490000</v>
       </c>
       <c r="J83" s="3">
+        <v>535800</v>
+      </c>
+      <c r="K83" s="3">
         <v>561900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>536200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>565400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>619600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>598100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>554500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>547300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>611100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>611700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>582900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>551200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>569800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1187800</v>
+        <v>1306000</v>
       </c>
       <c r="E89" s="3">
-        <v>1284200</v>
+        <v>1177400</v>
       </c>
       <c r="F89" s="3">
-        <v>489200</v>
+        <v>1273000</v>
       </c>
       <c r="G89" s="3">
-        <v>712100</v>
+        <v>485000</v>
       </c>
       <c r="H89" s="3">
-        <v>582200</v>
+        <v>705900</v>
       </c>
       <c r="I89" s="3">
-        <v>1506700</v>
+        <v>577100</v>
       </c>
       <c r="J89" s="3">
+        <v>1493600</v>
+      </c>
+      <c r="K89" s="3">
         <v>747500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>479100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>585000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1619800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>268100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1115400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>381000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1591500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>952800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1280800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1485000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1391900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-378400</v>
+        <v>-371400</v>
       </c>
       <c r="E91" s="3">
-        <v>-405200</v>
+        <v>-375100</v>
       </c>
       <c r="F91" s="3">
-        <v>-356900</v>
+        <v>-401600</v>
       </c>
       <c r="G91" s="3">
-        <v>-344900</v>
+        <v>-353800</v>
       </c>
       <c r="H91" s="3">
-        <v>-406900</v>
+        <v>-341900</v>
       </c>
       <c r="I91" s="3">
-        <v>-585700</v>
+        <v>-403300</v>
       </c>
       <c r="J91" s="3">
+        <v>-580600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-432500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-510300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-472500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-561700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-339700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-432300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-431900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-441200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-414400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-462900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-386900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-395800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-360800</v>
+        <v>-374700</v>
       </c>
       <c r="E94" s="3">
-        <v>-402000</v>
+        <v>-357700</v>
       </c>
       <c r="F94" s="3">
-        <v>-356800</v>
+        <v>-398500</v>
       </c>
       <c r="G94" s="3">
-        <v>-269000</v>
+        <v>-353700</v>
       </c>
       <c r="H94" s="3">
-        <v>-400700</v>
+        <v>-266600</v>
       </c>
       <c r="I94" s="3">
-        <v>-649900</v>
+        <v>-397300</v>
       </c>
       <c r="J94" s="3">
+        <v>-644300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-432600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-541700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-496200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-558500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-433900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-362000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-451300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-297000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-219800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-522000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-444400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-108400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-384400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-381100</v>
       </c>
       <c r="F96" s="3">
-        <v>-384400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-381100</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-775300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-782100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-782100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-830100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-802500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-829700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-732100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-726500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-237000</v>
+        <v>-582400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1749300</v>
+        <v>-234900</v>
       </c>
       <c r="F100" s="3">
-        <v>-141000</v>
+        <v>-1734100</v>
       </c>
       <c r="G100" s="3">
-        <v>79300</v>
+        <v>-139800</v>
       </c>
       <c r="H100" s="3">
-        <v>125100</v>
+        <v>78600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1251200</v>
+        <v>124000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1240300</v>
+      </c>
+      <c r="K100" s="3">
         <v>102100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-188200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-836100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-843700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-443200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-865300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-638400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-467100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-740200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-715300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>105900</v>
+        <v>16900</v>
       </c>
       <c r="E101" s="3">
-        <v>16100</v>
+        <v>105000</v>
       </c>
       <c r="F101" s="3">
-        <v>10800</v>
+        <v>15900</v>
       </c>
       <c r="G101" s="3">
-        <v>29900</v>
+        <v>10700</v>
       </c>
       <c r="H101" s="3">
-        <v>-57300</v>
+        <v>29700</v>
       </c>
       <c r="I101" s="3">
-        <v>68200</v>
+        <v>-56800</v>
       </c>
       <c r="J101" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-41800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-57000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-70600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>59500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-159100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>21700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>60200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>62400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-83500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>280800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>695900</v>
+        <v>365900</v>
       </c>
       <c r="E102" s="3">
-        <v>-851000</v>
+        <v>689800</v>
       </c>
       <c r="F102" s="3">
+        <v>-843600</v>
+      </c>
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
-        <v>552400</v>
-      </c>
       <c r="H102" s="3">
-        <v>249300</v>
+        <v>547500</v>
       </c>
       <c r="I102" s="3">
-        <v>-326300</v>
+        <v>247100</v>
       </c>
       <c r="J102" s="3">
+        <v>-323400</v>
+      </c>
+      <c r="K102" s="3">
         <v>375200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-307800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-764500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-137700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-950000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>334400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>677800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-424700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>354100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>217000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>849000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8034400</v>
+        <v>7341600</v>
       </c>
       <c r="E8" s="3">
-        <v>7676600</v>
+        <v>7769800</v>
       </c>
       <c r="F8" s="3">
-        <v>8615600</v>
+        <v>7423800</v>
       </c>
       <c r="G8" s="3">
-        <v>6913400</v>
+        <v>8331900</v>
       </c>
       <c r="H8" s="3">
-        <v>6133900</v>
+        <v>6685700</v>
       </c>
       <c r="I8" s="3">
-        <v>7126900</v>
+        <v>5931900</v>
       </c>
       <c r="J8" s="3">
+        <v>6892200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8686100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7990700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8297800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8307500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9990700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8607200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9148100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8684800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10127400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8990200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8972000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8628400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8561100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4229900</v>
+        <v>3923700</v>
       </c>
       <c r="E9" s="3">
-        <v>4175000</v>
+        <v>4090600</v>
       </c>
       <c r="F9" s="3">
-        <v>4841200</v>
+        <v>4037600</v>
       </c>
       <c r="G9" s="3">
-        <v>3929200</v>
+        <v>4681800</v>
       </c>
       <c r="H9" s="3">
-        <v>3625800</v>
+        <v>3799800</v>
       </c>
       <c r="I9" s="3">
-        <v>3859400</v>
+        <v>3506400</v>
       </c>
       <c r="J9" s="3">
+        <v>3732300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4829000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4407700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4575100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4556200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5372000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4640000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4834400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4664800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5186500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4630800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4492200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4478900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4479900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3804500</v>
+        <v>3417900</v>
       </c>
       <c r="E10" s="3">
-        <v>3501500</v>
+        <v>3679300</v>
       </c>
       <c r="F10" s="3">
-        <v>3774400</v>
+        <v>3386200</v>
       </c>
       <c r="G10" s="3">
-        <v>2984200</v>
+        <v>3650100</v>
       </c>
       <c r="H10" s="3">
-        <v>2508100</v>
+        <v>2885900</v>
       </c>
       <c r="I10" s="3">
-        <v>3267400</v>
+        <v>2425500</v>
       </c>
       <c r="J10" s="3">
+        <v>3159800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3857100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3583000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3722700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3751300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4618800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3967100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4313700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4020000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4940900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4359400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4479800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4149500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4081100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>646400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>613600</v>
+        <v>640500</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>661200</v>
+        <v>593400</v>
       </c>
       <c r="G12" s="3">
-        <v>620100</v>
+        <v>639400</v>
       </c>
       <c r="H12" s="3">
-        <v>580500</v>
+        <v>599700</v>
       </c>
       <c r="I12" s="3">
-        <v>619000</v>
+        <v>561400</v>
       </c>
       <c r="J12" s="3">
+        <v>598600</v>
+      </c>
+      <c r="K12" s="3">
         <v>695200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>678300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>681900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>710500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>786200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>719100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>693000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>713400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>784800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>736700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>727600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>728200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>656000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1154,11 +1174,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>306600</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7330500</v>
+        <v>6824200</v>
       </c>
       <c r="E17" s="3">
-        <v>7033700</v>
+        <v>6464000</v>
       </c>
       <c r="F17" s="3">
-        <v>7921200</v>
+        <v>6802100</v>
       </c>
       <c r="G17" s="3">
-        <v>6738600</v>
+        <v>7660300</v>
       </c>
       <c r="H17" s="3">
-        <v>6295600</v>
+        <v>6516700</v>
       </c>
       <c r="I17" s="3">
-        <v>6827400</v>
+        <v>6088300</v>
       </c>
       <c r="J17" s="3">
+        <v>6602500</v>
+      </c>
+      <c r="K17" s="3">
         <v>8208500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7637300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7902700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7919000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9050700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7972400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8257600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7988000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9412900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8262800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8101200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7979200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7850000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>703900</v>
+        <v>517400</v>
       </c>
       <c r="E18" s="3">
-        <v>642800</v>
+        <v>1305800</v>
       </c>
       <c r="F18" s="3">
-        <v>694500</v>
+        <v>621700</v>
       </c>
       <c r="G18" s="3">
-        <v>174800</v>
+        <v>671600</v>
       </c>
       <c r="H18" s="3">
-        <v>-161700</v>
+        <v>169100</v>
       </c>
       <c r="I18" s="3">
-        <v>299500</v>
+        <v>-156400</v>
       </c>
       <c r="J18" s="3">
+        <v>289600</v>
+      </c>
+      <c r="K18" s="3">
         <v>477600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>353300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>395000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>388500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>940000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>634800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>890500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>696800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>714500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>727300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>870700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>649200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>711100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>79100</v>
+        <v>182300</v>
       </c>
       <c r="E20" s="3">
-        <v>-39600</v>
+        <v>76500</v>
       </c>
       <c r="F20" s="3">
-        <v>38400</v>
+        <v>-38300</v>
       </c>
       <c r="G20" s="3">
-        <v>34800</v>
+        <v>37100</v>
       </c>
       <c r="H20" s="3">
-        <v>97800</v>
+        <v>33700</v>
       </c>
       <c r="I20" s="3">
-        <v>16600</v>
+        <v>94600</v>
       </c>
       <c r="J20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>81400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>75100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>57400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>111900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>80800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>87800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>68400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>45000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-64900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1294000</v>
+        <v>1178900</v>
       </c>
       <c r="E21" s="3">
-        <v>1066800</v>
+        <v>1876500</v>
       </c>
       <c r="F21" s="3">
-        <v>1294100</v>
+        <v>1031700</v>
       </c>
       <c r="G21" s="3">
-        <v>735200</v>
+        <v>1251400</v>
       </c>
       <c r="H21" s="3">
-        <v>434700</v>
+        <v>711000</v>
       </c>
       <c r="I21" s="3">
-        <v>806100</v>
+        <v>420400</v>
       </c>
       <c r="J21" s="3">
+        <v>779600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1005000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>996600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1006400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1011300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1564600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1223200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1324800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1413400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1407500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1483800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1245300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1216000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
-        <v>2400</v>
-      </c>
       <c r="G22" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="H22" s="3">
         <v>1800</v>
       </c>
       <c r="I22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2100</v>
       </c>
       <c r="S22" s="3">
         <v>2100</v>
       </c>
       <c r="T22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U22" s="3">
         <v>900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>781400</v>
+        <v>698900</v>
       </c>
       <c r="E23" s="3">
-        <v>601700</v>
+        <v>1380700</v>
       </c>
       <c r="F23" s="3">
-        <v>730500</v>
+        <v>581900</v>
       </c>
       <c r="G23" s="3">
-        <v>207800</v>
+        <v>706400</v>
       </c>
       <c r="H23" s="3">
-        <v>-65800</v>
+        <v>200900</v>
       </c>
       <c r="I23" s="3">
-        <v>314400</v>
+        <v>-63600</v>
       </c>
       <c r="J23" s="3">
+        <v>304000</v>
+      </c>
+      <c r="K23" s="3">
         <v>467200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>432200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>467800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>443100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>943600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>622900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>775300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>793700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>691900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>644300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>193600</v>
+        <v>220300</v>
       </c>
       <c r="E24" s="3">
-        <v>159300</v>
+        <v>187200</v>
       </c>
       <c r="F24" s="3">
-        <v>203900</v>
+        <v>154000</v>
       </c>
       <c r="G24" s="3">
-        <v>33200</v>
+        <v>197200</v>
       </c>
       <c r="H24" s="3">
-        <v>-19300</v>
+        <v>32100</v>
       </c>
       <c r="I24" s="3">
-        <v>95000</v>
+        <v>-18700</v>
       </c>
       <c r="J24" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K24" s="3">
         <v>135000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>148900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>127400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>107800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>228500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>159000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>262600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>234500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>260100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>191600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>250800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>180100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>201800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>587800</v>
+        <v>478600</v>
       </c>
       <c r="E26" s="3">
-        <v>442400</v>
+        <v>1193500</v>
       </c>
       <c r="F26" s="3">
-        <v>526500</v>
+        <v>427900</v>
       </c>
       <c r="G26" s="3">
-        <v>174500</v>
+        <v>509200</v>
       </c>
       <c r="H26" s="3">
-        <v>-46500</v>
+        <v>168800</v>
       </c>
       <c r="I26" s="3">
-        <v>219400</v>
+        <v>-44900</v>
       </c>
       <c r="J26" s="3">
+        <v>212200</v>
+      </c>
+      <c r="K26" s="3">
         <v>332200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>283300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>340400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>335300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>715200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>463900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>738400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>540700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>540100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>602100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>649200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>511800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>442500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>557100</v>
+        <v>434500</v>
       </c>
       <c r="E27" s="3">
-        <v>405000</v>
+        <v>1163800</v>
       </c>
       <c r="F27" s="3">
-        <v>488200</v>
+        <v>391600</v>
       </c>
       <c r="G27" s="3">
-        <v>151800</v>
+        <v>472100</v>
       </c>
       <c r="H27" s="3">
-        <v>-80500</v>
+        <v>146800</v>
       </c>
       <c r="I27" s="3">
-        <v>199600</v>
+        <v>-77800</v>
       </c>
       <c r="J27" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K27" s="3">
         <v>297100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>243700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>316200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>677000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>429700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>706000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>516300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>493600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>570000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>625400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>488600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>397600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-79100</v>
+        <v>-182300</v>
       </c>
       <c r="E32" s="3">
-        <v>39600</v>
+        <v>-76500</v>
       </c>
       <c r="F32" s="3">
-        <v>-38400</v>
+        <v>38300</v>
       </c>
       <c r="G32" s="3">
-        <v>-34800</v>
+        <v>-37100</v>
       </c>
       <c r="H32" s="3">
-        <v>-97800</v>
+        <v>-33700</v>
       </c>
       <c r="I32" s="3">
-        <v>-16600</v>
+        <v>-94600</v>
       </c>
       <c r="J32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K32" s="3">
         <v>8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-81400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-75100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-57400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-111900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-80800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-87800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-68400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-45000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>64900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>557100</v>
+        <v>434500</v>
       </c>
       <c r="E33" s="3">
-        <v>405000</v>
+        <v>1163800</v>
       </c>
       <c r="F33" s="3">
-        <v>488200</v>
+        <v>391600</v>
       </c>
       <c r="G33" s="3">
-        <v>151800</v>
+        <v>472100</v>
       </c>
       <c r="H33" s="3">
-        <v>-80500</v>
+        <v>146800</v>
       </c>
       <c r="I33" s="3">
-        <v>199600</v>
+        <v>-77800</v>
       </c>
       <c r="J33" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K33" s="3">
         <v>297100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>243700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>316200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>677000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>429700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>706000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>516300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>493600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>570000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>625400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>488600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>397600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>557100</v>
+        <v>434500</v>
       </c>
       <c r="E35" s="3">
-        <v>405000</v>
+        <v>1163800</v>
       </c>
       <c r="F35" s="3">
-        <v>488200</v>
+        <v>391600</v>
       </c>
       <c r="G35" s="3">
-        <v>151800</v>
+        <v>472100</v>
       </c>
       <c r="H35" s="3">
-        <v>-80500</v>
+        <v>146800</v>
       </c>
       <c r="I35" s="3">
-        <v>199600</v>
+        <v>-77800</v>
       </c>
       <c r="J35" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K35" s="3">
         <v>297100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>243700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>316200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>677000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>429700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>706000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>516300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>493600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>570000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>625400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>488600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>397600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4769700</v>
+        <v>4248500</v>
       </c>
       <c r="E41" s="3">
-        <v>4403800</v>
+        <v>4612600</v>
       </c>
       <c r="F41" s="3">
-        <v>3714000</v>
+        <v>4258800</v>
       </c>
       <c r="G41" s="3">
-        <v>4557600</v>
+        <v>3591700</v>
       </c>
       <c r="H41" s="3">
-        <v>4555400</v>
+        <v>4407500</v>
       </c>
       <c r="I41" s="3">
-        <v>4007900</v>
+        <v>4405400</v>
       </c>
       <c r="J41" s="3">
+        <v>3875900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3760700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4120000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3732600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4238900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4914900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4972300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5794900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5430400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6525200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5847400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6272200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5806800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5589800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3">
-        <v>18000</v>
-      </c>
       <c r="J42" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K42" s="3">
         <v>16100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>135200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>158500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>44700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>28400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4379900</v>
+        <v>4002800</v>
       </c>
       <c r="E43" s="3">
-        <v>4636300</v>
+        <v>4235700</v>
       </c>
       <c r="F43" s="3">
-        <v>4875000</v>
+        <v>4483600</v>
       </c>
       <c r="G43" s="3">
-        <v>4085800</v>
+        <v>4714500</v>
       </c>
       <c r="H43" s="3">
-        <v>3680600</v>
+        <v>3951200</v>
       </c>
       <c r="I43" s="3">
-        <v>4426100</v>
+        <v>3559400</v>
       </c>
       <c r="J43" s="3">
+        <v>4280300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5100100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4739300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4966600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5281900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5786300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5405300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5352100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5276900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5883900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5343000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5280700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5132400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5689700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5366900</v>
+        <v>5605800</v>
       </c>
       <c r="E44" s="3">
-        <v>5428700</v>
+        <v>5190200</v>
       </c>
       <c r="F44" s="3">
-        <v>5127200</v>
+        <v>5249900</v>
       </c>
       <c r="G44" s="3">
-        <v>5626400</v>
+        <v>4958300</v>
       </c>
       <c r="H44" s="3">
-        <v>5500100</v>
+        <v>5441100</v>
       </c>
       <c r="I44" s="3">
-        <v>5471800</v>
+        <v>5318900</v>
       </c>
       <c r="J44" s="3">
+        <v>5291600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5327100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5829100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5780500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6255100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5770500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6134800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5448400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5319900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5153100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5613800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5395400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5047900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4973700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2820900</v>
+        <v>2821300</v>
       </c>
       <c r="E45" s="3">
-        <v>2738000</v>
+        <v>2728000</v>
       </c>
       <c r="F45" s="3">
-        <v>2582300</v>
+        <v>2647900</v>
       </c>
       <c r="G45" s="3">
-        <v>2678500</v>
+        <v>2497200</v>
       </c>
       <c r="H45" s="3">
-        <v>2828400</v>
+        <v>2590300</v>
       </c>
       <c r="I45" s="3">
-        <v>2623500</v>
+        <v>2735300</v>
       </c>
       <c r="J45" s="3">
+        <v>2537100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2612700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2795300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2745100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2865600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2873000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3042600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2885200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2925900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2603200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2531500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2430800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2480200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2343100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17338300</v>
+        <v>16679300</v>
       </c>
       <c r="E46" s="3">
-        <v>17207600</v>
+        <v>16767400</v>
       </c>
       <c r="F46" s="3">
-        <v>16299100</v>
+        <v>16641000</v>
       </c>
       <c r="G46" s="3">
-        <v>16949100</v>
+        <v>15762300</v>
       </c>
       <c r="H46" s="3">
-        <v>16565600</v>
+        <v>16391000</v>
       </c>
       <c r="I46" s="3">
-        <v>16547300</v>
+        <v>16020100</v>
       </c>
       <c r="J46" s="3">
+        <v>16002400</v>
+      </c>
+      <c r="K46" s="3">
         <v>16816700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17499700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17260800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18657200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19353700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19567400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19497500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18964900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20183100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19470900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19537600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18512000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18624800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>631400</v>
+        <v>679500</v>
       </c>
       <c r="E47" s="3">
-        <v>616200</v>
+        <v>610600</v>
       </c>
       <c r="F47" s="3">
-        <v>612800</v>
+        <v>595900</v>
       </c>
       <c r="G47" s="3">
-        <v>599600</v>
+        <v>592600</v>
       </c>
       <c r="H47" s="3">
-        <v>617000</v>
+        <v>579800</v>
       </c>
       <c r="I47" s="3">
-        <v>581000</v>
+        <v>596700</v>
       </c>
       <c r="J47" s="3">
+        <v>561900</v>
+      </c>
+      <c r="K47" s="3">
         <v>596700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>589400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>560700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>573800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>642200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>173400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>214700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>320400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>316800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>308300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>263400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>259900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10370600</v>
+        <v>9978100</v>
       </c>
       <c r="E48" s="3">
-        <v>10448000</v>
+        <v>10029100</v>
       </c>
       <c r="F48" s="3">
-        <v>10431300</v>
+        <v>10103900</v>
       </c>
       <c r="G48" s="3">
-        <v>10547100</v>
+        <v>10087800</v>
       </c>
       <c r="H48" s="3">
-        <v>10648300</v>
+        <v>10199800</v>
       </c>
       <c r="I48" s="3">
-        <v>10778200</v>
+        <v>10297700</v>
       </c>
       <c r="J48" s="3">
+        <v>10423300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10969300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10993500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11118900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11706600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10299000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10199800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10478600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10407700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10621500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10795700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11125100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11051800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11253000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11252800</v>
+        <v>11063500</v>
       </c>
       <c r="E49" s="3">
-        <v>11263100</v>
+        <v>10882300</v>
       </c>
       <c r="F49" s="3">
-        <v>11242300</v>
+        <v>10892200</v>
       </c>
       <c r="G49" s="3">
-        <v>11133600</v>
+        <v>10872100</v>
       </c>
       <c r="H49" s="3">
-        <v>11120200</v>
+        <v>10766900</v>
       </c>
       <c r="I49" s="3">
-        <v>11041300</v>
+        <v>10754000</v>
       </c>
       <c r="J49" s="3">
+        <v>10677700</v>
+      </c>
+      <c r="K49" s="3">
         <v>11356400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11257100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11498200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12275800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12267600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12317100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11842700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11941600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12273600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12698200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12558900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12122200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12264500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3654300</v>
+        <v>3466600</v>
       </c>
       <c r="E52" s="3">
-        <v>3595600</v>
+        <v>3534000</v>
       </c>
       <c r="F52" s="3">
-        <v>3553800</v>
+        <v>3477100</v>
       </c>
       <c r="G52" s="3">
-        <v>3602200</v>
+        <v>3436800</v>
       </c>
       <c r="H52" s="3">
-        <v>3599000</v>
+        <v>3483600</v>
       </c>
       <c r="I52" s="3">
-        <v>3661900</v>
+        <v>3480500</v>
       </c>
       <c r="J52" s="3">
+        <v>3541300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3733200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3776100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3663200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3815800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3756900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3753700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3566300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3476100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3594000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3599300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3566200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3410900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3176700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43247500</v>
+        <v>41867000</v>
       </c>
       <c r="E54" s="3">
-        <v>43130500</v>
+        <v>41823400</v>
       </c>
       <c r="F54" s="3">
-        <v>42139300</v>
+        <v>41710200</v>
       </c>
       <c r="G54" s="3">
-        <v>42831600</v>
+        <v>40751700</v>
       </c>
       <c r="H54" s="3">
-        <v>42550100</v>
+        <v>41421100</v>
       </c>
       <c r="I54" s="3">
-        <v>42609800</v>
+        <v>41148900</v>
       </c>
       <c r="J54" s="3">
+        <v>41206600</v>
+      </c>
+      <c r="K54" s="3">
         <v>43472200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44115700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44101800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47055800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46250900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46480200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45558500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45004900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46992600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46880900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>47096100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45360300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>45578800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2843600</v>
+        <v>2887900</v>
       </c>
       <c r="E57" s="3">
-        <v>2891500</v>
+        <v>2749900</v>
       </c>
       <c r="F57" s="3">
-        <v>2767700</v>
+        <v>2796300</v>
       </c>
       <c r="G57" s="3">
-        <v>2590800</v>
+        <v>2676600</v>
       </c>
       <c r="H57" s="3">
-        <v>2496800</v>
+        <v>2505500</v>
       </c>
       <c r="I57" s="3">
-        <v>2712700</v>
+        <v>2414600</v>
       </c>
       <c r="J57" s="3">
+        <v>2623400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2781400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2974400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3359600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3327500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3477000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3521000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3497900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3441100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3458500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3553400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3501600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3302000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3149300</v>
+        <v>3047000</v>
       </c>
       <c r="E58" s="3">
-        <v>3736000</v>
+        <v>3045600</v>
       </c>
       <c r="F58" s="3">
-        <v>3573300</v>
+        <v>3612900</v>
       </c>
       <c r="G58" s="3">
-        <v>2074900</v>
+        <v>3455600</v>
       </c>
       <c r="H58" s="3">
-        <v>1817900</v>
+        <v>2006600</v>
       </c>
       <c r="I58" s="3">
-        <v>1755100</v>
+        <v>1758000</v>
       </c>
       <c r="J58" s="3">
+        <v>1697300</v>
+      </c>
+      <c r="K58" s="3">
         <v>382900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1559400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>647300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>393600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>363700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>355200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>355400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>351100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>355500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>346100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>333600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>330200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>16400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6052600</v>
+        <v>5913200</v>
       </c>
       <c r="E59" s="3">
-        <v>5910900</v>
+        <v>5853300</v>
       </c>
       <c r="F59" s="3">
-        <v>5740600</v>
+        <v>5716300</v>
       </c>
       <c r="G59" s="3">
-        <v>5405300</v>
+        <v>5551600</v>
       </c>
       <c r="H59" s="3">
-        <v>5178000</v>
+        <v>5227300</v>
       </c>
       <c r="I59" s="3">
-        <v>5222600</v>
+        <v>5007400</v>
       </c>
       <c r="J59" s="3">
+        <v>5050600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5690600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5447000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5473800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5949100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6028700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5737300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5732800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5618600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6233100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5789000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5587900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5291600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5404000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12045500</v>
+        <v>11848100</v>
       </c>
       <c r="E60" s="3">
-        <v>12538400</v>
+        <v>11648800</v>
       </c>
       <c r="F60" s="3">
-        <v>12081600</v>
+        <v>12125500</v>
       </c>
       <c r="G60" s="3">
-        <v>10071000</v>
+        <v>11683700</v>
       </c>
       <c r="H60" s="3">
-        <v>9492600</v>
+        <v>9739400</v>
       </c>
       <c r="I60" s="3">
-        <v>9690500</v>
+        <v>9180000</v>
       </c>
       <c r="J60" s="3">
+        <v>9371300</v>
+      </c>
+      <c r="K60" s="3">
         <v>8854900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9906600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9095500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9702300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9719900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9569500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9609200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9467600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10029700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9593600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9475000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9123300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8722500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51700</v>
+        <v>52200</v>
       </c>
       <c r="E61" s="3">
-        <v>43400</v>
+        <v>50000</v>
       </c>
       <c r="F61" s="3">
-        <v>44000</v>
+        <v>41900</v>
       </c>
       <c r="G61" s="3">
-        <v>3269100</v>
+        <v>42600</v>
       </c>
       <c r="H61" s="3">
-        <v>3270700</v>
+        <v>3161400</v>
       </c>
       <c r="I61" s="3">
-        <v>3252400</v>
+        <v>3163000</v>
       </c>
       <c r="J61" s="3">
+        <v>3145300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3255400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3339400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3330600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3493900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3416900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4106400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4033000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4464500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4458900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5102700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5568500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5464400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5422100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4172500</v>
+        <v>3896600</v>
       </c>
       <c r="E62" s="3">
-        <v>4286300</v>
+        <v>4035100</v>
       </c>
       <c r="F62" s="3">
-        <v>4651100</v>
+        <v>4145100</v>
       </c>
       <c r="G62" s="3">
-        <v>4849800</v>
+        <v>4497900</v>
       </c>
       <c r="H62" s="3">
-        <v>4929800</v>
+        <v>4690100</v>
       </c>
       <c r="I62" s="3">
-        <v>4879200</v>
+        <v>4767500</v>
       </c>
       <c r="J62" s="3">
+        <v>4718500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5088800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5033900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5113100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5470900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4625000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4268600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4171300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4276800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4514600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4961600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5025000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4806900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4871800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18236700</v>
+        <v>17727000</v>
       </c>
       <c r="E66" s="3">
-        <v>18804700</v>
+        <v>17636200</v>
       </c>
       <c r="F66" s="3">
-        <v>18680800</v>
+        <v>18185400</v>
       </c>
       <c r="G66" s="3">
-        <v>20054700</v>
+        <v>18065600</v>
       </c>
       <c r="H66" s="3">
-        <v>19546800</v>
+        <v>19394300</v>
       </c>
       <c r="I66" s="3">
-        <v>19644000</v>
+        <v>18903200</v>
       </c>
       <c r="J66" s="3">
+        <v>18997100</v>
+      </c>
+      <c r="K66" s="3">
         <v>19007300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20076400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19314900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20507300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19558400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20069700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19855000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20209900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21042100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21635800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22008900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21257100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20892400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32272800</v>
+        <v>31229900</v>
       </c>
       <c r="E72" s="3">
-        <v>31715800</v>
+        <v>31210000</v>
       </c>
       <c r="F72" s="3">
-        <v>31691900</v>
+        <v>30671400</v>
       </c>
       <c r="G72" s="3">
-        <v>31268400</v>
+        <v>30648300</v>
       </c>
       <c r="H72" s="3">
-        <v>31497800</v>
+        <v>30238700</v>
       </c>
       <c r="I72" s="3">
-        <v>31578300</v>
+        <v>30460500</v>
       </c>
       <c r="J72" s="3">
+        <v>30538400</v>
+      </c>
+      <c r="K72" s="3">
         <v>32091400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32137500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32569200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33837500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33757700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32555000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32218900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31339500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31605600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31112000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31274100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>30073500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>30311300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25010800</v>
+        <v>24140000</v>
       </c>
       <c r="E76" s="3">
-        <v>24325800</v>
+        <v>24187200</v>
       </c>
       <c r="F76" s="3">
-        <v>23458500</v>
+        <v>23524700</v>
       </c>
       <c r="G76" s="3">
-        <v>22776900</v>
+        <v>22686000</v>
       </c>
       <c r="H76" s="3">
-        <v>23003300</v>
+        <v>22026900</v>
       </c>
       <c r="I76" s="3">
-        <v>22965800</v>
+        <v>22245700</v>
       </c>
       <c r="J76" s="3">
+        <v>22209500</v>
+      </c>
+      <c r="K76" s="3">
         <v>24464900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24039400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24787000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26548400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26692600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26410500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25703500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24795100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25950500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25245100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25087300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24103200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24686400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>557100</v>
+        <v>434500</v>
       </c>
       <c r="E81" s="3">
-        <v>405000</v>
+        <v>1163800</v>
       </c>
       <c r="F81" s="3">
-        <v>488200</v>
+        <v>391600</v>
       </c>
       <c r="G81" s="3">
-        <v>151800</v>
+        <v>472100</v>
       </c>
       <c r="H81" s="3">
-        <v>-80500</v>
+        <v>146800</v>
       </c>
       <c r="I81" s="3">
-        <v>199600</v>
+        <v>-77800</v>
       </c>
       <c r="J81" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K81" s="3">
         <v>297100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>243700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>316200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>677000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>429700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>706000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>516300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>493600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>570000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>625400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>488600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>397600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>511000</v>
+        <v>479200</v>
       </c>
       <c r="E83" s="3">
-        <v>463600</v>
+        <v>494100</v>
       </c>
       <c r="F83" s="3">
-        <v>561200</v>
+        <v>448300</v>
       </c>
       <c r="G83" s="3">
-        <v>525600</v>
+        <v>542700</v>
       </c>
       <c r="H83" s="3">
-        <v>498700</v>
+        <v>508200</v>
       </c>
       <c r="I83" s="3">
-        <v>490000</v>
+        <v>482300</v>
       </c>
       <c r="J83" s="3">
+        <v>473900</v>
+      </c>
+      <c r="K83" s="3">
         <v>535800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>561900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>536200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>565400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>619600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>598100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>554500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>547300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>611100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>611700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>582900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>551200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>569800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1306000</v>
+        <v>681600</v>
       </c>
       <c r="E89" s="3">
-        <v>1177400</v>
+        <v>1263000</v>
       </c>
       <c r="F89" s="3">
-        <v>1273000</v>
+        <v>1138700</v>
       </c>
       <c r="G89" s="3">
-        <v>485000</v>
+        <v>1231100</v>
       </c>
       <c r="H89" s="3">
-        <v>705900</v>
+        <v>469000</v>
       </c>
       <c r="I89" s="3">
-        <v>577100</v>
+        <v>682600</v>
       </c>
       <c r="J89" s="3">
+        <v>558100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1493600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>747500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>479100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>585000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1619800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>268100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1115400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>381000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1591500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>952800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1280800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1485000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1391900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-371400</v>
+        <v>-362600</v>
       </c>
       <c r="E91" s="3">
-        <v>-375100</v>
+        <v>-359100</v>
       </c>
       <c r="F91" s="3">
-        <v>-401600</v>
+        <v>-362800</v>
       </c>
       <c r="G91" s="3">
-        <v>-353800</v>
+        <v>-388400</v>
       </c>
       <c r="H91" s="3">
-        <v>-341900</v>
+        <v>-342100</v>
       </c>
       <c r="I91" s="3">
-        <v>-403300</v>
+        <v>-330600</v>
       </c>
       <c r="J91" s="3">
+        <v>-390100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-580600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-432500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-510300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-472500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-561700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-339700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-432300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-431900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-441200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-414400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-462900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-386900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-395800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-374700</v>
+        <v>-598700</v>
       </c>
       <c r="E94" s="3">
-        <v>-357700</v>
+        <v>-362300</v>
       </c>
       <c r="F94" s="3">
-        <v>-398500</v>
+        <v>-345900</v>
       </c>
       <c r="G94" s="3">
-        <v>-353700</v>
+        <v>-385400</v>
       </c>
       <c r="H94" s="3">
-        <v>-266600</v>
+        <v>-342000</v>
       </c>
       <c r="I94" s="3">
-        <v>-397300</v>
+        <v>-257900</v>
       </c>
       <c r="J94" s="3">
+        <v>-384200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-644300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-432600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-541700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-496200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-558500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-433900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-362000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-451300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-297000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-219800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-522000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-444400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-108400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-414600</v>
       </c>
       <c r="E96" s="3">
-        <v>-381100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-368500</v>
       </c>
       <c r="G96" s="3">
-        <v>-381100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-368500</v>
       </c>
       <c r="I96" s="3">
-        <v>-775300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-749800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-782100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-830100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-802500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-829700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-732100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-726500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-582400</v>
+        <v>-442900</v>
       </c>
       <c r="E100" s="3">
-        <v>-234900</v>
+        <v>-563200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1734100</v>
+        <v>-227200</v>
       </c>
       <c r="G100" s="3">
-        <v>-139800</v>
+        <v>-1677000</v>
       </c>
       <c r="H100" s="3">
-        <v>78600</v>
+        <v>-135200</v>
       </c>
       <c r="I100" s="3">
-        <v>124000</v>
+        <v>76100</v>
       </c>
       <c r="J100" s="3">
+        <v>120000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1240300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>102100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-188200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-836100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-843700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-443200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-865300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-638400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-467100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-740200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-715300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16900</v>
+        <v>-4100</v>
       </c>
       <c r="E101" s="3">
-        <v>105000</v>
+        <v>16400</v>
       </c>
       <c r="F101" s="3">
-        <v>15900</v>
+        <v>101500</v>
       </c>
       <c r="G101" s="3">
-        <v>10700</v>
+        <v>15400</v>
       </c>
       <c r="H101" s="3">
-        <v>29700</v>
+        <v>10400</v>
       </c>
       <c r="I101" s="3">
-        <v>-56800</v>
+        <v>28700</v>
       </c>
       <c r="J101" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K101" s="3">
         <v>67600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-41800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-57000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-70600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>59500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-159100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>21700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>60200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>62400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-83500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>280800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>365900</v>
+        <v>-364100</v>
       </c>
       <c r="E102" s="3">
-        <v>689800</v>
+        <v>353800</v>
       </c>
       <c r="F102" s="3">
-        <v>-843600</v>
+        <v>667100</v>
       </c>
       <c r="G102" s="3">
-        <v>2200</v>
+        <v>-815800</v>
       </c>
       <c r="H102" s="3">
-        <v>547500</v>
+        <v>2100</v>
       </c>
       <c r="I102" s="3">
-        <v>247100</v>
+        <v>529500</v>
       </c>
       <c r="J102" s="3">
+        <v>239000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-323400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>375200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-307800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-764500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-137700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-950000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>334400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>677800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-424700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>354100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>217000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>849000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CAJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7341600</v>
+        <v>8150000</v>
       </c>
       <c r="E8" s="3">
-        <v>7769800</v>
+        <v>7108300</v>
       </c>
       <c r="F8" s="3">
-        <v>7423800</v>
+        <v>7522900</v>
       </c>
       <c r="G8" s="3">
-        <v>8331900</v>
+        <v>7187800</v>
       </c>
       <c r="H8" s="3">
-        <v>6685700</v>
+        <v>8067100</v>
       </c>
       <c r="I8" s="3">
-        <v>5931900</v>
+        <v>6473300</v>
       </c>
       <c r="J8" s="3">
+        <v>5743400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6892200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8686100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7990700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8297800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8307500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9990700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8607200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9148100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8684800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10127400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8990200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8972000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8628400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8561100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3923700</v>
+        <v>4415100</v>
       </c>
       <c r="E9" s="3">
-        <v>4090600</v>
+        <v>3799000</v>
       </c>
       <c r="F9" s="3">
-        <v>4037600</v>
+        <v>3960600</v>
       </c>
       <c r="G9" s="3">
-        <v>4681800</v>
+        <v>3909200</v>
       </c>
       <c r="H9" s="3">
-        <v>3799800</v>
+        <v>4533000</v>
       </c>
       <c r="I9" s="3">
-        <v>3506400</v>
+        <v>3679000</v>
       </c>
       <c r="J9" s="3">
+        <v>3394900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3732300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4829000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4407700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4575100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4556200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5372000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4640000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4834400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4664800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5186500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4630800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4492200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4478900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4479900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3417900</v>
+        <v>3734900</v>
       </c>
       <c r="E10" s="3">
-        <v>3679300</v>
+        <v>3309300</v>
       </c>
       <c r="F10" s="3">
-        <v>3386200</v>
+        <v>3562300</v>
       </c>
       <c r="G10" s="3">
-        <v>3650100</v>
+        <v>3278600</v>
       </c>
       <c r="H10" s="3">
-        <v>2885900</v>
+        <v>3534100</v>
       </c>
       <c r="I10" s="3">
-        <v>2425500</v>
+        <v>2794200</v>
       </c>
       <c r="J10" s="3">
+        <v>2348400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3159800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3857100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3583000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3722700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3751300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4618800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3967100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4313700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4020000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4940900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4359400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4479800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4149500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4081100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>640500</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>651100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>620100</v>
       </c>
       <c r="F12" s="3">
-        <v>593400</v>
+        <v>605200</v>
       </c>
       <c r="G12" s="3">
-        <v>639400</v>
+        <v>574600</v>
       </c>
       <c r="H12" s="3">
-        <v>599700</v>
+        <v>619100</v>
       </c>
       <c r="I12" s="3">
-        <v>561400</v>
+        <v>580600</v>
       </c>
       <c r="J12" s="3">
+        <v>543500</v>
+      </c>
+      <c r="K12" s="3">
         <v>598600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>695200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>678300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>681900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>710500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>786200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>719100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>693000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>713400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>784800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>736700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>727600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>728200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>656000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>306600</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6824200</v>
+        <v>7507200</v>
       </c>
       <c r="E17" s="3">
-        <v>6464000</v>
+        <v>6607300</v>
       </c>
       <c r="F17" s="3">
-        <v>6802100</v>
+        <v>6863800</v>
       </c>
       <c r="G17" s="3">
-        <v>7660300</v>
+        <v>6585900</v>
       </c>
       <c r="H17" s="3">
-        <v>6516700</v>
+        <v>7416900</v>
       </c>
       <c r="I17" s="3">
-        <v>6088300</v>
+        <v>6309500</v>
       </c>
       <c r="J17" s="3">
+        <v>5894800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6602500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8208500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7637300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7902700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7919000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9050700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7972400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8257600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7988000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9412900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8262800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8101200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7979200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7850000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>517400</v>
+        <v>642800</v>
       </c>
       <c r="E18" s="3">
-        <v>1305800</v>
+        <v>500900</v>
       </c>
       <c r="F18" s="3">
-        <v>621700</v>
+        <v>659100</v>
       </c>
       <c r="G18" s="3">
-        <v>671600</v>
+        <v>601900</v>
       </c>
       <c r="H18" s="3">
-        <v>169100</v>
+        <v>650300</v>
       </c>
       <c r="I18" s="3">
-        <v>-156400</v>
+        <v>163700</v>
       </c>
       <c r="J18" s="3">
+        <v>-151500</v>
+      </c>
+      <c r="K18" s="3">
         <v>289600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>477600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>353300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>395000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>388500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>940000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>634800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>890500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>696800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>714500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>727300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>870700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>649200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>711100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>182300</v>
+        <v>-30600</v>
       </c>
       <c r="E20" s="3">
-        <v>76500</v>
+        <v>176500</v>
       </c>
       <c r="F20" s="3">
-        <v>-38300</v>
+        <v>74100</v>
       </c>
       <c r="G20" s="3">
-        <v>37100</v>
+        <v>-37100</v>
       </c>
       <c r="H20" s="3">
-        <v>33700</v>
+        <v>35900</v>
       </c>
       <c r="I20" s="3">
-        <v>94600</v>
+        <v>32600</v>
       </c>
       <c r="J20" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>81400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>75100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>57400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>111900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>80800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>87800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>68400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>45000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-64900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1178900</v>
+        <v>1122900</v>
       </c>
       <c r="E21" s="3">
-        <v>1876500</v>
+        <v>1141500</v>
       </c>
       <c r="F21" s="3">
-        <v>1031700</v>
+        <v>1211600</v>
       </c>
       <c r="G21" s="3">
-        <v>1251400</v>
+        <v>998900</v>
       </c>
       <c r="H21" s="3">
-        <v>711000</v>
+        <v>1211700</v>
       </c>
       <c r="I21" s="3">
-        <v>420400</v>
+        <v>688400</v>
       </c>
       <c r="J21" s="3">
+        <v>407100</v>
+      </c>
+      <c r="K21" s="3">
         <v>779600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1005000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>996600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1006400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1011300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1564600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1223200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1557000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1324800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1413400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1407500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1483800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1245300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1216000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>1500</v>
       </c>
       <c r="G22" s="3">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="I22" s="3">
         <v>1800</v>
       </c>
       <c r="J22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2100</v>
       </c>
       <c r="T22" s="3">
         <v>2100</v>
       </c>
       <c r="U22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V22" s="3">
         <v>900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>698900</v>
+        <v>610400</v>
       </c>
       <c r="E23" s="3">
-        <v>1380700</v>
+        <v>676700</v>
       </c>
       <c r="F23" s="3">
-        <v>581900</v>
+        <v>731600</v>
       </c>
       <c r="G23" s="3">
-        <v>706400</v>
+        <v>563400</v>
       </c>
       <c r="H23" s="3">
-        <v>200900</v>
+        <v>684000</v>
       </c>
       <c r="I23" s="3">
-        <v>-63600</v>
+        <v>194600</v>
       </c>
       <c r="J23" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="K23" s="3">
         <v>304000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>467200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>432200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>467800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>443100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>943600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>622900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1001000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>775300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>793700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>691900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>644300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>220300</v>
+        <v>69400</v>
       </c>
       <c r="E24" s="3">
-        <v>187200</v>
+        <v>213300</v>
       </c>
       <c r="F24" s="3">
-        <v>154000</v>
+        <v>181300</v>
       </c>
       <c r="G24" s="3">
-        <v>197200</v>
+        <v>149100</v>
       </c>
       <c r="H24" s="3">
-        <v>32100</v>
+        <v>190900</v>
       </c>
       <c r="I24" s="3">
-        <v>-18700</v>
+        <v>31100</v>
       </c>
       <c r="J24" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K24" s="3">
         <v>91800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>135000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>148900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>127400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>107800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>228500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>159000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>262600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>234500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>260100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>191600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>250800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>180100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>201800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>478600</v>
+        <v>541000</v>
       </c>
       <c r="E26" s="3">
-        <v>1193500</v>
+        <v>463400</v>
       </c>
       <c r="F26" s="3">
-        <v>427900</v>
+        <v>550400</v>
       </c>
       <c r="G26" s="3">
-        <v>509200</v>
+        <v>414300</v>
       </c>
       <c r="H26" s="3">
-        <v>168800</v>
+        <v>493000</v>
       </c>
       <c r="I26" s="3">
-        <v>-44900</v>
+        <v>163400</v>
       </c>
       <c r="J26" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="K26" s="3">
         <v>212200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>332200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>283300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>340400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>335300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>715200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>463900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>738400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>540700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>540100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>602100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>649200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>511800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>442500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>434500</v>
+        <v>510100</v>
       </c>
       <c r="E27" s="3">
-        <v>1163800</v>
+        <v>420700</v>
       </c>
       <c r="F27" s="3">
-        <v>391600</v>
+        <v>521600</v>
       </c>
       <c r="G27" s="3">
-        <v>472100</v>
+        <v>379200</v>
       </c>
       <c r="H27" s="3">
-        <v>146800</v>
+        <v>457100</v>
       </c>
       <c r="I27" s="3">
-        <v>-77800</v>
+        <v>142100</v>
       </c>
       <c r="J27" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K27" s="3">
         <v>193000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>297100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>243700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>316200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>677000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>429700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>706000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>516300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>493600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>570000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>625400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>488600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>397600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-182300</v>
+        <v>30600</v>
       </c>
       <c r="E32" s="3">
-        <v>-76500</v>
+        <v>-176500</v>
       </c>
       <c r="F32" s="3">
-        <v>38300</v>
+        <v>-74100</v>
       </c>
       <c r="G32" s="3">
-        <v>-37100</v>
+        <v>37100</v>
       </c>
       <c r="H32" s="3">
-        <v>-33700</v>
+        <v>-35900</v>
       </c>
       <c r="I32" s="3">
-        <v>-94600</v>
+        <v>-32600</v>
       </c>
       <c r="J32" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-81400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-75100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-57400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-111900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-80800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-87800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-68400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-45000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>64900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>434500</v>
+        <v>510100</v>
       </c>
       <c r="E33" s="3">
-        <v>1163800</v>
+        <v>420700</v>
       </c>
       <c r="F33" s="3">
-        <v>391600</v>
+        <v>521600</v>
       </c>
       <c r="G33" s="3">
-        <v>472100</v>
+        <v>379200</v>
       </c>
       <c r="H33" s="3">
-        <v>146800</v>
+        <v>457100</v>
       </c>
       <c r="I33" s="3">
-        <v>-77800</v>
+        <v>142100</v>
       </c>
       <c r="J33" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K33" s="3">
         <v>193000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>297100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>243700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>316200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>677000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>429700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>706000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>516300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>493600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>570000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>625400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>488600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>397600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>434500</v>
+        <v>510100</v>
       </c>
       <c r="E35" s="3">
-        <v>1163800</v>
+        <v>420700</v>
       </c>
       <c r="F35" s="3">
-        <v>391600</v>
+        <v>521600</v>
       </c>
       <c r="G35" s="3">
-        <v>472100</v>
+        <v>379200</v>
       </c>
       <c r="H35" s="3">
-        <v>146800</v>
+        <v>457100</v>
       </c>
       <c r="I35" s="3">
-        <v>-77800</v>
+        <v>142100</v>
       </c>
       <c r="J35" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K35" s="3">
         <v>193000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>297100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>243700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>316200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>677000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>429700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>706000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>516300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>493600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>570000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>625400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>488600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>397600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4248500</v>
+        <v>3423900</v>
       </c>
       <c r="E41" s="3">
-        <v>4612600</v>
+        <v>4113500</v>
       </c>
       <c r="F41" s="3">
-        <v>4258800</v>
+        <v>4466000</v>
       </c>
       <c r="G41" s="3">
-        <v>3591700</v>
+        <v>4123400</v>
       </c>
       <c r="H41" s="3">
-        <v>4407500</v>
+        <v>3477500</v>
       </c>
       <c r="I41" s="3">
-        <v>4405400</v>
+        <v>4267400</v>
       </c>
       <c r="J41" s="3">
+        <v>4265400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3875900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3760700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4120000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3732600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4238900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4914900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4972300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5794900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5430400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6525200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5847400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6272200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5806800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5589800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E42" s="3">
         <v>800</v>
-      </c>
-      <c r="E42" s="3">
-        <v>900</v>
       </c>
       <c r="F42" s="3">
         <v>800</v>
       </c>
       <c r="G42" s="3">
+        <v>800</v>
+      </c>
+      <c r="H42" s="3">
         <v>600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>135200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>158500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>44700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>28400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4002800</v>
+        <v>4337600</v>
       </c>
       <c r="E43" s="3">
-        <v>4235700</v>
+        <v>3875600</v>
       </c>
       <c r="F43" s="3">
-        <v>4483600</v>
+        <v>4101100</v>
       </c>
       <c r="G43" s="3">
-        <v>4714500</v>
+        <v>4341100</v>
       </c>
       <c r="H43" s="3">
-        <v>3951200</v>
+        <v>4564600</v>
       </c>
       <c r="I43" s="3">
-        <v>3559400</v>
+        <v>3825700</v>
       </c>
       <c r="J43" s="3">
+        <v>3446200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4280300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5100100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4739300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4966600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5281900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5786300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5405300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5352100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5276900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5883900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5343000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5280700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5132400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5689700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5605800</v>
+        <v>5549300</v>
       </c>
       <c r="E44" s="3">
-        <v>5190200</v>
+        <v>5427700</v>
       </c>
       <c r="F44" s="3">
-        <v>5249900</v>
+        <v>5025200</v>
       </c>
       <c r="G44" s="3">
-        <v>4958300</v>
+        <v>5083100</v>
       </c>
       <c r="H44" s="3">
-        <v>5441100</v>
+        <v>4800700</v>
       </c>
       <c r="I44" s="3">
-        <v>5318900</v>
+        <v>5268200</v>
       </c>
       <c r="J44" s="3">
+        <v>5149900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5291600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5327100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5829100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5780500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6255100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5770500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6134800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5448400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5319900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5153100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5613800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5395400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5047900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4973700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2821300</v>
+        <v>2682600</v>
       </c>
       <c r="E45" s="3">
-        <v>2728000</v>
+        <v>2731700</v>
       </c>
       <c r="F45" s="3">
-        <v>2647900</v>
+        <v>2641300</v>
       </c>
       <c r="G45" s="3">
-        <v>2497200</v>
+        <v>2563700</v>
       </c>
       <c r="H45" s="3">
-        <v>2590300</v>
+        <v>2417900</v>
       </c>
       <c r="I45" s="3">
-        <v>2735300</v>
+        <v>2508000</v>
       </c>
       <c r="J45" s="3">
+        <v>2648300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2537100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2612700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2795300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2745100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2865600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2873000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3042600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2885200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2925900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2603200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2531500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2430800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2480200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2343100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16679300</v>
+        <v>16022300</v>
       </c>
       <c r="E46" s="3">
-        <v>16767400</v>
+        <v>16149200</v>
       </c>
       <c r="F46" s="3">
-        <v>16641000</v>
+        <v>16234500</v>
       </c>
       <c r="G46" s="3">
-        <v>15762300</v>
+        <v>16112100</v>
       </c>
       <c r="H46" s="3">
-        <v>16391000</v>
+        <v>15261400</v>
       </c>
       <c r="I46" s="3">
-        <v>16020100</v>
+        <v>15870000</v>
       </c>
       <c r="J46" s="3">
+        <v>15510900</v>
+      </c>
+      <c r="K46" s="3">
         <v>16002400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16816700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17499700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17260800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18657200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19353700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19567400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19497500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18964900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20183100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19470900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19537600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18512000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18624800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>679500</v>
+        <v>639600</v>
       </c>
       <c r="E47" s="3">
-        <v>610600</v>
+        <v>657900</v>
       </c>
       <c r="F47" s="3">
-        <v>595900</v>
+        <v>591200</v>
       </c>
       <c r="G47" s="3">
-        <v>592600</v>
+        <v>577000</v>
       </c>
       <c r="H47" s="3">
-        <v>579800</v>
+        <v>573800</v>
       </c>
       <c r="I47" s="3">
+        <v>561400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>577700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>561900</v>
+      </c>
+      <c r="L47" s="3">
         <v>596700</v>
       </c>
-      <c r="J47" s="3">
-        <v>561900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>596700</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>589400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>560700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>573800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>642200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>173400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>214700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>320400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>316800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>308300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>263400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>259900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9978100</v>
+        <v>9700300</v>
       </c>
       <c r="E48" s="3">
-        <v>10029100</v>
+        <v>9661000</v>
       </c>
       <c r="F48" s="3">
-        <v>10103900</v>
+        <v>9710400</v>
       </c>
       <c r="G48" s="3">
-        <v>10087800</v>
+        <v>9782800</v>
       </c>
       <c r="H48" s="3">
+        <v>9767200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>9875600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9970400</v>
+      </c>
+      <c r="K48" s="3">
+        <v>10423300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>10969300</v>
+      </c>
+      <c r="M48" s="3">
+        <v>10993500</v>
+      </c>
+      <c r="N48" s="3">
+        <v>11118900</v>
+      </c>
+      <c r="O48" s="3">
+        <v>11706600</v>
+      </c>
+      <c r="P48" s="3">
+        <v>10299000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10199800</v>
       </c>
-      <c r="I48" s="3">
-        <v>10297700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>10423300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>10969300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>10993500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>11118900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>11706600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>10299000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>10199800</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10478600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10407700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10621500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10795700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11125100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11051800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11253000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11063500</v>
+        <v>10710600</v>
       </c>
       <c r="E49" s="3">
-        <v>10882300</v>
+        <v>10711800</v>
       </c>
       <c r="F49" s="3">
-        <v>10892200</v>
+        <v>10536400</v>
       </c>
       <c r="G49" s="3">
-        <v>10872100</v>
+        <v>10546000</v>
       </c>
       <c r="H49" s="3">
-        <v>10766900</v>
+        <v>10526500</v>
       </c>
       <c r="I49" s="3">
-        <v>10754000</v>
+        <v>10424800</v>
       </c>
       <c r="J49" s="3">
+        <v>10412200</v>
+      </c>
+      <c r="K49" s="3">
         <v>10677700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11356400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11257100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11498200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12275800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12267600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12317100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11842700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11941600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12273600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12698200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12558900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12122200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12264500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3466600</v>
+        <v>3452300</v>
       </c>
       <c r="E52" s="3">
-        <v>3534000</v>
+        <v>3356400</v>
       </c>
       <c r="F52" s="3">
-        <v>3477100</v>
+        <v>3421700</v>
       </c>
       <c r="G52" s="3">
-        <v>3436800</v>
+        <v>3366600</v>
       </c>
       <c r="H52" s="3">
-        <v>3483600</v>
+        <v>3327500</v>
       </c>
       <c r="I52" s="3">
-        <v>3480500</v>
+        <v>3372900</v>
       </c>
       <c r="J52" s="3">
+        <v>3369900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3541300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3733200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3776100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3663200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3815800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3756900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3753700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3566300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3476100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3594000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3599300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3566200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3410900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3176700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41867000</v>
+        <v>40525100</v>
       </c>
       <c r="E54" s="3">
-        <v>41823400</v>
+        <v>40536400</v>
       </c>
       <c r="F54" s="3">
-        <v>41710200</v>
+        <v>40494100</v>
       </c>
       <c r="G54" s="3">
-        <v>40751700</v>
+        <v>40384500</v>
       </c>
       <c r="H54" s="3">
-        <v>41421100</v>
+        <v>39456500</v>
       </c>
       <c r="I54" s="3">
-        <v>41148900</v>
+        <v>40104700</v>
       </c>
       <c r="J54" s="3">
+        <v>39841100</v>
+      </c>
+      <c r="K54" s="3">
         <v>41206600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43472200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44115700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44101800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47055800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46250900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46480200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45558500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45004900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46992600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46880900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>47096100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>45360300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>45578800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2887900</v>
+        <v>2888300</v>
       </c>
       <c r="E57" s="3">
-        <v>2749900</v>
+        <v>2796100</v>
       </c>
       <c r="F57" s="3">
-        <v>2796300</v>
+        <v>2662500</v>
       </c>
       <c r="G57" s="3">
-        <v>2676600</v>
+        <v>2707400</v>
       </c>
       <c r="H57" s="3">
-        <v>2505500</v>
+        <v>2591500</v>
       </c>
       <c r="I57" s="3">
-        <v>2414600</v>
+        <v>2425800</v>
       </c>
       <c r="J57" s="3">
+        <v>2337800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2623400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2781400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2974400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3359600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3327500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3477000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3521000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3497900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3441100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3458500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3553400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3501600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3302000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3047000</v>
+        <v>382900</v>
       </c>
       <c r="E58" s="3">
-        <v>3045600</v>
+        <v>2950200</v>
       </c>
       <c r="F58" s="3">
-        <v>3612900</v>
+        <v>2948800</v>
       </c>
       <c r="G58" s="3">
-        <v>3455600</v>
+        <v>3498100</v>
       </c>
       <c r="H58" s="3">
-        <v>2006600</v>
+        <v>3345800</v>
       </c>
       <c r="I58" s="3">
-        <v>1758000</v>
+        <v>1942800</v>
       </c>
       <c r="J58" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1697300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>382900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1559400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>647300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>393600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>363700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>355200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>355400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>351100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>355500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>346100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>333600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>330200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>16400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5913200</v>
+        <v>5777700</v>
       </c>
       <c r="E59" s="3">
-        <v>5853300</v>
+        <v>5725300</v>
       </c>
       <c r="F59" s="3">
-        <v>5716300</v>
+        <v>5667300</v>
       </c>
       <c r="G59" s="3">
-        <v>5551600</v>
+        <v>5534600</v>
       </c>
       <c r="H59" s="3">
-        <v>5227300</v>
+        <v>5375100</v>
       </c>
       <c r="I59" s="3">
-        <v>5007400</v>
+        <v>5061200</v>
       </c>
       <c r="J59" s="3">
+        <v>4848300</v>
+      </c>
+      <c r="K59" s="3">
         <v>5050600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5690600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5447000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5473800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5949100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6028700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5737300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5732800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5618600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6233100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5789000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5587900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5291600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5404000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11848100</v>
+        <v>9048900</v>
       </c>
       <c r="E60" s="3">
-        <v>11648800</v>
+        <v>11471600</v>
       </c>
       <c r="F60" s="3">
-        <v>12125500</v>
+        <v>11278600</v>
       </c>
       <c r="G60" s="3">
-        <v>11683700</v>
+        <v>11740100</v>
       </c>
       <c r="H60" s="3">
-        <v>9739400</v>
+        <v>11312400</v>
       </c>
       <c r="I60" s="3">
-        <v>9180000</v>
+        <v>9429800</v>
       </c>
       <c r="J60" s="3">
+        <v>8888300</v>
+      </c>
+      <c r="K60" s="3">
         <v>9371300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8854900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9906600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9095500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9702300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9719900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9569500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9609200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9467600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10029700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9593600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9475000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9123300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8722500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52200</v>
+        <v>1533300</v>
       </c>
       <c r="E61" s="3">
-        <v>50000</v>
+        <v>50500</v>
       </c>
       <c r="F61" s="3">
-        <v>41900</v>
+        <v>48400</v>
       </c>
       <c r="G61" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="H61" s="3">
-        <v>3161400</v>
+        <v>41200</v>
       </c>
       <c r="I61" s="3">
-        <v>3163000</v>
+        <v>3061000</v>
       </c>
       <c r="J61" s="3">
+        <v>3062500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3145300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3255400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3339400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3330600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3493900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3416900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4106400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4033000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4464500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4458900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5102700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5568500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5464400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5422100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3896600</v>
+        <v>3513300</v>
       </c>
       <c r="E62" s="3">
-        <v>4035100</v>
+        <v>3772800</v>
       </c>
       <c r="F62" s="3">
-        <v>4145100</v>
+        <v>3906800</v>
       </c>
       <c r="G62" s="3">
-        <v>4497900</v>
+        <v>4013400</v>
       </c>
       <c r="H62" s="3">
-        <v>4690100</v>
+        <v>4355000</v>
       </c>
       <c r="I62" s="3">
-        <v>4767500</v>
+        <v>4541100</v>
       </c>
       <c r="J62" s="3">
+        <v>4616000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4718500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5088800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5033900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5113100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5470900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4625000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4268600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4171300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4276800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4514600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4961600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5025000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4806900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4871800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17727000</v>
+        <v>16011800</v>
       </c>
       <c r="E66" s="3">
-        <v>17636200</v>
+        <v>17163600</v>
       </c>
       <c r="F66" s="3">
-        <v>18185400</v>
+        <v>17075700</v>
       </c>
       <c r="G66" s="3">
-        <v>18065600</v>
+        <v>17607400</v>
       </c>
       <c r="H66" s="3">
-        <v>19394300</v>
+        <v>17491500</v>
       </c>
       <c r="I66" s="3">
-        <v>18903200</v>
+        <v>18777900</v>
       </c>
       <c r="J66" s="3">
+        <v>18302400</v>
+      </c>
+      <c r="K66" s="3">
         <v>18997100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19007300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20076400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19314900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20507300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19558400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20069700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19855000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20209900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21042100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21635800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22008900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21257100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20892400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31229900</v>
+        <v>30759600</v>
       </c>
       <c r="E72" s="3">
-        <v>31210000</v>
+        <v>30237400</v>
       </c>
       <c r="F72" s="3">
-        <v>30671400</v>
+        <v>30218100</v>
       </c>
       <c r="G72" s="3">
-        <v>30648300</v>
+        <v>29696600</v>
       </c>
       <c r="H72" s="3">
-        <v>30238700</v>
+        <v>29674200</v>
       </c>
       <c r="I72" s="3">
-        <v>30460500</v>
+        <v>29277700</v>
       </c>
       <c r="J72" s="3">
+        <v>29492400</v>
+      </c>
+      <c r="K72" s="3">
         <v>30538400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32091400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32137500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32569200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33837500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33757700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32555000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32218900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31339500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31605600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31112000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31274100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>30073500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>30311300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24140000</v>
+        <v>24513300</v>
       </c>
       <c r="E76" s="3">
-        <v>24187200</v>
+        <v>23372800</v>
       </c>
       <c r="F76" s="3">
-        <v>23524700</v>
+        <v>23418500</v>
       </c>
       <c r="G76" s="3">
-        <v>22686000</v>
+        <v>22777100</v>
       </c>
       <c r="H76" s="3">
-        <v>22026900</v>
+        <v>21965000</v>
       </c>
       <c r="I76" s="3">
-        <v>22245700</v>
+        <v>21326800</v>
       </c>
       <c r="J76" s="3">
+        <v>21538700</v>
+      </c>
+      <c r="K76" s="3">
         <v>22209500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24464900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24039400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24787000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26548400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26692600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26410500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25703500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24795100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25950500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25245100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25087300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24103200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24686400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>434500</v>
+        <v>510100</v>
       </c>
       <c r="E81" s="3">
-        <v>1163800</v>
+        <v>420700</v>
       </c>
       <c r="F81" s="3">
-        <v>391600</v>
+        <v>521600</v>
       </c>
       <c r="G81" s="3">
-        <v>472100</v>
+        <v>379200</v>
       </c>
       <c r="H81" s="3">
-        <v>146800</v>
+        <v>457100</v>
       </c>
       <c r="I81" s="3">
-        <v>-77800</v>
+        <v>142100</v>
       </c>
       <c r="J81" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K81" s="3">
         <v>193000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>297100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>243700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>316200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>677000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>429700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>706000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>516300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>493600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>570000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>625400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>488600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>397600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>479200</v>
+        <v>510700</v>
       </c>
       <c r="E83" s="3">
-        <v>494100</v>
+        <v>464000</v>
       </c>
       <c r="F83" s="3">
-        <v>448300</v>
+        <v>478400</v>
       </c>
       <c r="G83" s="3">
-        <v>542700</v>
+        <v>434000</v>
       </c>
       <c r="H83" s="3">
-        <v>508200</v>
+        <v>525500</v>
       </c>
       <c r="I83" s="3">
-        <v>482300</v>
+        <v>492100</v>
       </c>
       <c r="J83" s="3">
+        <v>466900</v>
+      </c>
+      <c r="K83" s="3">
         <v>473900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>535800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>561900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>536200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>565400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>619600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>598100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>554500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>547300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>611100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>611700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>582900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>551200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>569800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>681600</v>
+        <v>862000</v>
       </c>
       <c r="E89" s="3">
-        <v>1263000</v>
+        <v>659900</v>
       </c>
       <c r="F89" s="3">
-        <v>1138700</v>
+        <v>1222900</v>
       </c>
       <c r="G89" s="3">
-        <v>1231100</v>
+        <v>1102500</v>
       </c>
       <c r="H89" s="3">
-        <v>469000</v>
+        <v>1192000</v>
       </c>
       <c r="I89" s="3">
-        <v>682600</v>
+        <v>454100</v>
       </c>
       <c r="J89" s="3">
+        <v>660900</v>
+      </c>
+      <c r="K89" s="3">
         <v>558100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1493600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>747500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>479100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>585000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1619800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>268100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1115400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>381000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1591500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>952800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1280800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1485000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1391900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-362600</v>
+        <v>-462800</v>
       </c>
       <c r="E91" s="3">
-        <v>-359100</v>
+        <v>-351100</v>
       </c>
       <c r="F91" s="3">
-        <v>-362800</v>
+        <v>-347700</v>
       </c>
       <c r="G91" s="3">
-        <v>-388400</v>
+        <v>-351200</v>
       </c>
       <c r="H91" s="3">
-        <v>-342100</v>
+        <v>-376100</v>
       </c>
       <c r="I91" s="3">
-        <v>-330600</v>
+        <v>-331200</v>
       </c>
       <c r="J91" s="3">
+        <v>-320100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-390100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-580600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-432500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-510300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-472500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-561700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-339700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-432300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-431900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-441200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-414400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-462900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-386900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-395800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-598700</v>
+        <v>-502500</v>
       </c>
       <c r="E94" s="3">
-        <v>-362300</v>
+        <v>-579700</v>
       </c>
       <c r="F94" s="3">
-        <v>-345900</v>
+        <v>-350800</v>
       </c>
       <c r="G94" s="3">
-        <v>-385400</v>
+        <v>-334900</v>
       </c>
       <c r="H94" s="3">
-        <v>-342000</v>
+        <v>-373100</v>
       </c>
       <c r="I94" s="3">
-        <v>-257900</v>
+        <v>-331200</v>
       </c>
       <c r="J94" s="3">
+        <v>-249700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-384200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-644300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-432600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-541700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-496200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-558500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-433900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-362000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-451300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-297000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-219800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-522000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-444400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-108400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-414600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-401400</v>
       </c>
       <c r="F96" s="3">
-        <v>-368500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-356800</v>
       </c>
       <c r="H96" s="3">
-        <v>-368500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-356800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-749800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-782100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-830100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-802500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-829700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-732100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-726500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-442900</v>
+        <v>-1086600</v>
       </c>
       <c r="E100" s="3">
-        <v>-563200</v>
+        <v>-428800</v>
       </c>
       <c r="F100" s="3">
-        <v>-227200</v>
+        <v>-545300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1677000</v>
+        <v>-220000</v>
       </c>
       <c r="H100" s="3">
-        <v>-135200</v>
+        <v>-1623700</v>
       </c>
       <c r="I100" s="3">
-        <v>76100</v>
+        <v>-130900</v>
       </c>
       <c r="J100" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K100" s="3">
         <v>120000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1240300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>102100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-188200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-836100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-843700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-443200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-865300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-638400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-467100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-740200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-715300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4100</v>
+        <v>37400</v>
       </c>
       <c r="E101" s="3">
-        <v>16400</v>
+        <v>-3900</v>
       </c>
       <c r="F101" s="3">
-        <v>101500</v>
+        <v>15900</v>
       </c>
       <c r="G101" s="3">
-        <v>15400</v>
+        <v>98300</v>
       </c>
       <c r="H101" s="3">
-        <v>10400</v>
+        <v>14900</v>
       </c>
       <c r="I101" s="3">
-        <v>28700</v>
+        <v>10000</v>
       </c>
       <c r="J101" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-54900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>67600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-57000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-70600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>59500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-159100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>21700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>60200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>62400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-83500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>280800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-364100</v>
+        <v>-689600</v>
       </c>
       <c r="E102" s="3">
-        <v>353800</v>
+        <v>-352500</v>
       </c>
       <c r="F102" s="3">
-        <v>667100</v>
+        <v>342600</v>
       </c>
       <c r="G102" s="3">
-        <v>-815800</v>
+        <v>645900</v>
       </c>
       <c r="H102" s="3">
+        <v>-789900</v>
+      </c>
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
-        <v>529500</v>
-      </c>
       <c r="J102" s="3">
+        <v>512700</v>
+      </c>
+      <c r="K102" s="3">
         <v>239000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-323400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>375200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-307800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-764500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-137700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-950000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>334400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>677800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-424700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>354100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>217000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>849000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8150000</v>
+        <v>6850100</v>
       </c>
       <c r="E8" s="3">
-        <v>7108300</v>
+        <v>7442900</v>
       </c>
       <c r="F8" s="3">
-        <v>7522900</v>
+        <v>6491600</v>
       </c>
       <c r="G8" s="3">
-        <v>7187800</v>
+        <v>6870300</v>
       </c>
       <c r="H8" s="3">
-        <v>8067100</v>
+        <v>6564300</v>
       </c>
       <c r="I8" s="3">
-        <v>6473300</v>
+        <v>7367300</v>
       </c>
       <c r="J8" s="3">
+        <v>5911700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5743400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6892200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8686100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7990700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8297800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8307500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9990700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8607200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9148100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8684800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10127400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8990200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8972000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8628400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8561100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4415100</v>
+        <v>3777800</v>
       </c>
       <c r="E9" s="3">
-        <v>3799000</v>
+        <v>4032100</v>
       </c>
       <c r="F9" s="3">
-        <v>3960600</v>
+        <v>3469400</v>
       </c>
       <c r="G9" s="3">
-        <v>3909200</v>
+        <v>3617000</v>
       </c>
       <c r="H9" s="3">
-        <v>4533000</v>
+        <v>3570100</v>
       </c>
       <c r="I9" s="3">
-        <v>3679000</v>
+        <v>4139800</v>
       </c>
       <c r="J9" s="3">
+        <v>3359900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3394900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3732300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4829000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4407700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4575100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4556200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5372000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4640000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4834400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4664800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5186500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4630800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4492200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4478900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4479900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3734900</v>
+        <v>3072300</v>
       </c>
       <c r="E10" s="3">
-        <v>3309300</v>
+        <v>3410900</v>
       </c>
       <c r="F10" s="3">
-        <v>3562300</v>
+        <v>3022200</v>
       </c>
       <c r="G10" s="3">
-        <v>3278600</v>
+        <v>3253300</v>
       </c>
       <c r="H10" s="3">
-        <v>3534100</v>
+        <v>2994200</v>
       </c>
       <c r="I10" s="3">
-        <v>2794200</v>
+        <v>3227500</v>
       </c>
       <c r="J10" s="3">
+        <v>2551800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2348400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3159800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3857100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3583000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3722700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3751300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4618800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3967100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4313700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4020000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4940900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4359400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4479800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4149500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4081100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>651100</v>
+        <v>555700</v>
       </c>
       <c r="E12" s="3">
-        <v>620100</v>
+        <v>594600</v>
       </c>
       <c r="F12" s="3">
-        <v>605200</v>
+        <v>566300</v>
       </c>
       <c r="G12" s="3">
-        <v>574600</v>
+        <v>552700</v>
       </c>
       <c r="H12" s="3">
-        <v>619100</v>
+        <v>524700</v>
       </c>
       <c r="I12" s="3">
-        <v>580600</v>
+        <v>565400</v>
       </c>
       <c r="J12" s="3">
+        <v>530300</v>
+      </c>
+      <c r="K12" s="3">
         <v>543500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>598600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>695200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>678300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>681900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>710500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>786200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>719100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>693000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>713400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>784800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>736700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>727600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>728200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>656000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1181,8 +1201,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1199,11 +1219,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>306600</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7507200</v>
+        <v>6257000</v>
       </c>
       <c r="E17" s="3">
-        <v>6607300</v>
+        <v>6855900</v>
       </c>
       <c r="F17" s="3">
-        <v>6863800</v>
+        <v>6034100</v>
       </c>
       <c r="G17" s="3">
-        <v>6585900</v>
+        <v>6268300</v>
       </c>
       <c r="H17" s="3">
-        <v>7416900</v>
+        <v>6014600</v>
       </c>
       <c r="I17" s="3">
-        <v>6309500</v>
+        <v>6773400</v>
       </c>
       <c r="J17" s="3">
+        <v>5762200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5894800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6602500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8208500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7637300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7902700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7919000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9050700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7972400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8257600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7988000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9412900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8262800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8101200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7979200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7850000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>642800</v>
+        <v>593100</v>
       </c>
       <c r="E18" s="3">
-        <v>500900</v>
+        <v>587000</v>
       </c>
       <c r="F18" s="3">
-        <v>659100</v>
+        <v>457500</v>
       </c>
       <c r="G18" s="3">
         <v>601900</v>
       </c>
       <c r="H18" s="3">
-        <v>650300</v>
+        <v>549700</v>
       </c>
       <c r="I18" s="3">
-        <v>163700</v>
+        <v>593900</v>
       </c>
       <c r="J18" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-151500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>477600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>353300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>395000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>388500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>940000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>634800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>890500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>696800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>714500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>727300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>870700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>649200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>711100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30600</v>
+        <v>-63900</v>
       </c>
       <c r="E20" s="3">
-        <v>176500</v>
+        <v>-28000</v>
       </c>
       <c r="F20" s="3">
-        <v>74100</v>
+        <v>161200</v>
       </c>
       <c r="G20" s="3">
-        <v>-37100</v>
+        <v>67600</v>
       </c>
       <c r="H20" s="3">
-        <v>35900</v>
+        <v>-33900</v>
       </c>
       <c r="I20" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="J20" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K20" s="3">
         <v>91600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>81400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>75100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>57400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>111900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>80800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>87800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>68400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>45000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-64900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1122900</v>
+        <v>952600</v>
       </c>
       <c r="E21" s="3">
-        <v>1141500</v>
+        <v>1025500</v>
       </c>
       <c r="F21" s="3">
-        <v>1211600</v>
+        <v>1042400</v>
       </c>
       <c r="G21" s="3">
-        <v>998900</v>
+        <v>1106500</v>
       </c>
       <c r="H21" s="3">
-        <v>1211700</v>
+        <v>912200</v>
       </c>
       <c r="I21" s="3">
-        <v>688400</v>
+        <v>1106600</v>
       </c>
       <c r="J21" s="3">
+        <v>628700</v>
+      </c>
+      <c r="K21" s="3">
         <v>407100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>779600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1005000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>996600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1006400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1011300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1564600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1223200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1557000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1324800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1413400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1407500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1483800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1245300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1216000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
       </c>
       <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T22" s="3">
         <v>2300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2100</v>
       </c>
       <c r="U22" s="3">
         <v>2100</v>
       </c>
       <c r="V22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W22" s="3">
         <v>900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>610400</v>
+        <v>527400</v>
       </c>
       <c r="E23" s="3">
-        <v>676700</v>
+        <v>557400</v>
       </c>
       <c r="F23" s="3">
-        <v>731600</v>
+        <v>617900</v>
       </c>
       <c r="G23" s="3">
-        <v>563400</v>
+        <v>668200</v>
       </c>
       <c r="H23" s="3">
-        <v>684000</v>
+        <v>514500</v>
       </c>
       <c r="I23" s="3">
-        <v>194600</v>
+        <v>624600</v>
       </c>
       <c r="J23" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-61600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>304000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>467200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>432200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>467800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>443100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>943600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>622900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1001000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>775300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>793700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>691900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>644300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69400</v>
+        <v>139500</v>
       </c>
       <c r="E24" s="3">
-        <v>213300</v>
+        <v>63300</v>
       </c>
       <c r="F24" s="3">
-        <v>181300</v>
+        <v>194800</v>
       </c>
       <c r="G24" s="3">
-        <v>149100</v>
+        <v>165500</v>
       </c>
       <c r="H24" s="3">
-        <v>190900</v>
+        <v>136200</v>
       </c>
       <c r="I24" s="3">
-        <v>31100</v>
+        <v>174400</v>
       </c>
       <c r="J24" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-18100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>91800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>135000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>148900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>127400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>107800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>228500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>159000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>262600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>234500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>260100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>191600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>250800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>180100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>201800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>541000</v>
+        <v>387900</v>
       </c>
       <c r="E26" s="3">
-        <v>463400</v>
+        <v>494100</v>
       </c>
       <c r="F26" s="3">
-        <v>550400</v>
+        <v>423200</v>
       </c>
       <c r="G26" s="3">
-        <v>414300</v>
+        <v>502600</v>
       </c>
       <c r="H26" s="3">
-        <v>493000</v>
+        <v>378300</v>
       </c>
       <c r="I26" s="3">
-        <v>163400</v>
+        <v>450300</v>
       </c>
       <c r="J26" s="3">
+        <v>149300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-43500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>212200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>332200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>283300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>340400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>335300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>715200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>463900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>738400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>540700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>540100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>602100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>649200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>511800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>442500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>510100</v>
+        <v>358100</v>
       </c>
       <c r="E27" s="3">
-        <v>420700</v>
+        <v>465800</v>
       </c>
       <c r="F27" s="3">
-        <v>521600</v>
+        <v>384200</v>
       </c>
       <c r="G27" s="3">
-        <v>379200</v>
+        <v>476400</v>
       </c>
       <c r="H27" s="3">
-        <v>457100</v>
+        <v>346300</v>
       </c>
       <c r="I27" s="3">
-        <v>142100</v>
+        <v>417500</v>
       </c>
       <c r="J27" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-75400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>193000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>297100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>243700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>316200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>677000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>429700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>706000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>516300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>493600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>570000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>625400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>488600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>397600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30600</v>
+        <v>63900</v>
       </c>
       <c r="E32" s="3">
-        <v>-176500</v>
+        <v>28000</v>
       </c>
       <c r="F32" s="3">
-        <v>-74100</v>
+        <v>-161200</v>
       </c>
       <c r="G32" s="3">
-        <v>37100</v>
+        <v>-67600</v>
       </c>
       <c r="H32" s="3">
-        <v>-35900</v>
+        <v>33900</v>
       </c>
       <c r="I32" s="3">
-        <v>-32600</v>
+        <v>-32800</v>
       </c>
       <c r="J32" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-91600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-81400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-75100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-57400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-111900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-80800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-87800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-68400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-45000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>64900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>510100</v>
+        <v>358100</v>
       </c>
       <c r="E33" s="3">
-        <v>420700</v>
+        <v>465800</v>
       </c>
       <c r="F33" s="3">
-        <v>521600</v>
+        <v>384200</v>
       </c>
       <c r="G33" s="3">
-        <v>379200</v>
+        <v>476400</v>
       </c>
       <c r="H33" s="3">
-        <v>457100</v>
+        <v>346300</v>
       </c>
       <c r="I33" s="3">
-        <v>142100</v>
+        <v>417500</v>
       </c>
       <c r="J33" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-75400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>193000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>297100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>243700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>316200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>677000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>429700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>706000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>516300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>493600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>570000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>625400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>488600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>397600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>510100</v>
+        <v>358100</v>
       </c>
       <c r="E35" s="3">
-        <v>420700</v>
+        <v>465800</v>
       </c>
       <c r="F35" s="3">
-        <v>521600</v>
+        <v>384200</v>
       </c>
       <c r="G35" s="3">
-        <v>379200</v>
+        <v>476400</v>
       </c>
       <c r="H35" s="3">
-        <v>457100</v>
+        <v>346300</v>
       </c>
       <c r="I35" s="3">
-        <v>142100</v>
+        <v>417500</v>
       </c>
       <c r="J35" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-75400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>193000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>297100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>243700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>316200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>677000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>429700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>706000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>516300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>493600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>570000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>625400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>488600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>397600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3423900</v>
+        <v>3368100</v>
       </c>
       <c r="E41" s="3">
-        <v>4113500</v>
+        <v>3126900</v>
       </c>
       <c r="F41" s="3">
-        <v>4466000</v>
+        <v>3756600</v>
       </c>
       <c r="G41" s="3">
-        <v>4123400</v>
+        <v>4078600</v>
       </c>
       <c r="H41" s="3">
-        <v>3477500</v>
+        <v>3765700</v>
       </c>
       <c r="I41" s="3">
-        <v>4267400</v>
+        <v>3175900</v>
       </c>
       <c r="J41" s="3">
+        <v>3897200</v>
+      </c>
+      <c r="K41" s="3">
         <v>4265400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3875900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3760700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4120000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3732600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4238900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4914900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4972300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5794900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5430400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6525200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5847400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6272200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5806800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5589800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28800</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
-        <v>800</v>
+        <v>26300</v>
       </c>
       <c r="F42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G42" s="3">
         <v>800</v>
       </c>
       <c r="H42" s="3">
+        <v>700</v>
+      </c>
+      <c r="I42" s="3">
         <v>600</v>
       </c>
-      <c r="I42" s="3">
-        <v>800</v>
-      </c>
       <c r="J42" s="3">
+        <v>700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>35900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>17800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>135200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>158500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>44700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>28400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4337600</v>
+        <v>4103700</v>
       </c>
       <c r="E43" s="3">
-        <v>3875600</v>
+        <v>3961300</v>
       </c>
       <c r="F43" s="3">
-        <v>4101100</v>
+        <v>3539400</v>
       </c>
       <c r="G43" s="3">
-        <v>4341100</v>
+        <v>3745300</v>
       </c>
       <c r="H43" s="3">
-        <v>4564600</v>
+        <v>3964500</v>
       </c>
       <c r="I43" s="3">
-        <v>3825700</v>
+        <v>4168600</v>
       </c>
       <c r="J43" s="3">
+        <v>3493800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3446200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4280300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5100100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4739300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4966600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5281900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5786300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5405300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5352100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5276900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5883900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5343000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5280700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5132400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5689700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5549300</v>
+        <v>5711700</v>
       </c>
       <c r="E44" s="3">
-        <v>5427700</v>
+        <v>5067900</v>
       </c>
       <c r="F44" s="3">
-        <v>5025200</v>
+        <v>4956800</v>
       </c>
       <c r="G44" s="3">
-        <v>5083100</v>
+        <v>4589300</v>
       </c>
       <c r="H44" s="3">
-        <v>4800700</v>
+        <v>4642100</v>
       </c>
       <c r="I44" s="3">
-        <v>5268200</v>
+        <v>4384300</v>
       </c>
       <c r="J44" s="3">
+        <v>4811200</v>
+      </c>
+      <c r="K44" s="3">
         <v>5149900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5291600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5327100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5829100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5780500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6255100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5770500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6134800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5448400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5319900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5153100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5613800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5395400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5047900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4973700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2682600</v>
+        <v>2503000</v>
       </c>
       <c r="E45" s="3">
-        <v>2731700</v>
+        <v>2449900</v>
       </c>
       <c r="F45" s="3">
-        <v>2641300</v>
+        <v>2494700</v>
       </c>
       <c r="G45" s="3">
-        <v>2563700</v>
+        <v>2412200</v>
       </c>
       <c r="H45" s="3">
-        <v>2417900</v>
+        <v>2341300</v>
       </c>
       <c r="I45" s="3">
-        <v>2508000</v>
+        <v>2208100</v>
       </c>
       <c r="J45" s="3">
+        <v>2290400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2648300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2537100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2612700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2795300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2745100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2865600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2873000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3042600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2885200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2925900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2603200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2531500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2430800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2480200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2343100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16022300</v>
+        <v>15717800</v>
       </c>
       <c r="E46" s="3">
-        <v>16149200</v>
+        <v>14632300</v>
       </c>
       <c r="F46" s="3">
-        <v>16234500</v>
+        <v>14748200</v>
       </c>
       <c r="G46" s="3">
-        <v>16112100</v>
+        <v>14826100</v>
       </c>
       <c r="H46" s="3">
-        <v>15261400</v>
+        <v>14714300</v>
       </c>
       <c r="I46" s="3">
-        <v>15870000</v>
+        <v>13937400</v>
       </c>
       <c r="J46" s="3">
+        <v>14493300</v>
+      </c>
+      <c r="K46" s="3">
         <v>15510900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16002400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16816700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17499700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17260800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18657200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19353700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19567400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19497500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18964900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20183100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19470900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19537600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18512000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18624800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>639600</v>
+        <v>565000</v>
       </c>
       <c r="E47" s="3">
-        <v>657900</v>
+        <v>584100</v>
       </c>
       <c r="F47" s="3">
-        <v>591200</v>
+        <v>600800</v>
       </c>
       <c r="G47" s="3">
-        <v>577000</v>
+        <v>539900</v>
       </c>
       <c r="H47" s="3">
+        <v>526900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>524000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>512700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>577700</v>
+      </c>
+      <c r="L47" s="3">
+        <v>561900</v>
+      </c>
+      <c r="M47" s="3">
+        <v>596700</v>
+      </c>
+      <c r="N47" s="3">
+        <v>589400</v>
+      </c>
+      <c r="O47" s="3">
+        <v>560700</v>
+      </c>
+      <c r="P47" s="3">
+        <v>600400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>573800</v>
       </c>
-      <c r="I47" s="3">
-        <v>561400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>577700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>561900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>596700</v>
-      </c>
-      <c r="M47" s="3">
-        <v>589400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>560700</v>
-      </c>
-      <c r="O47" s="3">
-        <v>600400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>573800</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>642200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>173400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>214700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>320400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>316800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>308300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>263400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>259900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9700300</v>
+        <v>8985600</v>
       </c>
       <c r="E48" s="3">
-        <v>9661000</v>
+        <v>8858700</v>
       </c>
       <c r="F48" s="3">
-        <v>9710400</v>
+        <v>8822900</v>
       </c>
       <c r="G48" s="3">
-        <v>9782800</v>
+        <v>8868000</v>
       </c>
       <c r="H48" s="3">
-        <v>9767200</v>
+        <v>8934100</v>
       </c>
       <c r="I48" s="3">
-        <v>9875600</v>
+        <v>8919900</v>
       </c>
       <c r="J48" s="3">
+        <v>9018900</v>
+      </c>
+      <c r="K48" s="3">
         <v>9970400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10423300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10969300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10993500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11118900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11706600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10299000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10199800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10478600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10407700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10621500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10795700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11125100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11051800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11253000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10710600</v>
+        <v>9932300</v>
       </c>
       <c r="E49" s="3">
-        <v>10711800</v>
+        <v>9781500</v>
       </c>
       <c r="F49" s="3">
-        <v>10536400</v>
+        <v>9782600</v>
       </c>
       <c r="G49" s="3">
-        <v>10546000</v>
+        <v>9622300</v>
       </c>
       <c r="H49" s="3">
-        <v>10526500</v>
+        <v>9631100</v>
       </c>
       <c r="I49" s="3">
-        <v>10424800</v>
+        <v>9613300</v>
       </c>
       <c r="J49" s="3">
+        <v>9520400</v>
+      </c>
+      <c r="K49" s="3">
         <v>10412200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10677700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11356400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11257100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11498200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12275800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12267600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12317100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11842700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11941600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12273600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12698200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12558900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12122200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12264500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3452300</v>
+        <v>3319500</v>
       </c>
       <c r="E52" s="3">
-        <v>3356400</v>
+        <v>3152800</v>
       </c>
       <c r="F52" s="3">
-        <v>3421700</v>
+        <v>3065300</v>
       </c>
       <c r="G52" s="3">
-        <v>3366600</v>
+        <v>3124800</v>
       </c>
       <c r="H52" s="3">
-        <v>3327500</v>
+        <v>3074600</v>
       </c>
       <c r="I52" s="3">
-        <v>3372900</v>
+        <v>3038900</v>
       </c>
       <c r="J52" s="3">
+        <v>3080300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3369900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3541300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3733200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3776100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3663200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3815800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3756900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3753700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3566300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3476100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3594000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3599300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3566200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3410900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3176700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40525100</v>
+        <v>38520200</v>
       </c>
       <c r="E54" s="3">
-        <v>40536400</v>
+        <v>37009400</v>
       </c>
       <c r="F54" s="3">
-        <v>40494100</v>
+        <v>37019800</v>
       </c>
       <c r="G54" s="3">
-        <v>40384500</v>
+        <v>36981200</v>
       </c>
       <c r="H54" s="3">
-        <v>39456500</v>
+        <v>36881100</v>
       </c>
       <c r="I54" s="3">
-        <v>40104700</v>
+        <v>36033500</v>
       </c>
       <c r="J54" s="3">
+        <v>36625500</v>
+      </c>
+      <c r="K54" s="3">
         <v>39841100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41206600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43472200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44115700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44101800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47055800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46250900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46480200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45558500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45004900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46992600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46880900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>47096100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>45360300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>45578800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2888300</v>
+        <v>2737400</v>
       </c>
       <c r="E57" s="3">
-        <v>2796100</v>
+        <v>2637700</v>
       </c>
       <c r="F57" s="3">
-        <v>2662500</v>
+        <v>2553500</v>
       </c>
       <c r="G57" s="3">
-        <v>2707400</v>
+        <v>2431500</v>
       </c>
       <c r="H57" s="3">
-        <v>2591500</v>
+        <v>2472500</v>
       </c>
       <c r="I57" s="3">
-        <v>2425800</v>
+        <v>2366700</v>
       </c>
       <c r="J57" s="3">
+        <v>2215400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2337800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2623400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2781400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2974400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3359600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3327500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3477000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3521000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3497900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3441100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3458500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3553400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3501600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3302000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1130300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>349700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2694200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2693000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3194600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3055500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1774300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1697300</v>
+      </c>
+      <c r="M58" s="3">
         <v>382900</v>
       </c>
-      <c r="E58" s="3">
-        <v>2950200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2948800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3498100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3345800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1942800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1702100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1697300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>382900</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1559400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>647300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>393600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>363700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>355200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>355400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>351100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>355500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>346100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>333600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>330200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>16400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5777700</v>
+        <v>5004400</v>
       </c>
       <c r="E59" s="3">
-        <v>5725300</v>
+        <v>5276500</v>
       </c>
       <c r="F59" s="3">
-        <v>5667300</v>
+        <v>5228600</v>
       </c>
       <c r="G59" s="3">
-        <v>5534600</v>
+        <v>5175600</v>
       </c>
       <c r="H59" s="3">
-        <v>5375100</v>
+        <v>5054400</v>
       </c>
       <c r="I59" s="3">
-        <v>5061200</v>
+        <v>4908800</v>
       </c>
       <c r="J59" s="3">
+        <v>4622100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4848300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5050600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5690600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5447000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5473800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5949100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6028700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5737300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5732800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5618600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6233100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5789000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5587900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5291600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5404000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9048900</v>
+        <v>8872100</v>
       </c>
       <c r="E60" s="3">
-        <v>11471600</v>
+        <v>8263900</v>
       </c>
       <c r="F60" s="3">
-        <v>11278600</v>
+        <v>10476400</v>
       </c>
       <c r="G60" s="3">
-        <v>11740100</v>
+        <v>10300200</v>
       </c>
       <c r="H60" s="3">
-        <v>11312400</v>
+        <v>10721600</v>
       </c>
       <c r="I60" s="3">
-        <v>9429800</v>
+        <v>10331000</v>
       </c>
       <c r="J60" s="3">
+        <v>8611800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8888300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9371300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8854900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9906600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9095500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9702300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9719900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9569500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9609200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9467600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10029700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9593600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9475000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9123300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8722500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1533300</v>
+        <v>1399500</v>
       </c>
       <c r="E61" s="3">
-        <v>50500</v>
+        <v>1400300</v>
       </c>
       <c r="F61" s="3">
-        <v>48400</v>
+        <v>46100</v>
       </c>
       <c r="G61" s="3">
-        <v>40600</v>
+        <v>44200</v>
       </c>
       <c r="H61" s="3">
-        <v>41200</v>
+        <v>37100</v>
       </c>
       <c r="I61" s="3">
-        <v>3061000</v>
+        <v>37700</v>
       </c>
       <c r="J61" s="3">
+        <v>2795400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3062500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3145300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3255400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3339400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3330600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3493900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3416900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4106400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4033000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4464500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4458900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5102700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5568500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5464400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5422100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3513300</v>
+        <v>3334300</v>
       </c>
       <c r="E62" s="3">
-        <v>3772800</v>
+        <v>3208500</v>
       </c>
       <c r="F62" s="3">
-        <v>3906800</v>
+        <v>3445500</v>
       </c>
       <c r="G62" s="3">
-        <v>4013400</v>
+        <v>3567900</v>
       </c>
       <c r="H62" s="3">
-        <v>4355000</v>
+        <v>3665200</v>
       </c>
       <c r="I62" s="3">
-        <v>4541100</v>
+        <v>3977200</v>
       </c>
       <c r="J62" s="3">
+        <v>4147100</v>
+      </c>
+      <c r="K62" s="3">
         <v>4616000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4718500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5088800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5033900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5113100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5470900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4625000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4268600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4171300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4276800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4514600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4961600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5025000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4806900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4871800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16011800</v>
+        <v>15368500</v>
       </c>
       <c r="E66" s="3">
-        <v>17163600</v>
+        <v>14622700</v>
       </c>
       <c r="F66" s="3">
-        <v>17075700</v>
+        <v>15674600</v>
       </c>
       <c r="G66" s="3">
-        <v>17607400</v>
+        <v>15594300</v>
       </c>
       <c r="H66" s="3">
-        <v>17491500</v>
+        <v>16080000</v>
       </c>
       <c r="I66" s="3">
-        <v>18777900</v>
+        <v>15974000</v>
       </c>
       <c r="J66" s="3">
+        <v>17148900</v>
+      </c>
+      <c r="K66" s="3">
         <v>18302400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18997100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19007300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20076400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19314900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20507300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19558400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20069700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19855000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20209900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21042100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21635800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22008900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21257100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20892400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30759600</v>
+        <v>27990100</v>
       </c>
       <c r="E72" s="3">
-        <v>30237400</v>
+        <v>28091100</v>
       </c>
       <c r="F72" s="3">
-        <v>30218100</v>
+        <v>27614200</v>
       </c>
       <c r="G72" s="3">
-        <v>29696600</v>
+        <v>27596600</v>
       </c>
       <c r="H72" s="3">
-        <v>29674200</v>
+        <v>27120300</v>
       </c>
       <c r="I72" s="3">
-        <v>29277700</v>
+        <v>27099900</v>
       </c>
       <c r="J72" s="3">
+        <v>26737700</v>
+      </c>
+      <c r="K72" s="3">
         <v>29492400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30538400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32091400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32137500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32569200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33837500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33757700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32555000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32218900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31339500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31605600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31112000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31274100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>30073500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>30311300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24513300</v>
+        <v>23151600</v>
       </c>
       <c r="E76" s="3">
-        <v>23372800</v>
+        <v>22386700</v>
       </c>
       <c r="F76" s="3">
-        <v>23418500</v>
+        <v>21345100</v>
       </c>
       <c r="G76" s="3">
-        <v>22777100</v>
+        <v>21386900</v>
       </c>
       <c r="H76" s="3">
-        <v>21965000</v>
+        <v>20801100</v>
       </c>
       <c r="I76" s="3">
-        <v>21326800</v>
+        <v>20059500</v>
       </c>
       <c r="J76" s="3">
+        <v>19476700</v>
+      </c>
+      <c r="K76" s="3">
         <v>21538700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22209500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24464900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24039400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24787000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26548400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26692600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26410500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25703500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24795100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25950500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25245100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25087300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24103200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24686400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>510100</v>
+        <v>358100</v>
       </c>
       <c r="E81" s="3">
-        <v>420700</v>
+        <v>465800</v>
       </c>
       <c r="F81" s="3">
-        <v>521600</v>
+        <v>384200</v>
       </c>
       <c r="G81" s="3">
-        <v>379200</v>
+        <v>476400</v>
       </c>
       <c r="H81" s="3">
-        <v>457100</v>
+        <v>346300</v>
       </c>
       <c r="I81" s="3">
-        <v>142100</v>
+        <v>417500</v>
       </c>
       <c r="J81" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-75400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>193000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>297100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>243700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>316200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>677000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>429700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>706000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>516300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>493600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>570000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>625400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>488600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>397600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>510700</v>
+        <v>423400</v>
       </c>
       <c r="E83" s="3">
-        <v>464000</v>
+        <v>466400</v>
       </c>
       <c r="F83" s="3">
-        <v>478400</v>
+        <v>423800</v>
       </c>
       <c r="G83" s="3">
-        <v>434000</v>
+        <v>436900</v>
       </c>
       <c r="H83" s="3">
-        <v>525500</v>
+        <v>396400</v>
       </c>
       <c r="I83" s="3">
-        <v>492100</v>
+        <v>479900</v>
       </c>
       <c r="J83" s="3">
+        <v>449400</v>
+      </c>
+      <c r="K83" s="3">
         <v>466900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>473900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>535800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>561900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>536200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>565400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>619600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>598100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>554500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>547300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>611100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>611700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>582900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>551200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>569800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>862000</v>
+        <v>120200</v>
       </c>
       <c r="E89" s="3">
-        <v>659900</v>
+        <v>787200</v>
       </c>
       <c r="F89" s="3">
-        <v>1222900</v>
+        <v>602700</v>
       </c>
       <c r="G89" s="3">
-        <v>1102500</v>
+        <v>1116800</v>
       </c>
       <c r="H89" s="3">
-        <v>1192000</v>
+        <v>1006800</v>
       </c>
       <c r="I89" s="3">
-        <v>454100</v>
+        <v>1088600</v>
       </c>
       <c r="J89" s="3">
+        <v>414700</v>
+      </c>
+      <c r="K89" s="3">
         <v>660900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>558100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1493600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>747500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>479100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>585000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1619800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>268100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1115400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>381000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1591500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>952800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1280800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1485000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1391900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-462800</v>
+        <v>-369800</v>
       </c>
       <c r="E91" s="3">
-        <v>-351100</v>
+        <v>-422600</v>
       </c>
       <c r="F91" s="3">
-        <v>-347700</v>
+        <v>-320600</v>
       </c>
       <c r="G91" s="3">
-        <v>-351200</v>
+        <v>-317500</v>
       </c>
       <c r="H91" s="3">
-        <v>-376100</v>
+        <v>-320800</v>
       </c>
       <c r="I91" s="3">
-        <v>-331200</v>
+        <v>-343400</v>
       </c>
       <c r="J91" s="3">
+        <v>-302500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-320100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-390100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-580600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-432500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-510300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-472500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-561700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-339700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-432300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-431900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-441200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-414400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-462900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-386900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-395800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-502500</v>
+        <v>-273000</v>
       </c>
       <c r="E94" s="3">
-        <v>-579700</v>
+        <v>-458900</v>
       </c>
       <c r="F94" s="3">
-        <v>-350800</v>
+        <v>-529400</v>
       </c>
       <c r="G94" s="3">
-        <v>-334900</v>
+        <v>-320400</v>
       </c>
       <c r="H94" s="3">
-        <v>-373100</v>
+        <v>-305900</v>
       </c>
       <c r="I94" s="3">
-        <v>-331200</v>
+        <v>-340700</v>
       </c>
       <c r="J94" s="3">
+        <v>-302400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-249700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-384200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-644300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-432600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-541700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-496200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-558500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-433900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-362000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-451300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-297000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-219800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-522000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-444400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-108400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-448100</v>
       </c>
       <c r="E96" s="3">
-        <v>-401400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-366600</v>
       </c>
       <c r="G96" s="3">
-        <v>-356800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-325900</v>
       </c>
       <c r="I96" s="3">
-        <v>-356800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-325900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-749800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-782100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-830100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-802500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-829700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-732100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-726500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1086600</v>
+        <v>297800</v>
       </c>
       <c r="E100" s="3">
-        <v>-428800</v>
+        <v>-992300</v>
       </c>
       <c r="F100" s="3">
-        <v>-545300</v>
+        <v>-391600</v>
       </c>
       <c r="G100" s="3">
-        <v>-220000</v>
+        <v>-498000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1623700</v>
+        <v>-200900</v>
       </c>
       <c r="I100" s="3">
-        <v>-130900</v>
+        <v>-1482800</v>
       </c>
       <c r="J100" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="K100" s="3">
         <v>73600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>120000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1240300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>102100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-188200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-836100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-843700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-443200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-865300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-638400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-467100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-740200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-715300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37400</v>
+        <v>96300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3900</v>
+        <v>34100</v>
       </c>
       <c r="F101" s="3">
-        <v>15900</v>
+        <v>-3600</v>
       </c>
       <c r="G101" s="3">
-        <v>98300</v>
+        <v>14500</v>
       </c>
       <c r="H101" s="3">
-        <v>14900</v>
+        <v>89800</v>
       </c>
       <c r="I101" s="3">
-        <v>10000</v>
+        <v>13600</v>
       </c>
       <c r="J101" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K101" s="3">
         <v>27800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-54900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>67600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-57000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>59500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-159100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>21700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>60200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>62400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-83500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>280800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-689600</v>
+        <v>241200</v>
       </c>
       <c r="E102" s="3">
-        <v>-352500</v>
+        <v>-629800</v>
       </c>
       <c r="F102" s="3">
-        <v>342600</v>
+        <v>-321900</v>
       </c>
       <c r="G102" s="3">
-        <v>645900</v>
+        <v>312900</v>
       </c>
       <c r="H102" s="3">
-        <v>-789900</v>
+        <v>589900</v>
       </c>
       <c r="I102" s="3">
-        <v>2100</v>
+        <v>-721400</v>
       </c>
       <c r="J102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K102" s="3">
         <v>512700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>239000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-323400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>375200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-307800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-764500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-137700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-950000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>334400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>677800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-424700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>354100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>217000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>849000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6850100</v>
+        <v>7321200</v>
       </c>
       <c r="E8" s="3">
-        <v>7442900</v>
+        <v>6445600</v>
       </c>
       <c r="F8" s="3">
-        <v>6491600</v>
+        <v>7003400</v>
       </c>
       <c r="G8" s="3">
-        <v>6870300</v>
+        <v>6108300</v>
       </c>
       <c r="H8" s="3">
-        <v>6564300</v>
+        <v>6464600</v>
       </c>
       <c r="I8" s="3">
-        <v>7367300</v>
+        <v>6176600</v>
       </c>
       <c r="J8" s="3">
+        <v>6932200</v>
+      </c>
+      <c r="K8" s="3">
         <v>5911700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5743400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6892200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8686100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7990700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8297800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8307500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9990700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8607200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9148100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8684800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10127400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8990200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8972000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8628400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8561100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3777800</v>
+        <v>3919800</v>
       </c>
       <c r="E9" s="3">
-        <v>4032100</v>
+        <v>3554700</v>
       </c>
       <c r="F9" s="3">
-        <v>3469400</v>
+        <v>3794000</v>
       </c>
       <c r="G9" s="3">
-        <v>3617000</v>
+        <v>3264500</v>
       </c>
       <c r="H9" s="3">
-        <v>3570100</v>
+        <v>3403400</v>
       </c>
       <c r="I9" s="3">
-        <v>4139800</v>
+        <v>3359300</v>
       </c>
       <c r="J9" s="3">
+        <v>3895300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3359900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3394900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3732300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4829000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4407700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4575100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4556200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5372000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4640000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4834400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4664800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5186500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4630800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4492200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4478900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4479900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3072300</v>
+        <v>3401400</v>
       </c>
       <c r="E10" s="3">
-        <v>3410900</v>
+        <v>2890900</v>
       </c>
       <c r="F10" s="3">
-        <v>3022200</v>
+        <v>3209400</v>
       </c>
       <c r="G10" s="3">
-        <v>3253300</v>
+        <v>2843700</v>
       </c>
       <c r="H10" s="3">
-        <v>2994200</v>
+        <v>3061200</v>
       </c>
       <c r="I10" s="3">
-        <v>3227500</v>
+        <v>2817400</v>
       </c>
       <c r="J10" s="3">
+        <v>3036900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2551800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2348400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3159800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3857100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3583000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3722700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3751300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4618800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3967100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4313700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4020000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4940900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4359400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4479800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4149500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4081100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>555700</v>
+        <v>547700</v>
       </c>
       <c r="E12" s="3">
-        <v>594600</v>
+        <v>522900</v>
       </c>
       <c r="F12" s="3">
-        <v>566300</v>
+        <v>559500</v>
       </c>
       <c r="G12" s="3">
-        <v>552700</v>
+        <v>532900</v>
       </c>
       <c r="H12" s="3">
-        <v>524700</v>
+        <v>520100</v>
       </c>
       <c r="I12" s="3">
-        <v>565400</v>
+        <v>493700</v>
       </c>
       <c r="J12" s="3">
+        <v>532000</v>
+      </c>
+      <c r="K12" s="3">
         <v>530300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>543500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>598600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>695200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>678300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>681900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>710500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>786200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>719100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>693000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>713400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>784800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>736700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>727600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>728200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>656000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1222,11 +1242,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>306600</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6257000</v>
+        <v>6599400</v>
       </c>
       <c r="E17" s="3">
-        <v>6855900</v>
+        <v>5887500</v>
       </c>
       <c r="F17" s="3">
-        <v>6034100</v>
+        <v>6451100</v>
       </c>
       <c r="G17" s="3">
-        <v>6268300</v>
+        <v>5677800</v>
       </c>
       <c r="H17" s="3">
-        <v>6014600</v>
+        <v>5898200</v>
       </c>
       <c r="I17" s="3">
-        <v>6773400</v>
+        <v>5659400</v>
       </c>
       <c r="J17" s="3">
+        <v>6373400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5762200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5894800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6602500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8208500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7637300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7902700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7919000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9050700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7972400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8257600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7988000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9412900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8262800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8101200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7979200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7850000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>593100</v>
+        <v>721800</v>
       </c>
       <c r="E18" s="3">
-        <v>587000</v>
+        <v>558100</v>
       </c>
       <c r="F18" s="3">
-        <v>457500</v>
+        <v>552400</v>
       </c>
       <c r="G18" s="3">
-        <v>601900</v>
+        <v>430500</v>
       </c>
       <c r="H18" s="3">
-        <v>549700</v>
+        <v>566400</v>
       </c>
       <c r="I18" s="3">
-        <v>593900</v>
+        <v>517200</v>
       </c>
       <c r="J18" s="3">
+        <v>558800</v>
+      </c>
+      <c r="K18" s="3">
         <v>149500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-151500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>289600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>477600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>353300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>395000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>388500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>940000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>634800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>890500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>696800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>714500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>727300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>870700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>649200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>711100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-63900</v>
+        <v>-95200</v>
       </c>
       <c r="E20" s="3">
-        <v>-28000</v>
+        <v>-60200</v>
       </c>
       <c r="F20" s="3">
-        <v>161200</v>
+        <v>-26300</v>
       </c>
       <c r="G20" s="3">
-        <v>67600</v>
+        <v>151700</v>
       </c>
       <c r="H20" s="3">
-        <v>-33900</v>
+        <v>63700</v>
       </c>
       <c r="I20" s="3">
-        <v>32800</v>
+        <v>-31900</v>
       </c>
       <c r="J20" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K20" s="3">
         <v>29800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>91600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>81400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>75100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>57400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>111900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>80800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>87800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>68400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>45000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-64900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>952600</v>
+        <v>1042600</v>
       </c>
       <c r="E21" s="3">
-        <v>1025500</v>
+        <v>896300</v>
       </c>
       <c r="F21" s="3">
-        <v>1042400</v>
+        <v>964900</v>
       </c>
       <c r="G21" s="3">
-        <v>1106500</v>
+        <v>980900</v>
       </c>
       <c r="H21" s="3">
-        <v>912200</v>
+        <v>1041200</v>
       </c>
       <c r="I21" s="3">
-        <v>1106600</v>
+        <v>858400</v>
       </c>
       <c r="J21" s="3">
+        <v>1041200</v>
+      </c>
+      <c r="K21" s="3">
         <v>628700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>407100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>779600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1005000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>996600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1006400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1011300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1564600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1223200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1557000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1324800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1413400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1407500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1483800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1245300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1216000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1400</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
       <c r="I22" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2100</v>
       </c>
       <c r="V22" s="3">
         <v>2100</v>
       </c>
       <c r="W22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X22" s="3">
         <v>900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>527400</v>
+        <v>624500</v>
       </c>
       <c r="E23" s="3">
-        <v>557400</v>
+        <v>496200</v>
       </c>
       <c r="F23" s="3">
-        <v>617900</v>
+        <v>524500</v>
       </c>
       <c r="G23" s="3">
-        <v>668200</v>
+        <v>581500</v>
       </c>
       <c r="H23" s="3">
-        <v>514500</v>
+        <v>628700</v>
       </c>
       <c r="I23" s="3">
-        <v>624600</v>
+        <v>484100</v>
       </c>
       <c r="J23" s="3">
+        <v>587700</v>
+      </c>
+      <c r="K23" s="3">
         <v>177700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>304000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>467200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>432200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>467800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>443100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>943600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>622900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1001000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>775300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>793700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>900000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>691900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>644300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>139500</v>
+        <v>163000</v>
       </c>
       <c r="E24" s="3">
-        <v>63300</v>
+        <v>131200</v>
       </c>
       <c r="F24" s="3">
-        <v>194800</v>
+        <v>59600</v>
       </c>
       <c r="G24" s="3">
-        <v>165500</v>
+        <v>183300</v>
       </c>
       <c r="H24" s="3">
-        <v>136200</v>
+        <v>155800</v>
       </c>
       <c r="I24" s="3">
-        <v>174400</v>
+        <v>128100</v>
       </c>
       <c r="J24" s="3">
+        <v>164100</v>
+      </c>
+      <c r="K24" s="3">
         <v>28400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>91800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>135000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>148900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>127400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>107800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>228500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>159000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>262600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>234500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>260100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>191600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>250800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>180100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>201800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>387900</v>
+        <v>461500</v>
       </c>
       <c r="E26" s="3">
-        <v>494100</v>
+        <v>365000</v>
       </c>
       <c r="F26" s="3">
-        <v>423200</v>
+        <v>464900</v>
       </c>
       <c r="G26" s="3">
-        <v>502600</v>
+        <v>398200</v>
       </c>
       <c r="H26" s="3">
-        <v>378300</v>
+        <v>472900</v>
       </c>
       <c r="I26" s="3">
-        <v>450300</v>
+        <v>356000</v>
       </c>
       <c r="J26" s="3">
+        <v>423700</v>
+      </c>
+      <c r="K26" s="3">
         <v>149300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>212200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>332200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>283300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>340400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>335300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>715200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>463900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>738400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>540700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>540100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>602100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>649200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>511800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>442500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>358100</v>
+        <v>432700</v>
       </c>
       <c r="E27" s="3">
-        <v>465800</v>
+        <v>337000</v>
       </c>
       <c r="F27" s="3">
-        <v>384200</v>
+        <v>438300</v>
       </c>
       <c r="G27" s="3">
-        <v>476400</v>
+        <v>361500</v>
       </c>
       <c r="H27" s="3">
-        <v>346300</v>
+        <v>448200</v>
       </c>
       <c r="I27" s="3">
-        <v>417500</v>
+        <v>325800</v>
       </c>
       <c r="J27" s="3">
+        <v>392800</v>
+      </c>
+      <c r="K27" s="3">
         <v>129800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-75400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>193000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>297100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>243700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>316200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>677000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>429700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>706000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>516300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>493600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>570000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>625400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>488600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>397600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>63900</v>
+        <v>95200</v>
       </c>
       <c r="E32" s="3">
-        <v>28000</v>
+        <v>60200</v>
       </c>
       <c r="F32" s="3">
-        <v>-161200</v>
+        <v>26300</v>
       </c>
       <c r="G32" s="3">
-        <v>-67600</v>
+        <v>-151700</v>
       </c>
       <c r="H32" s="3">
-        <v>33900</v>
+        <v>-63700</v>
       </c>
       <c r="I32" s="3">
-        <v>-32800</v>
+        <v>31900</v>
       </c>
       <c r="J32" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-29800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-91600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-81400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-75100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-111900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-80800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-87800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-68400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>64900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>358100</v>
+        <v>432700</v>
       </c>
       <c r="E33" s="3">
-        <v>465800</v>
+        <v>337000</v>
       </c>
       <c r="F33" s="3">
-        <v>384200</v>
+        <v>438300</v>
       </c>
       <c r="G33" s="3">
-        <v>476400</v>
+        <v>361500</v>
       </c>
       <c r="H33" s="3">
-        <v>346300</v>
+        <v>448200</v>
       </c>
       <c r="I33" s="3">
-        <v>417500</v>
+        <v>325800</v>
       </c>
       <c r="J33" s="3">
+        <v>392800</v>
+      </c>
+      <c r="K33" s="3">
         <v>129800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-75400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>193000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>297100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>243700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>316200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>677000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>429700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>706000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>516300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>493600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>570000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>625400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>488600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>397600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>358100</v>
+        <v>432700</v>
       </c>
       <c r="E35" s="3">
-        <v>465800</v>
+        <v>337000</v>
       </c>
       <c r="F35" s="3">
-        <v>384200</v>
+        <v>438300</v>
       </c>
       <c r="G35" s="3">
-        <v>476400</v>
+        <v>361500</v>
       </c>
       <c r="H35" s="3">
-        <v>346300</v>
+        <v>448200</v>
       </c>
       <c r="I35" s="3">
-        <v>417500</v>
+        <v>325800</v>
       </c>
       <c r="J35" s="3">
+        <v>392800</v>
+      </c>
+      <c r="K35" s="3">
         <v>129800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-75400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>193000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>297100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>243700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>316200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>677000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>429700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>706000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>516300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>493600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>570000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>625400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>488600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>397600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3368100</v>
+        <v>3330200</v>
       </c>
       <c r="E41" s="3">
-        <v>3126900</v>
+        <v>3169200</v>
       </c>
       <c r="F41" s="3">
-        <v>3756600</v>
+        <v>2942200</v>
       </c>
       <c r="G41" s="3">
-        <v>4078600</v>
+        <v>3534800</v>
       </c>
       <c r="H41" s="3">
-        <v>3765700</v>
+        <v>3837700</v>
       </c>
       <c r="I41" s="3">
-        <v>3175900</v>
+        <v>3543300</v>
       </c>
       <c r="J41" s="3">
+        <v>2988300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3897200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4265400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3875900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3760700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4120000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3732600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4238900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4914900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4972300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5794900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5430400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6525200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5847400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6272200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5806800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5589800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31200</v>
+        <v>62600</v>
       </c>
       <c r="E42" s="3">
-        <v>26300</v>
+        <v>29300</v>
       </c>
       <c r="F42" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G42" s="3">
         <v>700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>800</v>
       </c>
       <c r="H42" s="3">
         <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J42" s="3">
+        <v>500</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>135200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>158500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>44700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>28400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4103700</v>
+        <v>4039900</v>
       </c>
       <c r="E43" s="3">
-        <v>3961300</v>
+        <v>3861400</v>
       </c>
       <c r="F43" s="3">
-        <v>3539400</v>
+        <v>3727400</v>
       </c>
       <c r="G43" s="3">
-        <v>3745300</v>
+        <v>3330400</v>
       </c>
       <c r="H43" s="3">
-        <v>3964500</v>
+        <v>3524100</v>
       </c>
       <c r="I43" s="3">
-        <v>4168600</v>
+        <v>3730400</v>
       </c>
       <c r="J43" s="3">
+        <v>3922500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3493800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3446200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4280300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5100100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4739300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4966600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5281900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5786300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5405300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5352100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5276900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5883900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5343000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5280700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5132400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5689700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5711700</v>
+        <v>5850300</v>
       </c>
       <c r="E44" s="3">
-        <v>5067900</v>
+        <v>5374400</v>
       </c>
       <c r="F44" s="3">
-        <v>4956800</v>
+        <v>4768700</v>
       </c>
       <c r="G44" s="3">
-        <v>4589300</v>
+        <v>4664100</v>
       </c>
       <c r="H44" s="3">
-        <v>4642100</v>
+        <v>4318300</v>
       </c>
       <c r="I44" s="3">
-        <v>4384300</v>
+        <v>4368000</v>
       </c>
       <c r="J44" s="3">
+        <v>4125400</v>
+      </c>
+      <c r="K44" s="3">
         <v>4811200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5149900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5291600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5327100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5829100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5780500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6255100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5770500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6134800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5448400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5319900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5153100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5613800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5395400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5047900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4973700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2503000</v>
+        <v>2650700</v>
       </c>
       <c r="E45" s="3">
-        <v>2449900</v>
+        <v>2355200</v>
       </c>
       <c r="F45" s="3">
-        <v>2494700</v>
+        <v>2305200</v>
       </c>
       <c r="G45" s="3">
-        <v>2412200</v>
+        <v>2347400</v>
       </c>
       <c r="H45" s="3">
-        <v>2341300</v>
+        <v>2269700</v>
       </c>
       <c r="I45" s="3">
-        <v>2208100</v>
+        <v>2203100</v>
       </c>
       <c r="J45" s="3">
+        <v>2077700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2290400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2648300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2537100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2612700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2795300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2745100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2865600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2873000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3042600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2885200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2925900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2603200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2531500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2430800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2480200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2343100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15717800</v>
+        <v>15933700</v>
       </c>
       <c r="E46" s="3">
-        <v>14632300</v>
+        <v>14789600</v>
       </c>
       <c r="F46" s="3">
-        <v>14748200</v>
+        <v>13768300</v>
       </c>
       <c r="G46" s="3">
-        <v>14826100</v>
+        <v>13877300</v>
       </c>
       <c r="H46" s="3">
-        <v>14714300</v>
+        <v>13950600</v>
       </c>
       <c r="I46" s="3">
-        <v>13937400</v>
+        <v>13845400</v>
       </c>
       <c r="J46" s="3">
+        <v>13114400</v>
+      </c>
+      <c r="K46" s="3">
         <v>14493300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15510900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16002400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16816700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17499700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17260800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18657200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19353700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19567400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19497500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18964900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20183100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19470900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19537600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18512000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18624800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>565000</v>
+        <v>518800</v>
       </c>
       <c r="E47" s="3">
-        <v>584100</v>
+        <v>531600</v>
       </c>
       <c r="F47" s="3">
-        <v>600800</v>
+        <v>549600</v>
       </c>
       <c r="G47" s="3">
-        <v>539900</v>
+        <v>565300</v>
       </c>
       <c r="H47" s="3">
-        <v>526900</v>
+        <v>508000</v>
       </c>
       <c r="I47" s="3">
-        <v>524000</v>
+        <v>495800</v>
       </c>
       <c r="J47" s="3">
+        <v>493100</v>
+      </c>
+      <c r="K47" s="3">
         <v>512700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>577700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>561900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>596700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>589400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>560700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>600400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>573800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>642200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>173400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>214700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>320400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>316800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>308300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>263400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>259900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8985600</v>
+        <v>8536700</v>
       </c>
       <c r="E48" s="3">
-        <v>8858700</v>
+        <v>8455000</v>
       </c>
       <c r="F48" s="3">
-        <v>8822900</v>
+        <v>8335600</v>
       </c>
       <c r="G48" s="3">
-        <v>8868000</v>
+        <v>8301900</v>
       </c>
       <c r="H48" s="3">
-        <v>8934100</v>
+        <v>8344300</v>
       </c>
       <c r="I48" s="3">
-        <v>8919900</v>
+        <v>8406500</v>
       </c>
       <c r="J48" s="3">
+        <v>8393200</v>
+      </c>
+      <c r="K48" s="3">
         <v>9018900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9970400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10423300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10969300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10993500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11118900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11706600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10299000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10199800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10478600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10407700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10621500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10795700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11125100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11051800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11253000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9932300</v>
+        <v>9436600</v>
       </c>
       <c r="E49" s="3">
-        <v>9781500</v>
+        <v>9345800</v>
       </c>
       <c r="F49" s="3">
-        <v>9782600</v>
+        <v>9203900</v>
       </c>
       <c r="G49" s="3">
-        <v>9622300</v>
+        <v>9204900</v>
       </c>
       <c r="H49" s="3">
-        <v>9631100</v>
+        <v>9054100</v>
       </c>
       <c r="I49" s="3">
-        <v>9613300</v>
+        <v>9062400</v>
       </c>
       <c r="J49" s="3">
+        <v>9045700</v>
+      </c>
+      <c r="K49" s="3">
         <v>9520400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10412200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10677700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11356400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11257100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11498200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12275800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12267600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12317100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11842700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11941600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12273600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12698200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12558900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12122200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>12264500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3319500</v>
+        <v>3354000</v>
       </c>
       <c r="E52" s="3">
-        <v>3152800</v>
+        <v>3123500</v>
       </c>
       <c r="F52" s="3">
-        <v>3065300</v>
+        <v>2966600</v>
       </c>
       <c r="G52" s="3">
-        <v>3124800</v>
+        <v>2884300</v>
       </c>
       <c r="H52" s="3">
-        <v>3074600</v>
+        <v>2940300</v>
       </c>
       <c r="I52" s="3">
-        <v>3038900</v>
+        <v>2893000</v>
       </c>
       <c r="J52" s="3">
+        <v>2859400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3080300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3369900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3541300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3733200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3776100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3663200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3815800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3756900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3753700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3566300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3476100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3594000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3599300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3566200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3410900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3176700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38520200</v>
+        <v>37779900</v>
       </c>
       <c r="E54" s="3">
-        <v>37009400</v>
+        <v>36245500</v>
       </c>
       <c r="F54" s="3">
-        <v>37019800</v>
+        <v>34824000</v>
       </c>
       <c r="G54" s="3">
-        <v>36981200</v>
+        <v>34833700</v>
       </c>
       <c r="H54" s="3">
-        <v>36881100</v>
+        <v>34797400</v>
       </c>
       <c r="I54" s="3">
-        <v>36033500</v>
+        <v>34703200</v>
       </c>
       <c r="J54" s="3">
+        <v>33905800</v>
+      </c>
+      <c r="K54" s="3">
         <v>36625500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39841100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41206600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43472200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44115700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44101800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47055800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46250900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46480200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45558500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45004900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46992600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46880900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>47096100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>45360300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>45578800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2737400</v>
+        <v>2683000</v>
       </c>
       <c r="E57" s="3">
-        <v>2637700</v>
+        <v>2575800</v>
       </c>
       <c r="F57" s="3">
-        <v>2553500</v>
+        <v>2482000</v>
       </c>
       <c r="G57" s="3">
-        <v>2431500</v>
+        <v>2402700</v>
       </c>
       <c r="H57" s="3">
-        <v>2472500</v>
+        <v>2288000</v>
       </c>
       <c r="I57" s="3">
-        <v>2366700</v>
+        <v>2326500</v>
       </c>
       <c r="J57" s="3">
+        <v>2226900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2215400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2337800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2623400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2781400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2974400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3359600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3327500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3477000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3521000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3497900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3441100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3458500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3553400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3501600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3302000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1130300</v>
+        <v>986900</v>
       </c>
       <c r="E58" s="3">
-        <v>349700</v>
+        <v>1063600</v>
       </c>
       <c r="F58" s="3">
-        <v>2694200</v>
+        <v>329100</v>
       </c>
       <c r="G58" s="3">
-        <v>2693000</v>
+        <v>2535200</v>
       </c>
       <c r="H58" s="3">
-        <v>3194600</v>
+        <v>2534000</v>
       </c>
       <c r="I58" s="3">
-        <v>3055500</v>
+        <v>3006000</v>
       </c>
       <c r="J58" s="3">
+        <v>2875100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1774300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1702100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1697300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>382900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1559400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>647300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>393600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>363700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>355200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>355400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>351100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>355500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>346100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>333600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>330200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>16400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5004400</v>
+        <v>4970800</v>
       </c>
       <c r="E59" s="3">
-        <v>5276500</v>
+        <v>4708900</v>
       </c>
       <c r="F59" s="3">
-        <v>5228600</v>
+        <v>4964900</v>
       </c>
       <c r="G59" s="3">
-        <v>5175600</v>
+        <v>4919900</v>
       </c>
       <c r="H59" s="3">
-        <v>5054400</v>
+        <v>4870000</v>
       </c>
       <c r="I59" s="3">
-        <v>4908800</v>
+        <v>4756000</v>
       </c>
       <c r="J59" s="3">
+        <v>4619000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4622100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4848300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5050600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5690600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5447000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5473800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5949100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6028700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5737300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5732800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5618600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6233100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5789000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5587900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5291600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5404000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8872100</v>
+        <v>8640700</v>
       </c>
       <c r="E60" s="3">
-        <v>8263900</v>
+        <v>8348200</v>
       </c>
       <c r="F60" s="3">
-        <v>10476400</v>
+        <v>7775900</v>
       </c>
       <c r="G60" s="3">
-        <v>10300200</v>
+        <v>9857700</v>
       </c>
       <c r="H60" s="3">
-        <v>10721600</v>
+        <v>9691900</v>
       </c>
       <c r="I60" s="3">
-        <v>10331000</v>
+        <v>10088500</v>
       </c>
       <c r="J60" s="3">
+        <v>9721000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8611800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8888300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9371300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8854900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9906600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9095500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9702300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9719900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9569500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9609200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9467600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10029700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9593600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9475000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9123300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8722500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1399500</v>
+        <v>1321900</v>
       </c>
       <c r="E61" s="3">
-        <v>1400300</v>
+        <v>1316800</v>
       </c>
       <c r="F61" s="3">
-        <v>46100</v>
+        <v>1317600</v>
       </c>
       <c r="G61" s="3">
-        <v>44200</v>
+        <v>43400</v>
       </c>
       <c r="H61" s="3">
-        <v>37100</v>
+        <v>41600</v>
       </c>
       <c r="I61" s="3">
-        <v>37700</v>
+        <v>34900</v>
       </c>
       <c r="J61" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2795400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3062500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3145300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3255400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3339400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3330600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3493900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3416900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4106400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4033000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4464500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4458900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5102700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5568500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5464400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5422100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3334300</v>
+        <v>3160900</v>
       </c>
       <c r="E62" s="3">
-        <v>3208500</v>
+        <v>3137500</v>
       </c>
       <c r="F62" s="3">
-        <v>3445500</v>
+        <v>3019100</v>
       </c>
       <c r="G62" s="3">
-        <v>3567900</v>
+        <v>3242000</v>
       </c>
       <c r="H62" s="3">
-        <v>3665200</v>
+        <v>3357200</v>
       </c>
       <c r="I62" s="3">
-        <v>3977200</v>
+        <v>3448800</v>
       </c>
       <c r="J62" s="3">
+        <v>3742300</v>
+      </c>
+      <c r="K62" s="3">
         <v>4147100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4616000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4718500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5088800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5033900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5113100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5470900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4625000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4268600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4171300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4276800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4514600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4961600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5025000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4806900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4871800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15368500</v>
+        <v>14812600</v>
       </c>
       <c r="E66" s="3">
-        <v>14622700</v>
+        <v>14461000</v>
       </c>
       <c r="F66" s="3">
-        <v>15674600</v>
+        <v>13759300</v>
       </c>
       <c r="G66" s="3">
-        <v>15594300</v>
+        <v>14749000</v>
       </c>
       <c r="H66" s="3">
-        <v>16080000</v>
+        <v>14673500</v>
       </c>
       <c r="I66" s="3">
-        <v>15974000</v>
+        <v>15130400</v>
       </c>
       <c r="J66" s="3">
+        <v>15030800</v>
+      </c>
+      <c r="K66" s="3">
         <v>17148900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18302400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18997100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19007300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20076400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19314900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20507300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19558400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20069700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19855000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20209900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21042100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21635800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>22008900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21257100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20892400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27990100</v>
+        <v>26769800</v>
       </c>
       <c r="E72" s="3">
-        <v>28091100</v>
+        <v>26337300</v>
       </c>
       <c r="F72" s="3">
-        <v>27614200</v>
+        <v>26432400</v>
       </c>
       <c r="G72" s="3">
-        <v>27596600</v>
+        <v>25983600</v>
       </c>
       <c r="H72" s="3">
-        <v>27120300</v>
+        <v>25967000</v>
       </c>
       <c r="I72" s="3">
-        <v>27099900</v>
+        <v>25518900</v>
       </c>
       <c r="J72" s="3">
+        <v>25499700</v>
+      </c>
+      <c r="K72" s="3">
         <v>26737700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29492400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30538400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32091400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32137500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32569200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33837500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33757700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32555000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32218900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>31339500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31605600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31112000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>31274100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>30073500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>30311300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23151600</v>
+        <v>22967300</v>
       </c>
       <c r="E76" s="3">
-        <v>22386700</v>
+        <v>21784500</v>
       </c>
       <c r="F76" s="3">
-        <v>21345100</v>
+        <v>21064800</v>
       </c>
       <c r="G76" s="3">
-        <v>21386900</v>
+        <v>20084700</v>
       </c>
       <c r="H76" s="3">
-        <v>20801100</v>
+        <v>20124000</v>
       </c>
       <c r="I76" s="3">
-        <v>20059500</v>
+        <v>19572800</v>
       </c>
       <c r="J76" s="3">
+        <v>18875000</v>
+      </c>
+      <c r="K76" s="3">
         <v>19476700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21538700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22209500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24464900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24039400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24787000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26548400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26692600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26410500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25703500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24795100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25950500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25245100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25087300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24103200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24686400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>358100</v>
+        <v>432700</v>
       </c>
       <c r="E81" s="3">
-        <v>465800</v>
+        <v>337000</v>
       </c>
       <c r="F81" s="3">
-        <v>384200</v>
+        <v>438300</v>
       </c>
       <c r="G81" s="3">
-        <v>476400</v>
+        <v>361500</v>
       </c>
       <c r="H81" s="3">
-        <v>346300</v>
+        <v>448200</v>
       </c>
       <c r="I81" s="3">
-        <v>417500</v>
+        <v>325800</v>
       </c>
       <c r="J81" s="3">
+        <v>392800</v>
+      </c>
+      <c r="K81" s="3">
         <v>129800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-75400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>193000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>297100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>243700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>316200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>677000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>429700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>706000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>516300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>493600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>570000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>625400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>488600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>397600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>423400</v>
+        <v>416000</v>
       </c>
       <c r="E83" s="3">
-        <v>466400</v>
+        <v>398400</v>
       </c>
       <c r="F83" s="3">
-        <v>423800</v>
+        <v>438900</v>
       </c>
       <c r="G83" s="3">
-        <v>436900</v>
+        <v>398700</v>
       </c>
       <c r="H83" s="3">
-        <v>396400</v>
+        <v>411100</v>
       </c>
       <c r="I83" s="3">
-        <v>479900</v>
+        <v>373000</v>
       </c>
       <c r="J83" s="3">
+        <v>451600</v>
+      </c>
+      <c r="K83" s="3">
         <v>449400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>466900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>473900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>535800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>561900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>536200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>565400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>619600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>598100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>554500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>547300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>611100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>611700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>582900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>551200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>569800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>120200</v>
+        <v>829400</v>
       </c>
       <c r="E89" s="3">
-        <v>787200</v>
+        <v>113100</v>
       </c>
       <c r="F89" s="3">
-        <v>602700</v>
+        <v>740700</v>
       </c>
       <c r="G89" s="3">
-        <v>1116800</v>
+        <v>567100</v>
       </c>
       <c r="H89" s="3">
-        <v>1006800</v>
+        <v>1050800</v>
       </c>
       <c r="I89" s="3">
-        <v>1088600</v>
+        <v>947400</v>
       </c>
       <c r="J89" s="3">
+        <v>1024300</v>
+      </c>
+      <c r="K89" s="3">
         <v>414700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>660900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>558100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1493600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>747500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>479100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>585000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1619800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>268100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1115400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>381000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1591500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>952800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1280800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1485000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1391900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-369800</v>
+        <v>-294500</v>
       </c>
       <c r="E91" s="3">
-        <v>-422600</v>
+        <v>-347900</v>
       </c>
       <c r="F91" s="3">
-        <v>-320600</v>
+        <v>-397700</v>
       </c>
       <c r="G91" s="3">
-        <v>-317500</v>
+        <v>-301700</v>
       </c>
       <c r="H91" s="3">
-        <v>-320800</v>
+        <v>-298800</v>
       </c>
       <c r="I91" s="3">
-        <v>-343400</v>
+        <v>-301800</v>
       </c>
       <c r="J91" s="3">
+        <v>-323200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-302500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-320100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-390100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-580600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-432500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-510300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-472500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-561700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-339700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-432300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-431900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-441200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-414400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-462900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-386900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-395800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-273000</v>
+        <v>-354400</v>
       </c>
       <c r="E94" s="3">
-        <v>-458900</v>
+        <v>-256900</v>
       </c>
       <c r="F94" s="3">
-        <v>-529400</v>
+        <v>-431800</v>
       </c>
       <c r="G94" s="3">
-        <v>-320400</v>
+        <v>-498100</v>
       </c>
       <c r="H94" s="3">
-        <v>-305900</v>
+        <v>-301500</v>
       </c>
       <c r="I94" s="3">
-        <v>-340700</v>
+        <v>-287800</v>
       </c>
       <c r="J94" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-302400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-249700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-384200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-644300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-432600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-541700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-496200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-558500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-433900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-362000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-451300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-297000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-219800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-522000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-444400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-108400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-448100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-421600</v>
       </c>
       <c r="F96" s="3">
-        <v>-366600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-344900</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-306600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-325900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-325900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-749800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-782100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-830100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-802500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-829700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-732100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-726500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>297800</v>
+        <v>-445200</v>
       </c>
       <c r="E100" s="3">
-        <v>-992300</v>
+        <v>280200</v>
       </c>
       <c r="F100" s="3">
-        <v>-391600</v>
+        <v>-933700</v>
       </c>
       <c r="G100" s="3">
-        <v>-498000</v>
+        <v>-368500</v>
       </c>
       <c r="H100" s="3">
-        <v>-200900</v>
+        <v>-468600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1482800</v>
+        <v>-189000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1395300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-119600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>120000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1240300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>102100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-188200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-836100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-843700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-443200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-865300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-638400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-467100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-740200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-715300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>96300</v>
+        <v>131100</v>
       </c>
       <c r="E101" s="3">
-        <v>34100</v>
+        <v>90600</v>
       </c>
       <c r="F101" s="3">
-        <v>-3600</v>
+        <v>32100</v>
       </c>
       <c r="G101" s="3">
-        <v>14500</v>
+        <v>-3400</v>
       </c>
       <c r="H101" s="3">
-        <v>89800</v>
+        <v>13600</v>
       </c>
       <c r="I101" s="3">
-        <v>13600</v>
+        <v>84500</v>
       </c>
       <c r="J101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K101" s="3">
         <v>9200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-54900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>67600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-41800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-57000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-70600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>59500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-159100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>21700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>60200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>62400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-83500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>280800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>241200</v>
+        <v>161000</v>
       </c>
       <c r="E102" s="3">
-        <v>-629800</v>
+        <v>227000</v>
       </c>
       <c r="F102" s="3">
-        <v>-321900</v>
+        <v>-592600</v>
       </c>
       <c r="G102" s="3">
-        <v>312900</v>
+        <v>-302900</v>
       </c>
       <c r="H102" s="3">
-        <v>589900</v>
+        <v>294400</v>
       </c>
       <c r="I102" s="3">
-        <v>-721400</v>
+        <v>555000</v>
       </c>
       <c r="J102" s="3">
+        <v>-678800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>512700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>239000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-323400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>375200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-307800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-764500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-137700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-950000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>334400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>677800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-424700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>354100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>217000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>849000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-307800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAJ_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7321200</v>
+        <v>7062300</v>
       </c>
       <c r="E8" s="3">
-        <v>6445600</v>
+        <v>7081500</v>
       </c>
       <c r="F8" s="3">
-        <v>7003400</v>
+        <v>6234600</v>
       </c>
       <c r="G8" s="3">
-        <v>6108300</v>
+        <v>6774100</v>
       </c>
       <c r="H8" s="3">
-        <v>6464600</v>
+        <v>5908300</v>
       </c>
       <c r="I8" s="3">
-        <v>6176600</v>
+        <v>6252900</v>
       </c>
       <c r="J8" s="3">
+        <v>5974400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6932200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5911700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5743400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6892200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8686100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7990700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8297800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8307500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9990700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8607200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9148100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8684800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10127400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8990200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8972000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8628400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8561100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6908300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3919800</v>
+        <v>3864500</v>
       </c>
       <c r="E9" s="3">
-        <v>3554700</v>
+        <v>3791500</v>
       </c>
       <c r="F9" s="3">
-        <v>3794000</v>
+        <v>3438400</v>
       </c>
       <c r="G9" s="3">
-        <v>3264500</v>
+        <v>3669800</v>
       </c>
       <c r="H9" s="3">
-        <v>3403400</v>
+        <v>3157600</v>
       </c>
       <c r="I9" s="3">
-        <v>3359300</v>
+        <v>3292000</v>
       </c>
       <c r="J9" s="3">
+        <v>3249300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3895300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3359900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3394900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3732300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4829000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4407700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4575100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4556200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5372000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4640000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4834400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4664800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5186500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4630800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4492200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4478900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4479900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3567700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3401400</v>
+        <v>3197800</v>
       </c>
       <c r="E10" s="3">
-        <v>2890900</v>
+        <v>3290000</v>
       </c>
       <c r="F10" s="3">
-        <v>3209400</v>
+        <v>2796200</v>
       </c>
       <c r="G10" s="3">
-        <v>2843700</v>
+        <v>3104400</v>
       </c>
       <c r="H10" s="3">
-        <v>3061200</v>
+        <v>2750600</v>
       </c>
       <c r="I10" s="3">
-        <v>2817400</v>
+        <v>2960900</v>
       </c>
       <c r="J10" s="3">
+        <v>2725100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3036900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2551800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2348400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3159800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3857100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3583000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3722700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3751300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4618800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3967100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4313700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4020000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4940900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4359400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4479800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4149500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4081100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3340500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>547700</v>
+        <v>531900</v>
       </c>
       <c r="E12" s="3">
-        <v>522900</v>
+        <v>529800</v>
       </c>
       <c r="F12" s="3">
-        <v>559500</v>
+        <v>505800</v>
       </c>
       <c r="G12" s="3">
-        <v>532900</v>
+        <v>541200</v>
       </c>
       <c r="H12" s="3">
-        <v>520100</v>
+        <v>515400</v>
       </c>
       <c r="I12" s="3">
-        <v>493700</v>
+        <v>503000</v>
       </c>
       <c r="J12" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K12" s="3">
         <v>532000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>530300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>543500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>598600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>695200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>678300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>681900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>710500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>786200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>719100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>693000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>713400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>784800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>736700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>727600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>728200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>656000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>647400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1245,11 +1265,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>306600</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6599400</v>
+        <v>6484900</v>
       </c>
       <c r="E17" s="3">
-        <v>5887500</v>
+        <v>6383300</v>
       </c>
       <c r="F17" s="3">
-        <v>6451100</v>
+        <v>5694800</v>
       </c>
       <c r="G17" s="3">
-        <v>5677800</v>
+        <v>6239900</v>
       </c>
       <c r="H17" s="3">
-        <v>5898200</v>
+        <v>5491900</v>
       </c>
       <c r="I17" s="3">
-        <v>5659400</v>
+        <v>5705100</v>
       </c>
       <c r="J17" s="3">
+        <v>5474100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6373400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5762200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5894800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6602500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8208500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7637300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7902700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7919000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9050700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7972400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8257600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7988000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9412900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8262800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8101200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7979200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7850000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6553400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>721800</v>
+        <v>577400</v>
       </c>
       <c r="E18" s="3">
-        <v>558100</v>
+        <v>698200</v>
       </c>
       <c r="F18" s="3">
-        <v>552400</v>
+        <v>539800</v>
       </c>
       <c r="G18" s="3">
-        <v>430500</v>
+        <v>534300</v>
       </c>
       <c r="H18" s="3">
-        <v>566400</v>
+        <v>416400</v>
       </c>
       <c r="I18" s="3">
-        <v>517200</v>
+        <v>547800</v>
       </c>
       <c r="J18" s="3">
+        <v>500300</v>
+      </c>
+      <c r="K18" s="3">
         <v>558800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>149500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-151500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>289600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>477600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>353300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>395000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>388500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>940000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>634800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>890500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>696800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>714500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>727300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>870700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>649200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>711100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>354900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-95200</v>
+        <v>-15300</v>
       </c>
       <c r="E20" s="3">
-        <v>-60200</v>
+        <v>-92000</v>
       </c>
       <c r="F20" s="3">
-        <v>-26300</v>
+        <v>-58200</v>
       </c>
       <c r="G20" s="3">
-        <v>151700</v>
+        <v>-25500</v>
       </c>
       <c r="H20" s="3">
-        <v>63700</v>
+        <v>146700</v>
       </c>
       <c r="I20" s="3">
-        <v>-31900</v>
+        <v>61600</v>
       </c>
       <c r="J20" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="K20" s="3">
         <v>30900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>91600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>81400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>75100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>57400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>111900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>80800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>87800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>68400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>30200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>45000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-64900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>49400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1042600</v>
+        <v>952900</v>
       </c>
       <c r="E21" s="3">
-        <v>896300</v>
+        <v>1008500</v>
       </c>
       <c r="F21" s="3">
-        <v>964900</v>
+        <v>867000</v>
       </c>
       <c r="G21" s="3">
-        <v>980900</v>
+        <v>933300</v>
       </c>
       <c r="H21" s="3">
+        <v>948800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1007100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>830200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1041200</v>
       </c>
-      <c r="I21" s="3">
-        <v>858400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1041200</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>628700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>407100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>779600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1005000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>996600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1006400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1011300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1564600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1223200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1557000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1324800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1413400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1407500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1483800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1245300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1216000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>967400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="U22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V22" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2100</v>
       </c>
       <c r="W22" s="3">
         <v>2100</v>
       </c>
       <c r="X22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>624500</v>
+        <v>560600</v>
       </c>
       <c r="E23" s="3">
-        <v>496200</v>
+        <v>604000</v>
       </c>
       <c r="F23" s="3">
-        <v>524500</v>
+        <v>480000</v>
       </c>
       <c r="G23" s="3">
-        <v>581500</v>
+        <v>507400</v>
       </c>
       <c r="H23" s="3">
-        <v>628700</v>
+        <v>562400</v>
       </c>
       <c r="I23" s="3">
-        <v>484100</v>
+        <v>608100</v>
       </c>
       <c r="J23" s="3">
+        <v>468300</v>
+      </c>
+      <c r="K23" s="3">
         <v>587700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>177700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>304000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>467200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>432200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>467800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>443100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>943600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>622900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1001000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>775300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>793700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>691900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>644300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>401500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>163000</v>
+        <v>154800</v>
       </c>
       <c r="E24" s="3">
-        <v>131200</v>
+        <v>157600</v>
       </c>
       <c r="F24" s="3">
-        <v>59600</v>
+        <v>126900</v>
       </c>
       <c r="G24" s="3">
-        <v>183300</v>
+        <v>57700</v>
       </c>
       <c r="H24" s="3">
-        <v>155800</v>
+        <v>177300</v>
       </c>
       <c r="I24" s="3">
-        <v>128100</v>
+        <v>150700</v>
       </c>
       <c r="J24" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K24" s="3">
         <v>164100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>91800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>135000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>148900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>127400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>107800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>228500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>159000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>262600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>234500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>260100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>191600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>250800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>180100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>201800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>163900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>461500</v>
+        <v>405900</v>
       </c>
       <c r="E26" s="3">
-        <v>365000</v>
+        <v>446400</v>
       </c>
       <c r="F26" s="3">
-        <v>464900</v>
+        <v>353000</v>
       </c>
       <c r="G26" s="3">
-        <v>398200</v>
+        <v>449700</v>
       </c>
       <c r="H26" s="3">
-        <v>472900</v>
+        <v>385200</v>
       </c>
       <c r="I26" s="3">
-        <v>356000</v>
+        <v>457500</v>
       </c>
       <c r="J26" s="3">
+        <v>344300</v>
+      </c>
+      <c r="K26" s="3">
         <v>423700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>212200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>332200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>283300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>340400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>335300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>715200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>463900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>738400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>540700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>540100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>602100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>649200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>511800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>442500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>432700</v>
+        <v>383700</v>
       </c>
       <c r="E27" s="3">
-        <v>337000</v>
+        <v>418500</v>
       </c>
       <c r="F27" s="3">
-        <v>438300</v>
+        <v>326000</v>
       </c>
       <c r="G27" s="3">
-        <v>361500</v>
+        <v>424000</v>
       </c>
       <c r="H27" s="3">
-        <v>448200</v>
+        <v>349700</v>
       </c>
       <c r="I27" s="3">
-        <v>325800</v>
+        <v>433500</v>
       </c>
       <c r="J27" s="3">
+        <v>315200</v>
+      </c>
+      <c r="K27" s="3">
         <v>392800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>129800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-75400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>193000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>297100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>243700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>316200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>677000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>429700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>706000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>516300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>493600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>570000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>625400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>488600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>397600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>95200</v>
+        <v>15300</v>
       </c>
       <c r="E32" s="3">
-        <v>60200</v>
+        <v>92000</v>
       </c>
       <c r="F32" s="3">
-        <v>26300</v>
+        <v>58200</v>
       </c>
       <c r="G32" s="3">
-        <v>-151700</v>
+        <v>25500</v>
       </c>
       <c r="H32" s="3">
-        <v>-63700</v>
+        <v>-146700</v>
       </c>
       <c r="I32" s="3">
-        <v>31900</v>
+        <v>-61600</v>
       </c>
       <c r="J32" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-30900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-91600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-81400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-75100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-57400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-111900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-80800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-87800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-68400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>64900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-49400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>432700</v>
+        <v>383700</v>
       </c>
       <c r="E33" s="3">
-        <v>337000</v>
+        <v>418500</v>
       </c>
       <c r="F33" s="3">
-        <v>438300</v>
+        <v>326000</v>
       </c>
       <c r="G33" s="3">
-        <v>361500</v>
+        <v>424000</v>
       </c>
       <c r="H33" s="3">
-        <v>448200</v>
+        <v>349700</v>
       </c>
       <c r="I33" s="3">
-        <v>325800</v>
+        <v>433500</v>
       </c>
       <c r="J33" s="3">
+        <v>315200</v>
+      </c>
+      <c r="K33" s="3">
         <v>392800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>129800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-75400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>193000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>297100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>243700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>316200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>677000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>429700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>706000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>516300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>493600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>570000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>625400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>488600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>397600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>432700</v>
+        <v>383700</v>
       </c>
       <c r="E35" s="3">
-        <v>337000</v>
+        <v>418500</v>
       </c>
       <c r="F35" s="3">
-        <v>438300</v>
+        <v>326000</v>
       </c>
       <c r="G35" s="3">
-        <v>361500</v>
+        <v>424000</v>
       </c>
       <c r="H35" s="3">
-        <v>448200</v>
+        <v>349700</v>
       </c>
       <c r="I35" s="3">
-        <v>325800</v>
+        <v>433500</v>
       </c>
       <c r="J35" s="3">
+        <v>315200</v>
+      </c>
+      <c r="K35" s="3">
         <v>392800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>129800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-75400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>193000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>297100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>243700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>316200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>677000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>429700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>706000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>516300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>493600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>570000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>625400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>488600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>397600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,99 +3007,103 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3330200</v>
+        <v>3299000</v>
       </c>
       <c r="E41" s="3">
-        <v>3169200</v>
+        <v>3221100</v>
       </c>
       <c r="F41" s="3">
-        <v>2942200</v>
+        <v>3065400</v>
       </c>
       <c r="G41" s="3">
-        <v>3534800</v>
+        <v>2845900</v>
       </c>
       <c r="H41" s="3">
-        <v>3837700</v>
+        <v>3419100</v>
       </c>
       <c r="I41" s="3">
-        <v>3543300</v>
+        <v>3712100</v>
       </c>
       <c r="J41" s="3">
+        <v>3427300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2988300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3897200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4265400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3875900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3760700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4120000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3732600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4238900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4914900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4972300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5794900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5430400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6525200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5847400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6272200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5806800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5589800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4740800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62600</v>
+        <v>86600</v>
       </c>
       <c r="E42" s="3">
-        <v>29300</v>
+        <v>60500</v>
       </c>
       <c r="F42" s="3">
-        <v>24800</v>
+        <v>28400</v>
       </c>
       <c r="G42" s="3">
-        <v>700</v>
+        <v>23900</v>
       </c>
       <c r="H42" s="3">
         <v>700</v>
@@ -3022,600 +3112,624 @@
         <v>700</v>
       </c>
       <c r="J42" s="3">
+        <v>600</v>
+      </c>
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>135200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>158500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>44700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>28400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>70700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4039900</v>
+        <v>3948300</v>
       </c>
       <c r="E43" s="3">
-        <v>3861400</v>
+        <v>3907600</v>
       </c>
       <c r="F43" s="3">
-        <v>3727400</v>
+        <v>3735000</v>
       </c>
       <c r="G43" s="3">
-        <v>3330400</v>
+        <v>3605400</v>
       </c>
       <c r="H43" s="3">
-        <v>3524100</v>
+        <v>3221300</v>
       </c>
       <c r="I43" s="3">
-        <v>3730400</v>
+        <v>3408700</v>
       </c>
       <c r="J43" s="3">
+        <v>3608200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3922500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3493800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3446200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4280300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5100100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4739300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4966600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5281900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5786300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5405300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5352100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5276900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5883900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5343000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5280700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5132400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5689700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3944200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5850300</v>
+        <v>6266800</v>
       </c>
       <c r="E44" s="3">
-        <v>5374400</v>
+        <v>5658800</v>
       </c>
       <c r="F44" s="3">
-        <v>4768700</v>
+        <v>5198500</v>
       </c>
       <c r="G44" s="3">
-        <v>4664100</v>
+        <v>4612500</v>
       </c>
       <c r="H44" s="3">
-        <v>4318300</v>
+        <v>4511400</v>
       </c>
       <c r="I44" s="3">
-        <v>4368000</v>
+        <v>4176900</v>
       </c>
       <c r="J44" s="3">
+        <v>4225000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4125400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4811200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5149900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5291600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5327100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5829100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5780500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6255100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5770500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6134800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5448400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5319900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5153100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5613800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5395400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5047900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4973700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4386000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2650700</v>
+        <v>2667900</v>
       </c>
       <c r="E45" s="3">
-        <v>2355200</v>
+        <v>2563900</v>
       </c>
       <c r="F45" s="3">
-        <v>2305200</v>
+        <v>2278100</v>
       </c>
       <c r="G45" s="3">
-        <v>2347400</v>
+        <v>2229700</v>
       </c>
       <c r="H45" s="3">
-        <v>2269700</v>
+        <v>2270500</v>
       </c>
       <c r="I45" s="3">
-        <v>2203100</v>
+        <v>2195400</v>
       </c>
       <c r="J45" s="3">
+        <v>2130900</v>
+      </c>
+      <c r="K45" s="3">
         <v>2077700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2290400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2648300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2537100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2612700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2795300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2745100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2865600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2873000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3042600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2885200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2925900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2603200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2531500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2430800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2480200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2343100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2022900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15933700</v>
+        <v>16268600</v>
       </c>
       <c r="E46" s="3">
-        <v>14789600</v>
+        <v>15412000</v>
       </c>
       <c r="F46" s="3">
-        <v>13768300</v>
+        <v>14305400</v>
       </c>
       <c r="G46" s="3">
-        <v>13877300</v>
+        <v>13317500</v>
       </c>
       <c r="H46" s="3">
-        <v>13950600</v>
+        <v>13423000</v>
       </c>
       <c r="I46" s="3">
-        <v>13845400</v>
+        <v>13493800</v>
       </c>
       <c r="J46" s="3">
+        <v>13392100</v>
+      </c>
+      <c r="K46" s="3">
         <v>13114400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14493300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15510900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16002400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16816700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17499700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17260800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18657200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19353700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19567400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19497500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18964900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20183100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19470900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19537600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18512000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18624800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>15164600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>518800</v>
+        <v>500800</v>
       </c>
       <c r="E47" s="3">
-        <v>531600</v>
+        <v>501900</v>
       </c>
       <c r="F47" s="3">
-        <v>549600</v>
+        <v>514200</v>
       </c>
       <c r="G47" s="3">
-        <v>565300</v>
+        <v>531700</v>
       </c>
       <c r="H47" s="3">
-        <v>508000</v>
+        <v>546800</v>
       </c>
       <c r="I47" s="3">
-        <v>495800</v>
+        <v>491400</v>
       </c>
       <c r="J47" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K47" s="3">
         <v>493100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>512700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>577700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>561900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>596700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>589400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>560700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>600400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>573800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>642200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>173400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>214700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>320400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>316800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>308300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>263400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>259900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8536700</v>
+        <v>8270800</v>
       </c>
       <c r="E48" s="3">
-        <v>8455000</v>
+        <v>8257200</v>
       </c>
       <c r="F48" s="3">
-        <v>8335600</v>
+        <v>8178200</v>
       </c>
       <c r="G48" s="3">
-        <v>8301900</v>
+        <v>8062700</v>
       </c>
       <c r="H48" s="3">
-        <v>8344300</v>
+        <v>8030100</v>
       </c>
       <c r="I48" s="3">
-        <v>8406500</v>
+        <v>8071100</v>
       </c>
       <c r="J48" s="3">
+        <v>8131300</v>
+      </c>
+      <c r="K48" s="3">
         <v>8393200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9018900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9970400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10423300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10969300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10993500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11118900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11706600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10299000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10199800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10478600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10407700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10621500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10795700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11125100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11051800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11253000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16560100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9436600</v>
+        <v>9079900</v>
       </c>
       <c r="E49" s="3">
-        <v>9345800</v>
+        <v>9127700</v>
       </c>
       <c r="F49" s="3">
-        <v>9203900</v>
+        <v>9039800</v>
       </c>
       <c r="G49" s="3">
-        <v>9204900</v>
+        <v>8902500</v>
       </c>
       <c r="H49" s="3">
-        <v>9054100</v>
+        <v>8903500</v>
       </c>
       <c r="I49" s="3">
-        <v>9062400</v>
+        <v>8757700</v>
       </c>
       <c r="J49" s="3">
+        <v>8765700</v>
+      </c>
+      <c r="K49" s="3">
         <v>9045700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9520400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10412200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10677700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11356400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11257100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11498200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12275800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12267600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12317100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11842700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11941600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12273600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12698200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12558900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>12122200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>12264500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5470000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3354000</v>
+        <v>3464400</v>
       </c>
       <c r="E52" s="3">
-        <v>3123500</v>
+        <v>3244200</v>
       </c>
       <c r="F52" s="3">
-        <v>2966600</v>
+        <v>3021200</v>
       </c>
       <c r="G52" s="3">
-        <v>2884300</v>
+        <v>2869500</v>
       </c>
       <c r="H52" s="3">
-        <v>2940300</v>
+        <v>2789800</v>
       </c>
       <c r="I52" s="3">
-        <v>2893000</v>
+        <v>2844000</v>
       </c>
       <c r="J52" s="3">
+        <v>2798300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2859400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3080300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3369900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3541300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3733200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3776100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3663200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3815800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3756900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3753700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3566300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3476100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3594000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3599300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3566200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3410900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3176700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2745200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37779900</v>
+        <v>37584500</v>
       </c>
       <c r="E54" s="3">
-        <v>36245500</v>
+        <v>36542900</v>
       </c>
       <c r="F54" s="3">
-        <v>34824000</v>
+        <v>35058800</v>
       </c>
       <c r="G54" s="3">
-        <v>34833700</v>
+        <v>33683800</v>
       </c>
       <c r="H54" s="3">
-        <v>34797400</v>
+        <v>33693200</v>
       </c>
       <c r="I54" s="3">
-        <v>34703200</v>
+        <v>33658100</v>
       </c>
       <c r="J54" s="3">
+        <v>33567000</v>
+      </c>
+      <c r="K54" s="3">
         <v>33905800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36625500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39841100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41206600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43472200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44115700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44101800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47055800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46250900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46480200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45558500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45004900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46992600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46880900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>47096100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>45360300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>45578800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>40182000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2683000</v>
+        <v>2786400</v>
       </c>
       <c r="E57" s="3">
-        <v>2575800</v>
+        <v>2595200</v>
       </c>
       <c r="F57" s="3">
-        <v>2482000</v>
+        <v>2491400</v>
       </c>
       <c r="G57" s="3">
-        <v>2402700</v>
+        <v>2400700</v>
       </c>
       <c r="H57" s="3">
-        <v>2288000</v>
+        <v>2324100</v>
       </c>
       <c r="I57" s="3">
-        <v>2326500</v>
+        <v>2213100</v>
       </c>
       <c r="J57" s="3">
+        <v>2250400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2226900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2215400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2337800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2623400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2781400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2974400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3359600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3327500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3477000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3521000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3497900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3441100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3458500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3553400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3501600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3302000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2561600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>986900</v>
+        <v>1721400</v>
       </c>
       <c r="E58" s="3">
-        <v>1063600</v>
+        <v>954600</v>
       </c>
       <c r="F58" s="3">
-        <v>329100</v>
+        <v>1028700</v>
       </c>
       <c r="G58" s="3">
-        <v>2535200</v>
+        <v>318300</v>
       </c>
       <c r="H58" s="3">
-        <v>2534000</v>
+        <v>2452100</v>
       </c>
       <c r="I58" s="3">
-        <v>3006000</v>
+        <v>2451000</v>
       </c>
       <c r="J58" s="3">
+        <v>2907600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2875100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1774300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1702100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1697300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>382900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1559400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>647300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>393600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>363700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>355200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>355400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>351100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>355500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>346100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>333600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>330200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>16400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5415700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4970800</v>
+        <v>4989000</v>
       </c>
       <c r="E59" s="3">
-        <v>4708900</v>
+        <v>4808100</v>
       </c>
       <c r="F59" s="3">
-        <v>4964900</v>
+        <v>4554700</v>
       </c>
       <c r="G59" s="3">
-        <v>4919900</v>
+        <v>4802300</v>
       </c>
       <c r="H59" s="3">
-        <v>4870000</v>
+        <v>4758800</v>
       </c>
       <c r="I59" s="3">
-        <v>4756000</v>
+        <v>4710600</v>
       </c>
       <c r="J59" s="3">
+        <v>4600300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4619000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4622100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4848300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5050600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5690600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5447000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5473800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5949100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6028700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5737300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5732800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5618600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6233100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5789000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5587900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5291600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5404000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4082900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8640700</v>
+        <v>9496700</v>
       </c>
       <c r="E60" s="3">
-        <v>8348200</v>
+        <v>8357800</v>
       </c>
       <c r="F60" s="3">
-        <v>7775900</v>
+        <v>8074900</v>
       </c>
       <c r="G60" s="3">
-        <v>9857700</v>
+        <v>7521300</v>
       </c>
       <c r="H60" s="3">
-        <v>9691900</v>
+        <v>9535000</v>
       </c>
       <c r="I60" s="3">
-        <v>10088500</v>
+        <v>9374600</v>
       </c>
       <c r="J60" s="3">
+        <v>9758200</v>
+      </c>
+      <c r="K60" s="3">
         <v>9721000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8611800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8888300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9371300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8854900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9906600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9095500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9702300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9719900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9569500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9609200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9467600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10029700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9593600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9475000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9123300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8722500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12060300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1321900</v>
+        <v>1278400</v>
       </c>
       <c r="E61" s="3">
-        <v>1316800</v>
+        <v>1278700</v>
       </c>
       <c r="F61" s="3">
-        <v>1317600</v>
+        <v>1273700</v>
       </c>
       <c r="G61" s="3">
-        <v>43400</v>
+        <v>1274400</v>
       </c>
       <c r="H61" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="I61" s="3">
-        <v>34900</v>
+        <v>40200</v>
       </c>
       <c r="J61" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K61" s="3">
         <v>35400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2795400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3062500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3145300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3255400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3339400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3330600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3493900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3416900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4106400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4033000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4464500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4458900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5102700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5568500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5464400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5422100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3160900</v>
+        <v>3027900</v>
       </c>
       <c r="E62" s="3">
-        <v>3137500</v>
+        <v>3057400</v>
       </c>
       <c r="F62" s="3">
-        <v>3019100</v>
+        <v>3034700</v>
       </c>
       <c r="G62" s="3">
-        <v>3242000</v>
+        <v>2920200</v>
       </c>
       <c r="H62" s="3">
-        <v>3357200</v>
+        <v>3135900</v>
       </c>
       <c r="I62" s="3">
-        <v>3448800</v>
+        <v>3247300</v>
       </c>
       <c r="J62" s="3">
+        <v>3335800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3742300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4147100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4616000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4718500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5088800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5033900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5113100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5470900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4625000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4268600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4171300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4276800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4514600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4961600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5025000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4806900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4871800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3040200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14812600</v>
+        <v>15445000</v>
       </c>
       <c r="E66" s="3">
-        <v>14461000</v>
+        <v>14327600</v>
       </c>
       <c r="F66" s="3">
-        <v>13759300</v>
+        <v>13987500</v>
       </c>
       <c r="G66" s="3">
-        <v>14749000</v>
+        <v>13308700</v>
       </c>
       <c r="H66" s="3">
-        <v>14673500</v>
+        <v>14266100</v>
       </c>
       <c r="I66" s="3">
-        <v>15130400</v>
+        <v>14193000</v>
       </c>
       <c r="J66" s="3">
+        <v>14635000</v>
+      </c>
+      <c r="K66" s="3">
         <v>15030800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17148900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18302400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18997100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19007300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20076400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19314900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20507300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19558400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20069700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19855000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20209900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21042100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21635800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>22008900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21257100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20892400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>16923600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26769800</v>
+        <v>25838800</v>
       </c>
       <c r="E72" s="3">
-        <v>26337300</v>
+        <v>25893300</v>
       </c>
       <c r="F72" s="3">
-        <v>26432400</v>
+        <v>25474900</v>
       </c>
       <c r="G72" s="3">
-        <v>25983600</v>
+        <v>25566900</v>
       </c>
       <c r="H72" s="3">
-        <v>25967000</v>
+        <v>25132800</v>
       </c>
       <c r="I72" s="3">
-        <v>25518900</v>
+        <v>25116800</v>
       </c>
       <c r="J72" s="3">
+        <v>24683300</v>
+      </c>
+      <c r="K72" s="3">
         <v>25499700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26737700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29492400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30538400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32091400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32137500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32569200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33837500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33757700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32555000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32218900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>31339500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>31605600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>31112000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>31274100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>30073500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>30311300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>29913700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22967300</v>
+        <v>22139400</v>
       </c>
       <c r="E76" s="3">
-        <v>21784500</v>
+        <v>22215300</v>
       </c>
       <c r="F76" s="3">
-        <v>21064800</v>
+        <v>21071200</v>
       </c>
       <c r="G76" s="3">
-        <v>20084700</v>
+        <v>20375100</v>
       </c>
       <c r="H76" s="3">
-        <v>20124000</v>
+        <v>19427100</v>
       </c>
       <c r="I76" s="3">
-        <v>19572800</v>
+        <v>19465100</v>
       </c>
       <c r="J76" s="3">
+        <v>18931900</v>
+      </c>
+      <c r="K76" s="3">
         <v>18875000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19476700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21538700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22209500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24464900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24039400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24787000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26548400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26692600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26410500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25703500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24795100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25950500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25245100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25087300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24103200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>24686400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>23258300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>432700</v>
+        <v>383700</v>
       </c>
       <c r="E81" s="3">
-        <v>337000</v>
+        <v>418500</v>
       </c>
       <c r="F81" s="3">
-        <v>438300</v>
+        <v>326000</v>
       </c>
       <c r="G81" s="3">
-        <v>361500</v>
+        <v>424000</v>
       </c>
       <c r="H81" s="3">
-        <v>448200</v>
+        <v>349700</v>
       </c>
       <c r="I81" s="3">
-        <v>325800</v>
+        <v>433500</v>
       </c>
       <c r="J81" s="3">
+        <v>315200</v>
+      </c>
+      <c r="K81" s="3">
         <v>392800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>129800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-75400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>193000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>297100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>243700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>316200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>677000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>429700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>706000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>516300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>493600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>570000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>625400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>488600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>397600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>216300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>416000</v>
+        <v>390800</v>
       </c>
       <c r="E83" s="3">
-        <v>398400</v>
+        <v>402400</v>
       </c>
       <c r="F83" s="3">
-        <v>438900</v>
+        <v>385300</v>
       </c>
       <c r="G83" s="3">
-        <v>398700</v>
+        <v>424500</v>
       </c>
       <c r="H83" s="3">
-        <v>411100</v>
+        <v>385700</v>
       </c>
       <c r="I83" s="3">
-        <v>373000</v>
+        <v>397700</v>
       </c>
       <c r="J83" s="3">
+        <v>360800</v>
+      </c>
+      <c r="K83" s="3">
         <v>451600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>449400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>466900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>473900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>535800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>561900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>536200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>565400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>619600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>598100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>554500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>547300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>611100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>611700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>582900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>551200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>569800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>563100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>829400</v>
+        <v>424700</v>
       </c>
       <c r="E89" s="3">
-        <v>113100</v>
+        <v>802300</v>
       </c>
       <c r="F89" s="3">
-        <v>740700</v>
+        <v>109400</v>
       </c>
       <c r="G89" s="3">
-        <v>567100</v>
+        <v>716500</v>
       </c>
       <c r="H89" s="3">
-        <v>1050800</v>
+        <v>548500</v>
       </c>
       <c r="I89" s="3">
-        <v>947400</v>
+        <v>1016400</v>
       </c>
       <c r="J89" s="3">
+        <v>916400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1024300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>414700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>660900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>558100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1493600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>747500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>479100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>585000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1619800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>268100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1115400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>381000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1591500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>952800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1280800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1485000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1391900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>906100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-294500</v>
+        <v>-316200</v>
       </c>
       <c r="E91" s="3">
-        <v>-347900</v>
+        <v>-284900</v>
       </c>
       <c r="F91" s="3">
-        <v>-397700</v>
+        <v>-336500</v>
       </c>
       <c r="G91" s="3">
-        <v>-301700</v>
+        <v>-384700</v>
       </c>
       <c r="H91" s="3">
-        <v>-298800</v>
+        <v>-291800</v>
       </c>
       <c r="I91" s="3">
-        <v>-301800</v>
+        <v>-289000</v>
       </c>
       <c r="J91" s="3">
+        <v>-291900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-323200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-302500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-320100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-390100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-580600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-432500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-510300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-472500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-561700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-339700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-432300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-431900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-441200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-414400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-462900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-386900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-395800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-546800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-354400</v>
+        <v>-347100</v>
       </c>
       <c r="E94" s="3">
-        <v>-256900</v>
+        <v>-342800</v>
       </c>
       <c r="F94" s="3">
-        <v>-431800</v>
+        <v>-248500</v>
       </c>
       <c r="G94" s="3">
-        <v>-498100</v>
+        <v>-417600</v>
       </c>
       <c r="H94" s="3">
-        <v>-301500</v>
+        <v>-481800</v>
       </c>
       <c r="I94" s="3">
-        <v>-287800</v>
+        <v>-291600</v>
       </c>
       <c r="J94" s="3">
+        <v>-278400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-320600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-302400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-249700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-384200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-644300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-432600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-541700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-496200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-558500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-433900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-362000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-451300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-297000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-219800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-522000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-444400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-108400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-433000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-438200</v>
       </c>
       <c r="E96" s="3">
-        <v>-421600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-407800</v>
       </c>
       <c r="G96" s="3">
-        <v>-344900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-333700</v>
       </c>
       <c r="I96" s="3">
-        <v>-306600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-296600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-325900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-749800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-782100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-830100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-802500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-829700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-732100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-726500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-726500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-445200</v>
+        <v>-50100</v>
       </c>
       <c r="E100" s="3">
-        <v>280200</v>
+        <v>-430600</v>
       </c>
       <c r="F100" s="3">
-        <v>-933700</v>
+        <v>271100</v>
       </c>
       <c r="G100" s="3">
-        <v>-368500</v>
+        <v>-903100</v>
       </c>
       <c r="H100" s="3">
-        <v>-468600</v>
+        <v>-356400</v>
       </c>
       <c r="I100" s="3">
-        <v>-189000</v>
+        <v>-453200</v>
       </c>
       <c r="J100" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1395300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-119600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>120000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1240300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>102100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-188200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-836100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1128400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-843700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-443200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-865300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-638400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1217900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-467100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-740200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-715300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-741000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>131100</v>
+        <v>50400</v>
       </c>
       <c r="E101" s="3">
-        <v>90600</v>
+        <v>126800</v>
       </c>
       <c r="F101" s="3">
-        <v>32100</v>
+        <v>87700</v>
       </c>
       <c r="G101" s="3">
-        <v>-3400</v>
+        <v>31100</v>
       </c>
       <c r="H101" s="3">
-        <v>13600</v>
+        <v>-3300</v>
       </c>
       <c r="I101" s="3">
-        <v>84500</v>
+        <v>13200</v>
       </c>
       <c r="J101" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K101" s="3">
         <v>12800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-54900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>67600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-41800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-70600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>59500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-159100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>21700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>60200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>62400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-83500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>280800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>161000</v>
+        <v>77800</v>
       </c>
       <c r="E102" s="3">
-        <v>227000</v>
+        <v>155700</v>
       </c>
       <c r="F102" s="3">
-        <v>-592600</v>
+        <v>219600</v>
       </c>
       <c r="G102" s="3">
-        <v>-302900</v>
+        <v>-573200</v>
       </c>
       <c r="H102" s="3">
-        <v>294400</v>
+        <v>-293000</v>
       </c>
       <c r="I102" s="3">
-        <v>555000</v>
+        <v>284700</v>
       </c>
       <c r="J102" s="3">
+        <v>536800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-678800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>512700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>239000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-323400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>375200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-307800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-764500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-137700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-950000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>334400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1094800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>677800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-424700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>354100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>217000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>849000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-307800</v>
       </c>
     </row>
